--- a/理财.xlsx
+++ b/理财.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyanjiang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyanjiang/LiCai-wyj/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="236">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -1133,13 +1133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>460三月</t>
-    <rPh sb="3" eb="4">
-      <t>san'yue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网利宝</t>
     <rPh sb="0" eb="1">
       <t>wang'li'bao</t>
@@ -1675,29 +1668,6 @@
   </si>
   <si>
     <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没标了38天</t>
-    <rPh sb="0" eb="1">
-      <t>mei'biao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>l</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>t</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未回款</t>
-    <rPh sb="0" eb="1">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>hui'k</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1745,7 +1715,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.qb178.com/（6月18日到期）支付密码wuyanjiang01</t>
+    <t>小智理财</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月17日）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前三天赎回，否则顺延</t>
+    <rPh sb="0" eb="1">
+      <t>ti'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>san't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fou'ze</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shun'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45天240</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月18号到期）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂涌理财</t>
+    <rPh sb="2" eb="3">
+      <t>li'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有存管，有数据,可以复投</t>
+    <rPh sb="0" eb="1">
+      <t>you'cun'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'shu'ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fu'tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小马资本</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没标了31~50天，不能新手标</t>
+    <rPh sb="0" eb="1">
+      <t>mei'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>l</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tain</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xin'shou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款</t>
+    <rPh sb="0" eb="1">
+      <t>hui'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://www.qb178.com/（6月18日到期）支付密码wuyanjiang01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要手动退出】</t>
+    </r>
     <rPh sb="23" eb="24">
       <t>yue</t>
     </rPh>
@@ -1761,116 +1893,44 @@
     <rPh sb="32" eb="33">
       <t>mi'ma</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小智理财</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>li'cai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天（6月17日）</t>
-    <rPh sb="2" eb="3">
+    <rPh sb="47" eb="48">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>shou'd</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>tui'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没标了30天[可以复投]【充值2w没反应】</t>
+    <rPh sb="0" eb="1">
+      <t>mei'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>l</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>tian</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前三天赎回，否则顺延</t>
-    <rPh sb="0" eb="1">
-      <t>ti'qian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>san't</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu'hui</t>
-    </rPh>
     <rPh sb="7" eb="8">
-      <t>fou'ze</t>
+      <t>ke'yi</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>shun'yan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没标</t>
-    <rPh sb="0" eb="1">
-      <t>mei'biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45天240</t>
-    <rPh sb="2" eb="3">
-      <t>tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天（6月18号到期）</t>
-    <rPh sb="2" eb="3">
-      <t>tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂涌理财</t>
-    <rPh sb="2" eb="3">
-      <t>li'cai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有存管，有数据,可以复投</t>
-    <rPh sb="0" eb="1">
-      <t>you'cun'g</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>you'shu'ju</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fu'tou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石墨每日限量</t>
+      <t>fu't</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mei'fan'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墨每日限量【注册验证码失败】</t>
     <rPh sb="0" eb="1">
       <t>shi'mo</t>
     </rPh>
@@ -1880,31 +1940,81 @@
     <rPh sb="4" eb="5">
       <t>xian'l</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小马资本</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'ma</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi'b</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特惠-APP专享-30天-没标</t>
-    <rPh sb="0" eb="1">
-      <t>te'hui</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhuan'xiang</t>
-    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yan'z</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ma</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi'bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已返现</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fan'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月18号到期）</t>
+  </si>
+  <si>
+    <t>（6月12号到期）25天-多多集</t>
     <rPh sb="11" eb="12">
       <t>tian</t>
     </rPh>
     <rPh sb="13" eb="14">
-      <t>mei'biao</t>
+      <t>duo'duo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji'he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <rPh sb="0" eb="1">
+      <t>he'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月18号到期）【1w新手，3w定期】</t>
+    <rPh sb="15" eb="16">
+      <t>xin'shou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ding'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己投</t>
+    <rPh sb="0" eb="1">
+      <t>zi'ji'tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己投</t>
+    <rPh sb="0" eb="1">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1913,7 +2023,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2046,6 +2156,14 @@
       <name val="DengXian (正文)"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="DengXian (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2077,7 +2195,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2118,9 +2236,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2152,6 +2267,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2435,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2456,44 +2580,44 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2510,7 +2634,15 @@
       <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="K2" s="2">
         <v>6000</v>
       </c>
@@ -2534,6 +2666,15 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="K3" s="9">
         <v>1365</v>
       </c>
@@ -2557,11 +2698,20 @@
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="K4" s="9">
         <v>5940</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>45</v>
@@ -2580,6 +2730,15 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="K5" s="9">
         <v>228</v>
       </c>
@@ -2603,15 +2762,23 @@
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="K6" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2627,7 +2794,15 @@
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2642,7 +2817,15 @@
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2657,7 +2840,21 @@
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="L9" s="16">
+        <v>35205</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2672,7 +2869,15 @@
       <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2687,7 +2892,15 @@
       <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -2702,7 +2915,15 @@
       <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -2717,399 +2938,471 @@
       <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="E13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>10000</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>505</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="16">
+      <c r="E14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="15">
         <v>10060.66</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>10000</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>606</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="16">
+      <c r="E15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="15">
         <v>10117.18</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>10000</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>242</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="16">
+      <c r="E16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="15">
         <v>10000</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>10000</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>419</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="16">
+      <c r="E17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="15">
         <v>10055.950000000001</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>10000</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>500</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="16">
+      <c r="E18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="15">
         <v>10158</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>10000</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>290</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="16">
+      <c r="E19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="15">
         <v>10052.36</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="6">
-        <v>40000</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2577</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B20" s="4">
         <v>14400</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C20" s="4">
         <v>356</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="20">
+        <v>20000</v>
+      </c>
+      <c r="C21" s="20">
+        <v>2200</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="20">
+        <v>10000</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1008</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="20">
         <v>20000</v>
       </c>
-      <c r="C22" s="6">
-        <v>2200</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="C23" s="20">
+        <v>918</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="20">
+        <v>10000</v>
+      </c>
+      <c r="C24" s="20">
+        <v>530</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B25" s="20">
+        <v>5000</v>
+      </c>
+      <c r="C25" s="20">
+        <v>101</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20">
+        <v>500</v>
+      </c>
+      <c r="C26" s="20">
+        <v>552</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="10">
         <v>10000</v>
       </c>
-      <c r="C23" s="1">
-        <v>1008</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C24" s="1">
-        <v>918</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="C27" s="10">
+        <v>454</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="16">
+        <v>10069.52</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="14">
         <v>10000</v>
       </c>
-      <c r="C25" s="1">
-        <v>530</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C26" s="1">
-        <v>101</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1">
-        <v>500</v>
-      </c>
-      <c r="C27" s="1">
-        <v>552</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="10">
+      <c r="C28" s="14">
+        <v>308</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="14">
+        <v>10083.34</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="14">
         <v>10000</v>
       </c>
-      <c r="C28" s="10">
-        <v>454</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="C29" s="14">
+        <v>326</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="14">
+        <v>10089.67</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M29" s="13">
+        <v>390</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="14">
+        <v>10000</v>
+      </c>
+      <c r="C30" s="14">
+        <v>83</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="14">
+        <v>10082.19</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="N30" s="25"/>
+    </row>
+    <row r="31" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="10">
+        <v>10000</v>
+      </c>
+      <c r="C31" s="10">
+        <v>220</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="4" t="s">
+      <c r="F31" s="2">
+        <v>110</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="15">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="17"/>
+    </row>
+    <row r="32" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="8">
         <v>10000</v>
       </c>
-      <c r="C29" s="15">
-        <v>308</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="15">
-        <v>10083.34</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="18"/>
-    </row>
-    <row r="30" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="15">
-        <v>10000</v>
-      </c>
-      <c r="C30" s="15">
-        <v>326</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="15">
-        <v>10089.67</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="M30" s="13">
-        <v>390</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C31" s="2">
-        <v>83</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="G31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="2">
-        <v>10082.19</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C32" s="10">
-        <v>220</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="2"/>
+      <c r="C32" s="8">
+        <v>705</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="8">
+        <v>580</v>
+      </c>
       <c r="G32" s="4" t="s">
         <v>62</v>
       </c>
@@ -3117,1100 +3410,1190 @@
       <c r="I32" s="4"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
-      <c r="N32" s="18"/>
+      <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="8">
         <v>10000</v>
       </c>
       <c r="C33" s="8">
-        <v>705</v>
+        <v>278</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F33" s="8">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="18"/>
-    </row>
-    <row r="34" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="8">
+        <v>215</v>
+      </c>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B34" s="8">
         <v>10000</v>
       </c>
       <c r="C34" s="8">
-        <v>278</v>
+        <v>435</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F34" s="8">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="M34" s="8">
-        <v>215</v>
-      </c>
-      <c r="N34" s="18"/>
+      <c r="L34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B35" s="8">
         <v>10000</v>
       </c>
       <c r="C35" s="8">
-        <v>435</v>
+        <v>526</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F35" s="8">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B36" s="8">
         <v>10000</v>
       </c>
       <c r="C36" s="8">
-        <v>526</v>
+        <v>236</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F36" s="8">
-        <v>395</v>
+        <v>130</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N36" s="17" t="s">
-        <v>118</v>
+        <v>93</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" s="8">
         <v>10000</v>
       </c>
       <c r="C37" s="8">
-        <v>236</v>
+        <v>400</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F37" s="8">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" s="8">
         <v>10000</v>
       </c>
       <c r="C38" s="8">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="26" t="s">
         <v>84</v>
       </c>
       <c r="F38" s="8">
-        <v>285</v>
+        <v>590</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N38" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N38" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B39" s="8">
         <v>10000</v>
       </c>
       <c r="C39" s="8">
-        <v>630</v>
+        <v>423</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="F39" s="8">
-        <v>590</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>199</v>
+        <v>320</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N39" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="N39" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B40" s="8">
         <v>10000</v>
       </c>
       <c r="C40" s="8">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>122</v>
       </c>
       <c r="F40" s="8">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N40" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="M40" s="1">
+        <v>565</v>
+      </c>
+      <c r="N40" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B41" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C41" s="8">
+        <v>835</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" s="8">
+        <v>555</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="N41" s="16"/>
+    </row>
+    <row r="42" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C42" s="8">
+        <v>683</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F42" s="21">
+        <v>600</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="N42" s="16"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="8">
         <v>10000</v>
       </c>
-      <c r="C41" s="8">
-        <v>410</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="8">
-        <v>295</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M41" s="1">
-        <v>565</v>
-      </c>
-      <c r="N41" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="8">
-        <v>30000</v>
-      </c>
-      <c r="C42" s="8">
-        <v>835</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="F42" s="8">
-        <v>555</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="N42" s="17"/>
-    </row>
-    <row r="43" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="8">
-        <v>20000</v>
-      </c>
       <c r="C43" s="8">
-        <v>683</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F43" s="22">
-        <v>600</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="N43" s="17"/>
+        <v>519</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="8">
+        <v>400</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="N43" s="16"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B44" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C44" s="8">
+        <v>474</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="8">
+        <v>374</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="N44" s="16"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C45" s="8">
+        <v>357</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" s="8">
+        <v>246</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="N45" s="16"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="8">
+        <v>40000</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1226</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="21">
+        <v>820</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="N46" s="16"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C47" s="8">
+        <v>480</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" s="21">
+        <v>160</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="N47" s="16"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="16"/>
+      <c r="N48" s="16"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="2">
+        <v>170</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="N49" s="16"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="8">
         <v>10000</v>
       </c>
-      <c r="C44" s="8">
-        <v>519</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F44" s="8">
-        <v>400</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="N44" s="17"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="4"/>
-      <c r="N45" s="17"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="21">
-        <v>215</v>
-      </c>
-      <c r="L46" s="1" t="s">
+      <c r="C50" s="8"/>
+      <c r="D50" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="21">
+        <v>280</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="N50" s="16"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="20">
+        <v>375</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="N51" s="16"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="20">
+        <v>245</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="N52" s="16"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="8">
+        <v>40000</v>
+      </c>
+      <c r="C53" s="8">
+        <v>2577</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="G53" s="16"/>
+      <c r="N53" s="16"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="16"/>
+      <c r="N54" s="16"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="16"/>
+      <c r="N55" s="16"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="20"/>
+      <c r="L56" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N46" s="17" t="s">
+      <c r="N56" s="16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F47" s="21">
-        <v>225</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N47" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F48" s="21">
-        <v>203</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N48" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F49" s="1">
-        <v>168</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M49" s="1">
-        <v>650</v>
-      </c>
-      <c r="N49" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F50" s="1">
-        <v>140</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M50" s="1">
-        <v>580</v>
-      </c>
-      <c r="N50" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="1">
-        <v>130</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M51" s="1">
-        <v>360</v>
-      </c>
-      <c r="N51" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="17"/>
-      <c r="L52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N52" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N53" s="18"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="F54" s="2">
-        <v>170</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M54" s="1">
-        <v>255</v>
-      </c>
-      <c r="N54" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N55" s="18"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" s="1">
-        <v>125</v>
-      </c>
-      <c r="N56" s="18"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>140</v>
+        <v>120</v>
+      </c>
+      <c r="B57" s="1">
+        <v>10000</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F57" s="1">
-        <v>104</v>
+      <c r="F57" s="20">
+        <v>215</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M57" s="1">
-        <v>280</v>
-      </c>
-      <c r="N57" s="17" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N57" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="F58" s="2">
-        <v>123</v>
+      <c r="A58" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F58" s="20">
+        <v>225</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N58" s="17" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N58" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F59" s="1">
-        <v>115</v>
+      <c r="F59" s="20">
+        <v>203</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N59" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M59" s="1">
+        <v>650</v>
+      </c>
+      <c r="N59" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="F60" s="1">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N60" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M60" s="1">
+        <v>580</v>
+      </c>
+      <c r="N60" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="F61" s="1">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N61" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M61" s="1">
+        <v>360</v>
+      </c>
+      <c r="N61" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="H62" s="8"/>
+      <c r="A62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" s="1">
+        <v>130</v>
+      </c>
+      <c r="G62" s="16"/>
       <c r="L62" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N62" s="17" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N62" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F63" s="1">
-        <v>145</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N63" s="17" t="s">
-        <v>117</v>
-      </c>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="8"/>
+      <c r="N63" s="17"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" s="8">
-        <v>10000</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="22">
-        <v>280</v>
-      </c>
       <c r="L64" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N64" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="M64" s="1">
+        <v>255</v>
+      </c>
+      <c r="N64" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B65" s="8">
-        <v>20000</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F65" s="22">
-        <v>205</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N65" s="17" t="s">
-        <v>117</v>
-      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="N65" s="17"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F66" s="1">
-        <v>80</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N66" s="17" t="s">
-        <v>117</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N66" s="17"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="F67" s="1">
-        <v>150</v>
-      </c>
-      <c r="N67" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M67" s="1">
+        <v>280</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N68" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N69" s="18"/>
+        <v>136</v>
+      </c>
+      <c r="F69" s="1">
+        <v>115</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N69" s="16" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="F70" s="1">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="N70" s="17" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N71" s="18"/>
+        <v>146</v>
+      </c>
+      <c r="F71" s="1">
+        <v>99</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N71" s="16" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B72" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="F72" s="21">
-        <v>375</v>
-      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="H72" s="8"/>
       <c r="L72" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N72" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="N72" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>175</v>
+        <v>152</v>
+      </c>
+      <c r="F73" s="1">
+        <v>145</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N73" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="L74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N74" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="L75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N75" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F74" s="1">
-        <v>175</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M74" s="1">
-        <v>145</v>
-      </c>
-      <c r="N74" s="17" t="s">
+      <c r="D76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" s="1">
+        <v>80</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N76" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B75" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F75" s="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B76" s="8">
-        <v>20000</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="F76" s="21">
-        <v>245</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="N76" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B77" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>201</v>
+      <c r="A77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F77" s="1">
-        <v>185</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N77" s="17"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F78" s="1">
-        <v>175</v>
+        <v>125</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M78" s="1">
-        <v>215</v>
-      </c>
-      <c r="N78" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="N78" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F79" s="1">
-        <v>140</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M79" s="1">
-        <v>215</v>
-      </c>
-      <c r="N79" s="17" t="s">
-        <v>117</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N79" s="17"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>172</v>
+        <v>136</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="F80" s="1">
-        <v>260</v>
+        <v>90</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N80" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F81" s="1">
+        <v>136</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N81" s="17"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="L82" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N82" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" s="1">
+        <v>175</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M84" s="1">
+        <v>145</v>
+      </c>
+      <c r="N84" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F85" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="L86" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N86" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F88" s="1">
+        <v>175</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M88" s="1">
+        <v>215</v>
+      </c>
+      <c r="N88" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="1">
+        <v>140</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M89" s="1">
+        <v>215</v>
+      </c>
+      <c r="N89" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F90" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F91" s="1">
         <v>190</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M81" s="1">
+      <c r="L91" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M91" s="1">
         <v>485</v>
       </c>
-      <c r="N81" s="17" t="s">
+      <c r="N91" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L82" s="1" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L92" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M92" s="1">
+        <v>380</v>
+      </c>
+      <c r="N92" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L93" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="M82" s="1">
-        <v>380</v>
-      </c>
-      <c r="N82" s="17" t="s">
+      <c r="M93" s="1">
+        <v>585</v>
+      </c>
+      <c r="N93" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L83" s="1" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L94" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M83" s="1">
-        <v>585</v>
-      </c>
-      <c r="N83" s="17" t="s">
+      <c r="M94" s="1">
+        <v>510</v>
+      </c>
+      <c r="N94" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L84" s="1" t="s">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L95" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M84" s="1">
-        <v>510</v>
-      </c>
-      <c r="N84" s="17" t="s">
+      <c r="M95" s="1">
+        <v>445</v>
+      </c>
+      <c r="N95" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L85" s="1" t="s">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L96" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="M85" s="1">
-        <v>445</v>
-      </c>
-      <c r="N85" s="17" t="s">
+      <c r="M96" s="1">
+        <v>660</v>
+      </c>
+      <c r="N96" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L86" s="1" t="s">
+    <row r="97" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L97" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M86" s="1">
-        <v>660</v>
-      </c>
-      <c r="N86" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L87" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="M87" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N87" s="17" t="s">
+      <c r="N97" s="16" t="s">
         <v>117</v>
       </c>
     </row>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="238">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -1968,19 +1968,6 @@
     <t>30天（6月18号到期）</t>
   </si>
   <si>
-    <t>（6月12号到期）25天-多多集</t>
-    <rPh sb="11" eb="12">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>duo'duo</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ji'he</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合计</t>
     <rPh sb="0" eb="1">
       <t>he'ji</t>
@@ -2016,6 +2003,52 @@
     <rPh sb="2" eb="3">
       <t>tou</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（6月12号到期）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-多多集</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>duo'duo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji'he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月19号到期）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2023,7 +2056,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2164,6 +2197,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2195,7 +2245,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2277,6 +2327,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2559,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2635,7 +2694,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>69</v>
@@ -2667,7 +2726,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>69</v>
@@ -2699,7 +2758,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>69</v>
@@ -2731,7 +2790,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>69</v>
@@ -2763,7 +2822,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>69</v>
@@ -2795,7 +2854,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>69</v>
@@ -2818,7 +2877,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>69</v>
@@ -2841,7 +2900,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>69</v>
@@ -2850,7 +2909,7 @@
         <v>72</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L9" s="16">
         <v>35205</v>
@@ -2870,7 +2929,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>69</v>
@@ -2893,7 +2952,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>69</v>
@@ -2916,7 +2975,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>69</v>
@@ -2939,7 +2998,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>69</v>
@@ -3118,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>69</v>
@@ -3141,7 +3200,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -3158,7 +3217,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -3175,7 +3234,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -3192,7 +3251,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -3209,7 +3268,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -3226,33 +3285,37 @@
         <v>47</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="14">
         <v>10000</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="14">
         <v>454</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="14">
         <v>10069.52</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="28" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
@@ -3340,7 +3403,7 @@
         <v>57</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>62</v>
@@ -3366,7 +3429,7 @@
       <c r="C31" s="10">
         <v>220</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="24" t="s">
         <v>55</v>
       </c>
       <c r="E31" s="11" t="s">
@@ -3772,7 +3835,7 @@
         <v>357</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>215</v>
@@ -3796,7 +3859,7 @@
         <v>1226</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>154</v>
@@ -3823,7 +3886,7 @@
         <v>229</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F47" s="21">
         <v>160</v>
@@ -3834,117 +3897,132 @@
       <c r="N47" s="16"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="16"/>
+      <c r="A48" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="8">
+        <v>10200</v>
+      </c>
+      <c r="C48" s="8">
+        <v>691</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" s="21">
+        <v>540.6</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>198</v>
+      </c>
       <c r="N48" s="16"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F49" s="2">
-        <v>170</v>
-      </c>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="16"/>
       <c r="N49" s="16"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B50" s="8">
-        <v>10000</v>
-      </c>
-      <c r="C50" s="8"/>
+      <c r="A50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="2">
+        <v>20000</v>
+      </c>
       <c r="D50" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" s="21">
-        <v>280</v>
+        <v>227</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F50" s="2">
+        <v>170</v>
       </c>
       <c r="G50" s="16"/>
       <c r="N50" s="16"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B51" s="2">
-        <v>20000</v>
-      </c>
+      <c r="A51" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C51" s="8"/>
       <c r="D51" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F51" s="20">
-        <v>375</v>
+        <v>223</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="21">
+        <v>280</v>
       </c>
       <c r="G51" s="16"/>
       <c r="N51" s="16"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B52" s="8">
+      <c r="A52" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="2">
         <v>20000</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>209</v>
+      <c r="D52" s="24" t="s">
+        <v>226</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>154</v>
       </c>
       <c r="F52" s="20">
-        <v>245</v>
+        <v>375</v>
       </c>
       <c r="G52" s="16"/>
       <c r="N52" s="16"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="B53" s="8">
-        <v>40000</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2577</v>
+        <v>20000</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="F53" s="20"/>
+        <v>154</v>
+      </c>
+      <c r="F53" s="20">
+        <v>245</v>
+      </c>
       <c r="G53" s="16"/>
       <c r="N53" s="16"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
+      <c r="A54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="8">
+        <v>40000</v>
+      </c>
+      <c r="C54" s="8">
+        <v>2577</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>234</v>
+      </c>
       <c r="F54" s="20"/>
       <c r="G54" s="16"/>
       <c r="N54" s="16"/>
@@ -3964,94 +4042,83 @@
       <c r="D56" s="23"/>
       <c r="E56" s="24"/>
       <c r="F56" s="20"/>
-      <c r="L56" s="1" t="s">
+      <c r="G56" s="16"/>
+      <c r="N56" s="16"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="20"/>
+      <c r="L57" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="N56" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F57" s="20">
-        <v>215</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="N57" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>67</v>
+      <c r="A58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="1">
+        <v>10000</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="F58" s="20">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N58" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>68</v>
+      <c r="A59" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="F59" s="20">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M59" s="1">
-        <v>650</v>
+        <v>107</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F60" s="1">
-        <v>168</v>
+        <v>136</v>
+      </c>
+      <c r="F60" s="20">
+        <v>203</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M60" s="1">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="N60" s="16" t="s">
         <v>95</v>
@@ -4059,19 +4126,19 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="F61" s="1">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M61" s="1">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="N61" s="16" t="s">
         <v>95</v>
@@ -4079,104 +4146,125 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F62" s="1">
-        <v>130</v>
-      </c>
-      <c r="G62" s="16"/>
+        <v>140</v>
+      </c>
       <c r="L62" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="M62" s="1">
+        <v>360</v>
       </c>
       <c r="N62" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="8"/>
-      <c r="N63" s="17"/>
+      <c r="A63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="1">
+        <v>130</v>
+      </c>
+      <c r="G63" s="16"/>
+      <c r="L63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N63" s="16" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L64" s="1" t="s">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="8"/>
+      <c r="N64" s="17"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L65" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M65" s="1">
         <v>255</v>
       </c>
-      <c r="N64" s="16" t="s">
+      <c r="N65" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="N65" s="17"/>
-    </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="N66" s="17"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F66" s="1">
+      <c r="E67" s="29"/>
+      <c r="F67" s="28">
         <v>125</v>
       </c>
-      <c r="N66" s="17"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="N67" s="17"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F67" s="1">
+      <c r="E68" s="29"/>
+      <c r="F68" s="28">
         <v>104</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L68" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M68" s="1">
         <v>280</v>
       </c>
-      <c r="N67" s="16" t="s">
+      <c r="N68" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="L68" s="1" t="s">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F69" s="28">
+        <v>150</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F69" s="1">
-        <v>115</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="N69" s="16" t="s">
         <v>95</v>
@@ -4184,16 +4272,16 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>136</v>
       </c>
       <c r="F70" s="1">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N70" s="16" t="s">
         <v>95</v>
@@ -4201,57 +4289,64 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="1">
         <v>145</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F71" s="1">
-        <v>99</v>
-      </c>
       <c r="L71" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="N71" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="H72" s="8"/>
+      <c r="A72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F72" s="1">
+        <v>99</v>
+      </c>
       <c r="L72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N72" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="H73" s="8"/>
+      <c r="L73" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="N72" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F73" s="1">
-        <v>145</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="N73" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="1">
+        <v>145</v>
+      </c>
       <c r="L74" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N74" s="16" t="s">
         <v>117</v>
@@ -4261,27 +4356,17 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="N75" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F76" s="1">
-        <v>80</v>
-      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
       <c r="L76" s="1" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="N76" s="16" t="s">
         <v>117</v>
@@ -4289,206 +4374,194 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>152</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F77" s="1">
-        <v>150</v>
-      </c>
-      <c r="N77" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N77" s="16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N78" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="N78" s="17"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N79" s="17"/>
+        <v>165</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N79" s="16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F80" s="1">
-        <v>90</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N80" s="16" t="s">
-        <v>117</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N80" s="17"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F81" s="1">
+        <v>90</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N81" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="N81" s="17"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="L82" s="1" t="s">
+      <c r="N82" s="17"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="L83" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="N82" s="16" t="s">
+      <c r="N83" s="16" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F85" s="1">
         <v>175</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="L85" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M84" s="1">
+      <c r="M85" s="1">
         <v>145</v>
       </c>
-      <c r="N84" s="16" t="s">
+      <c r="N85" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B86" s="6">
         <v>10000</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D86" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F86" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="L86" s="1" t="s">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="L87" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="N86" s="16" t="s">
+      <c r="N87" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="8"/>
-    </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F88" s="1">
-        <v>175</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M88" s="1">
-        <v>215</v>
-      </c>
-      <c r="N88" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="8"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="F89" s="1">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M89" s="1">
         <v>215</v>
@@ -4499,44 +4572,53 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="F90" s="1">
-        <v>260</v>
+        <v>140</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M90" s="1">
+        <v>215</v>
+      </c>
+      <c r="N90" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F91" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F92" s="1">
         <v>190</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M91" s="1">
+      <c r="M92" s="1">
         <v>485</v>
-      </c>
-      <c r="N91" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L92" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M92" s="1">
-        <v>380</v>
       </c>
       <c r="N92" s="16" t="s">
         <v>117</v>
@@ -4544,10 +4626,10 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L93" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M93" s="1">
-        <v>585</v>
+        <v>380</v>
       </c>
       <c r="N93" s="16" t="s">
         <v>117</v>
@@ -4555,10 +4637,10 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L94" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M94" s="1">
-        <v>510</v>
+        <v>585</v>
       </c>
       <c r="N94" s="16" t="s">
         <v>117</v>
@@ -4566,10 +4648,10 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L95" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M95" s="1">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="N95" s="16" t="s">
         <v>117</v>
@@ -4577,10 +4659,10 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L96" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M96" s="1">
-        <v>660</v>
+        <v>445</v>
       </c>
       <c r="N96" s="16" t="s">
         <v>117</v>
@@ -4588,12 +4670,23 @@
     </row>
     <row r="97" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L97" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M97" s="1">
+        <v>660</v>
+      </c>
+      <c r="N97" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L98" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N97" s="16" t="s">
+      <c r="N98" s="16" t="s">
         <v>117</v>
       </c>
     </row>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="243">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -2049,6 +2049,44 @@
   </si>
   <si>
     <t>30天（6月19号到期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心贷</t>
+    <rPh sb="0" eb="1">
+      <t>an'xin'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天75</t>
+    <rPh sb="1" eb="2">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大平台，稳如狗，前80</t>
+    <rPh sb="0" eb="1">
+      <t>da'ping't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'ru'gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱盆网</t>
+    <rPh sb="0" eb="1">
+      <t>qian'pen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2238,8 +2276,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2276,9 +2320,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2337,13 +2378,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2620,8 +2670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2629,54 +2679,55 @@
     <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="38.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="23" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.83203125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.1640625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2693,13 +2744,13 @@
       <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>71</v>
       </c>
       <c r="K2" s="2">
@@ -2725,13 +2776,13 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>72</v>
       </c>
       <c r="K3" s="9">
@@ -2757,13 +2808,13 @@
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>70</v>
       </c>
       <c r="K4" s="9">
@@ -2789,13 +2840,13 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>72</v>
       </c>
       <c r="K5" s="9">
@@ -2821,13 +2872,13 @@
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -2853,13 +2904,13 @@
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2876,13 +2927,13 @@
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2899,19 +2950,19 @@
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>35205</v>
       </c>
     </row>
@@ -2928,13 +2979,13 @@
       <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2951,13 +3002,13 @@
       <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2974,13 +3025,13 @@
       <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2997,169 +3048,169 @@
       <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>10000</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>505</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>10060.66</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>10000</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>606</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <v>10117.18</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>10000</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>242</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <v>10000</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>10000</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>419</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>10055.950000000001</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>10000</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>500</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <v>10158</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>10000</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>290</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <v>10052.36</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3176,276 +3227,281 @@
       <c r="D20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>20000</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>2200</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="23" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>10000</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>1008</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="23" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>20000</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>918</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="23" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>10000</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>530</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="23" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>5000</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>101</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="23" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>500</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>552</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="23" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>10000</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>454</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>10069.52</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>10000</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>308</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>10083.34</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="17"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="16"/>
     </row>
     <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>10000</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>326</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <v>10089.67</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="12">
         <v>390</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>10000</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>83</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>10082.19</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="N30" s="25"/>
-    </row>
-    <row r="31" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="4">
         <v>10000</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="4">
         <v>220</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="4">
         <v>110</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="17"/>
+      <c r="H31" s="13">
+        <v>10082.19</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
@@ -3457,10 +3513,10 @@
       <c r="C32" s="8">
         <v>705</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="23" t="s">
         <v>64</v>
       </c>
       <c r="F32" s="8">
@@ -3471,9 +3527,9 @@
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="17"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="16"/>
     </row>
     <row r="33" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
@@ -3485,10 +3541,10 @@
       <c r="C33" s="8">
         <v>278</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="23" t="s">
         <v>50</v>
       </c>
       <c r="F33" s="8">
@@ -3502,7 +3558,7 @@
       <c r="M33" s="8">
         <v>215</v>
       </c>
-      <c r="N33" s="17"/>
+      <c r="N33" s="16"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -3514,10 +3570,10 @@
       <c r="C34" s="8">
         <v>435</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="23" t="s">
         <v>78</v>
       </c>
       <c r="F34" s="8">
@@ -3532,7 +3588,7 @@
       <c r="M34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N34" s="16" t="s">
+      <c r="N34" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3546,10 +3602,10 @@
       <c r="C35" s="8">
         <v>526</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="23" t="s">
         <v>82</v>
       </c>
       <c r="F35" s="8">
@@ -3564,7 +3620,7 @@
       <c r="M35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="15" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3578,10 +3634,10 @@
       <c r="C36" s="8">
         <v>236</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="8">
@@ -3610,10 +3666,10 @@
       <c r="C37" s="8">
         <v>400</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F37" s="8">
@@ -3628,7 +3684,7 @@
       <c r="M37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N37" s="16" t="s">
+      <c r="N37" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3642,10 +3698,10 @@
       <c r="C38" s="8">
         <v>630</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F38" s="8">
@@ -3660,7 +3716,7 @@
       <c r="M38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N38" s="16" t="s">
+      <c r="N38" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3674,10 +3730,10 @@
       <c r="C39" s="8">
         <v>423</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="23" t="s">
         <v>122</v>
       </c>
       <c r="F39" s="8">
@@ -3692,7 +3748,7 @@
       <c r="M39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N39" s="16" t="s">
+      <c r="N39" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3706,10 +3762,10 @@
       <c r="C40" s="8">
         <v>410</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="23" t="s">
         <v>122</v>
       </c>
       <c r="F40" s="8">
@@ -3724,7 +3780,7 @@
       <c r="M40" s="1">
         <v>565</v>
       </c>
-      <c r="N40" s="16" t="s">
+      <c r="N40" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3738,19 +3794,19 @@
       <c r="C41" s="8">
         <v>835</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="23" t="s">
         <v>217</v>
       </c>
       <c r="F41" s="8">
         <v>555</v>
       </c>
-      <c r="G41" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="N41" s="16"/>
+      <c r="G41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N41" s="15"/>
     </row>
     <row r="42" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
@@ -3762,19 +3818,19 @@
       <c r="C42" s="8">
         <v>683</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <v>600</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="N42" s="16"/>
+      <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
@@ -3786,19 +3842,19 @@
       <c r="C43" s="8">
         <v>519</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="23" t="s">
         <v>211</v>
       </c>
       <c r="F43" s="8">
         <v>400</v>
       </c>
-      <c r="G43" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="N43" s="16"/>
+      <c r="G43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N43" s="15"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
@@ -3810,19 +3866,19 @@
       <c r="C44" s="8">
         <v>474</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="23" t="s">
         <v>200</v>
       </c>
       <c r="F44" s="8">
         <v>374</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="N44" s="16"/>
+      <c r="N44" s="15"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
@@ -3834,22 +3890,22 @@
       <c r="C45" s="8">
         <v>357</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="23" t="s">
         <v>215</v>
       </c>
       <c r="F45" s="8">
-        <v>246</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="N45" s="16"/>
+        <v>250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>153</v>
       </c>
       <c r="B46" s="8">
@@ -3858,19 +3914,19 @@
       <c r="C46" s="8">
         <v>1226</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="20">
         <v>820</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="N46" s="16"/>
+      <c r="N46" s="15"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
@@ -3882,19 +3938,22 @@
       <c r="C47" s="8">
         <v>480</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="20">
         <v>160</v>
       </c>
-      <c r="G47" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="N47" s="16"/>
+      <c r="G47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47" s="1">
+        <v>122316851</v>
+      </c>
+      <c r="N47" s="15"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
@@ -3906,29 +3965,28 @@
       <c r="C48" s="8">
         <v>691</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="20">
         <v>540.6</v>
       </c>
-      <c r="G48" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="N48" s="16"/>
+      <c r="G48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N48" s="15"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="16"/>
-      <c r="N49" s="16"/>
+      <c r="D49" s="11"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="15"/>
+      <c r="N49" s="15"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
@@ -3937,7 +3995,7 @@
       <c r="B50" s="2">
         <v>20000</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="23" t="s">
         <v>227</v>
       </c>
       <c r="E50" s="23" t="s">
@@ -3946,8 +4004,8 @@
       <c r="F50" s="2">
         <v>170</v>
       </c>
-      <c r="G50" s="16"/>
-      <c r="N50" s="16"/>
+      <c r="G50" s="15"/>
+      <c r="N50" s="15"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
@@ -3957,17 +4015,17 @@
         <v>10000</v>
       </c>
       <c r="C51" s="8"/>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="20">
         <v>280</v>
       </c>
-      <c r="G51" s="16"/>
-      <c r="N51" s="16"/>
+      <c r="G51" s="15"/>
+      <c r="N51" s="15"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
@@ -3976,17 +4034,17 @@
       <c r="B52" s="2">
         <v>20000</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="19">
         <v>375</v>
       </c>
-      <c r="G52" s="16"/>
-      <c r="N52" s="16"/>
+      <c r="G52" s="15"/>
+      <c r="N52" s="15"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
@@ -3995,17 +4053,17 @@
       <c r="B53" s="8">
         <v>20000</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="19">
         <v>245</v>
       </c>
-      <c r="G53" s="16"/>
-      <c r="N53" s="16"/>
+      <c r="G53" s="15"/>
+      <c r="N53" s="15"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
@@ -4017,47 +4075,44 @@
       <c r="C54" s="8">
         <v>2577</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="16"/>
-      <c r="N54" s="16"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="15"/>
+      <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="16"/>
-      <c r="N55" s="16"/>
+      <c r="D55" s="22"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="15"/>
+      <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="16"/>
-      <c r="N56" s="16"/>
+      <c r="D56" s="22"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="15"/>
+      <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="20"/>
+      <c r="D57" s="22"/>
+      <c r="F57" s="19"/>
       <c r="L57" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N57" s="16" t="s">
+      <c r="N57" s="15" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4071,7 +4126,7 @@
       <c r="D58" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="19">
         <v>215</v>
       </c>
       <c r="L58" s="1" t="s">
@@ -4080,7 +4135,7 @@
       <c r="M58" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N58" s="16" t="s">
+      <c r="N58" s="15" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4091,7 +4146,7 @@
       <c r="D59" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="19">
         <v>225</v>
       </c>
       <c r="L59" s="1" t="s">
@@ -4100,7 +4155,7 @@
       <c r="M59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N59" s="16" t="s">
+      <c r="N59" s="15" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4111,7 +4166,7 @@
       <c r="D60" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="19">
         <v>203</v>
       </c>
       <c r="L60" s="1" t="s">
@@ -4120,7 +4175,7 @@
       <c r="M60" s="1">
         <v>650</v>
       </c>
-      <c r="N60" s="16" t="s">
+      <c r="N60" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4140,7 +4195,7 @@
       <c r="M61" s="1">
         <v>580</v>
       </c>
-      <c r="N61" s="16" t="s">
+      <c r="N61" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4160,7 +4215,7 @@
       <c r="M62" s="1">
         <v>360</v>
       </c>
-      <c r="N62" s="16" t="s">
+      <c r="N62" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4174,68 +4229,77 @@
       <c r="F63" s="1">
         <v>130</v>
       </c>
-      <c r="G63" s="16"/>
+      <c r="G63" s="15"/>
       <c r="L63" s="1" t="s">
         <v>111</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N63" s="16" t="s">
+      <c r="N63" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
+      <c r="A64" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="8"/>
-      <c r="N64" s="17"/>
+      <c r="D64" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="N64" s="16"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="L65" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M65" s="1">
         <v>255</v>
       </c>
-      <c r="N65" s="16" t="s">
+      <c r="N65" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="N66" s="17"/>
+      <c r="E66" s="15"/>
+      <c r="N66" s="16"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29" t="s">
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="28">
+      <c r="F67" s="27">
         <v>125</v>
       </c>
-      <c r="N67" s="17"/>
+      <c r="N67" s="16"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29" t="s">
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E68" s="29"/>
-      <c r="F68" s="28">
+      <c r="F68" s="27">
         <v>104</v>
       </c>
       <c r="L68" s="1" t="s">
@@ -4244,29 +4308,29 @@
       <c r="M68" s="1">
         <v>280</v>
       </c>
-      <c r="N68" s="16" t="s">
+      <c r="N68" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29" t="s">
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F69" s="28">
+      <c r="F69" s="27">
         <v>150</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N69" s="16" t="s">
+      <c r="N69" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4283,7 +4347,7 @@
       <c r="L70" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N70" s="16" t="s">
+      <c r="N70" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4300,7 +4364,7 @@
       <c r="L71" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N71" s="16" t="s">
+      <c r="N71" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4320,18 +4384,18 @@
       <c r="M72" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N72" s="16" t="s">
+      <c r="N72" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="15"/>
       <c r="H73" s="8"/>
       <c r="L73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N73" s="16" t="s">
+      <c r="N73" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4348,27 +4412,27 @@
       <c r="L74" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N74" s="16" t="s">
+      <c r="N74" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="15"/>
       <c r="L75" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N75" s="16" t="s">
+      <c r="N75" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="15"/>
       <c r="L76" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N76" s="16" t="s">
+      <c r="N76" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4379,7 +4443,7 @@
       <c r="D77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="23" t="s">
         <v>156</v>
       </c>
       <c r="F77" s="1">
@@ -4388,12 +4452,12 @@
       <c r="L77" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N77" s="16" t="s">
+      <c r="N77" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N78" s="17"/>
+      <c r="N78" s="16"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
@@ -4402,7 +4466,7 @@
       <c r="D79" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="23" t="s">
         <v>164</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -4411,7 +4475,7 @@
       <c r="L79" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N79" s="16" t="s">
+      <c r="N79" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4422,13 +4486,13 @@
       <c r="D80" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="23" t="s">
         <v>167</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="N80" s="17"/>
+      <c r="N80" s="16"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -4437,7 +4501,7 @@
       <c r="D81" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="23" t="s">
         <v>169</v>
       </c>
       <c r="F81" s="1">
@@ -4446,7 +4510,7 @@
       <c r="L81" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N81" s="16" t="s">
+      <c r="N81" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4457,21 +4521,21 @@
       <c r="D82" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="23" t="s">
         <v>214</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="N82" s="17"/>
+      <c r="N82" s="16"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="E83" s="15"/>
       <c r="L83" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="N83" s="16" t="s">
+      <c r="N83" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4482,7 +4546,7 @@
       <c r="D84" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="23" t="s">
         <v>164</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -4496,7 +4560,7 @@
       <c r="D85" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="23" t="s">
         <v>154</v>
       </c>
       <c r="F85" s="1">
@@ -4508,7 +4572,7 @@
       <c r="M85" s="1">
         <v>145</v>
       </c>
-      <c r="N85" s="16" t="s">
+      <c r="N85" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4522,7 +4586,7 @@
       <c r="D86" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="23" t="s">
         <v>167</v>
       </c>
       <c r="F86" s="1">
@@ -4531,14 +4595,14 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="15"/>
       <c r="L87" s="1" t="s">
         <v>180</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="N87" s="16" t="s">
+      <c r="N87" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4546,8 +4610,7 @@
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="26"/>
+      <c r="D88" s="11"/>
       <c r="F88" s="8"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -4566,7 +4629,7 @@
       <c r="M89" s="1">
         <v>215</v>
       </c>
-      <c r="N89" s="16" t="s">
+      <c r="N89" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4586,7 +4649,7 @@
       <c r="M90" s="1">
         <v>215</v>
       </c>
-      <c r="N90" s="16" t="s">
+      <c r="N90" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4608,7 +4671,7 @@
       <c r="D92" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="15" t="s">
         <v>220</v>
       </c>
       <c r="F92" s="1">
@@ -4620,7 +4683,7 @@
       <c r="M92" s="1">
         <v>485</v>
       </c>
-      <c r="N92" s="16" t="s">
+      <c r="N92" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4631,7 +4694,7 @@
       <c r="M93" s="1">
         <v>380</v>
       </c>
-      <c r="N93" s="16" t="s">
+      <c r="N93" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4642,7 +4705,7 @@
       <c r="M94" s="1">
         <v>585</v>
       </c>
-      <c r="N94" s="16" t="s">
+      <c r="N94" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4653,7 +4716,7 @@
       <c r="M95" s="1">
         <v>510</v>
       </c>
-      <c r="N95" s="16" t="s">
+      <c r="N95" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4664,7 +4727,7 @@
       <c r="M96" s="1">
         <v>445</v>
       </c>
-      <c r="N96" s="16" t="s">
+      <c r="N96" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4675,7 +4738,7 @@
       <c r="M97" s="1">
         <v>660</v>
       </c>
-      <c r="N97" s="16" t="s">
+      <c r="N97" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4686,7 +4749,7 @@
       <c r="M98" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N98" s="16" t="s">
+      <c r="N98" s="15" t="s">
         <v>117</v>
       </c>
     </row>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="248">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -1593,16 +1593,6 @@
     <t>30天（6月17号到期）</t>
     <rPh sb="2" eb="3">
       <t>tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未返现</t>
-    <rPh sb="0" eb="1">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fan'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2087,6 +2077,64 @@
   </si>
   <si>
     <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未返现</t>
+    <rPh sb="0" eb="1">
+      <t>wei'fan'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30天（6月23号）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【要手动退出】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元泰资本</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'tai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雁金服</t>
+    <rPh sb="0" eb="1">
+      <t>da'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有存管，上市</t>
+    <rPh sb="0" eb="1">
+      <t>you'cun'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shagn'shi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2668,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2745,7 +2793,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>69</v>
@@ -2777,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>69</v>
@@ -2809,7 +2857,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>69</v>
@@ -2821,7 +2869,7 @@
         <v>5940</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>45</v>
@@ -2841,7 +2889,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>69</v>
@@ -2873,7 +2921,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>69</v>
@@ -2882,13 +2930,13 @@
         <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2905,7 +2953,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>69</v>
@@ -2928,7 +2976,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>69</v>
@@ -2951,7 +2999,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>69</v>
@@ -2960,7 +3008,7 @@
         <v>72</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L9" s="15">
         <v>35205</v>
@@ -2980,7 +3028,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>69</v>
@@ -3003,7 +3051,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>69</v>
@@ -3026,7 +3074,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>69</v>
@@ -3049,7 +3097,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>69</v>
@@ -3228,7 +3276,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>69</v>
@@ -3251,7 +3299,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -3268,7 +3316,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -3285,7 +3333,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -3302,7 +3350,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -3319,7 +3367,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -3336,7 +3384,7 @@
         <v>47</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -3454,7 +3502,7 @@
         <v>57</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>62</v>
@@ -3466,7 +3514,7 @@
         <v>69</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N30" s="24"/>
     </row>
@@ -3499,7 +3547,7 @@
         <v>69</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N31" s="24"/>
     </row>
@@ -3795,10 +3843,10 @@
         <v>835</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F41" s="8">
         <v>555</v>
@@ -3819,22 +3867,22 @@
         <v>683</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F42" s="20">
         <v>600</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" s="8">
         <v>10000</v>
@@ -3843,10 +3891,10 @@
         <v>519</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F43" s="8">
         <v>400</v>
@@ -3858,7 +3906,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B44" s="8">
         <v>20000</v>
@@ -3867,16 +3915,16 @@
         <v>474</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F44" s="8">
         <v>374</v>
       </c>
-      <c r="G44" s="15" t="s">
-        <v>198</v>
+      <c r="G44" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N44" s="15"/>
     </row>
@@ -3891,10 +3939,10 @@
         <v>357</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F45" s="8">
         <v>250</v>
@@ -3915,7 +3963,7 @@
         <v>1226</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>154</v>
@@ -3923,8 +3971,8 @@
       <c r="F46" s="20">
         <v>820</v>
       </c>
-      <c r="G46" s="15" t="s">
-        <v>198</v>
+      <c r="G46" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N46" s="15"/>
     </row>
@@ -3939,10 +3987,10 @@
         <v>480</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F47" s="20">
         <v>160</v>
@@ -3966,10 +4014,10 @@
         <v>691</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F48" s="20">
         <v>540.6</v>
@@ -3980,457 +4028,470 @@
       <c r="N48" s="15"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="11"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="15"/>
+      <c r="A49" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C49" s="8">
+        <v>500</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" s="8">
+        <v>350</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>242</v>
+      </c>
       <c r="N49" s="15"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>227</v>
+      <c r="A50" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F50" s="2">
-        <v>170</v>
+        <v>246</v>
+      </c>
+      <c r="F50" s="1">
+        <v>255</v>
       </c>
       <c r="G50" s="15"/>
       <c r="N50" s="15"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="8">
-        <v>10000</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="20">
-        <v>280</v>
-      </c>
       <c r="G51" s="15"/>
       <c r="N51" s="15"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B52" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F52" s="19">
-        <v>375</v>
-      </c>
       <c r="G52" s="15"/>
       <c r="N52" s="15"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" s="8">
+      <c r="A53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="2">
         <v>20000</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>209</v>
+      <c r="D53" s="23" t="s">
+        <v>226</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F53" s="19">
-        <v>245</v>
+        <v>216</v>
+      </c>
+      <c r="F53" s="2">
+        <v>170</v>
       </c>
       <c r="G53" s="15"/>
       <c r="N53" s="15"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="B54" s="8">
-        <v>40000</v>
-      </c>
-      <c r="C54" s="8">
-        <v>2577</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>56</v>
+        <v>10000</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="23" t="s">
+        <v>222</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="F54" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="F54" s="20">
+        <v>280</v>
+      </c>
       <c r="G54" s="15"/>
       <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="D55" s="22"/>
-      <c r="F55" s="19"/>
+      <c r="A55" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="19">
+        <v>375</v>
+      </c>
       <c r="G55" s="15"/>
       <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="D56" s="22"/>
-      <c r="F56" s="19"/>
+      <c r="A56" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="19">
+        <v>245</v>
+      </c>
       <c r="G56" s="15"/>
       <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="8">
+        <v>40000</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2577</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>233</v>
+      </c>
       <c r="F57" s="19"/>
-      <c r="L57" s="1" t="s">
+      <c r="G57" s="15"/>
+      <c r="N57" s="15"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="D58" s="22"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="15"/>
+      <c r="N58" s="15"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="D59" s="22"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="15"/>
+      <c r="N59" s="15"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="D60" s="22"/>
+      <c r="F60" s="19"/>
+      <c r="L60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N57" s="15" t="s">
+      <c r="N60" s="15" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F58" s="19">
-        <v>215</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N58" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F59" s="19">
-        <v>225</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N59" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F60" s="19">
-        <v>203</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M60" s="1">
-        <v>650</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B61" s="1">
+        <v>10000</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="19">
+        <v>215</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F61" s="1">
-        <v>168</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M61" s="1">
-        <v>580</v>
-      </c>
-      <c r="N61" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" s="1">
-        <v>140</v>
+      <c r="F62" s="19">
+        <v>225</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M62" s="1">
-        <v>360</v>
+        <v>107</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="N62" s="15" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" s="1">
-        <v>130</v>
-      </c>
-      <c r="G63" s="15"/>
+        <v>136</v>
+      </c>
+      <c r="F63" s="19">
+        <v>203</v>
+      </c>
       <c r="L63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="M63" s="1">
+        <v>650</v>
       </c>
       <c r="N63" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+      <c r="A64" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D64" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="N64" s="16"/>
+        <v>200</v>
+      </c>
+      <c r="F64" s="1">
+        <v>168</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M64" s="1">
+        <v>580</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="1">
+        <v>140</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M65" s="1">
+        <v>360</v>
+      </c>
+      <c r="N65" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="1">
+        <v>130</v>
+      </c>
+      <c r="G66" s="15"/>
+      <c r="L66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N66" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="F67" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M67" s="1">
+        <v>330</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M68" s="1">
         <v>255</v>
       </c>
-      <c r="N65" s="15" t="s">
+      <c r="N68" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D66" s="1"/>
-      <c r="E66" s="15"/>
-      <c r="N66" s="16"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="29" t="s">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D69" s="1"/>
+      <c r="E69" s="15"/>
+      <c r="N69" s="16"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="28" t="s">
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F67" s="27">
+      <c r="F70" s="27">
         <v>125</v>
       </c>
-      <c r="N67" s="16"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="29" t="s">
+      <c r="N70" s="16"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28" t="s">
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="27">
+      <c r="F71" s="27">
         <v>104</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="L71" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M71" s="1">
         <v>280</v>
       </c>
-      <c r="N68" s="15" t="s">
+      <c r="N71" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="27" t="s">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="28" t="s">
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="E72" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F69" s="27">
+      <c r="F72" s="27">
         <v>150</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="N69" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F70" s="1">
-        <v>115</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N70" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F71" s="1">
-        <v>145</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N71" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" s="1">
-        <v>99</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="N72" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D73" s="1"/>
-      <c r="E73" s="15"/>
-      <c r="H73" s="8"/>
+      <c r="A73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" s="1">
+        <v>115</v>
+      </c>
       <c r="L73" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F74" s="1">
         <v>145</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N74" s="15" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D75" s="1"/>
-      <c r="E75" s="15"/>
+      <c r="A75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" s="1">
+        <v>99</v>
+      </c>
       <c r="L75" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="N75" s="15" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
       <c r="E76" s="15"/>
+      <c r="H76" s="8"/>
       <c r="L76" s="1" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="N76" s="15" t="s">
         <v>117</v>
@@ -4438,42 +4499,36 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E77" s="23" t="s">
-        <v>156</v>
-      </c>
       <c r="F77" s="1">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="N77" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N78" s="16"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="15"/>
+      <c r="L78" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N78" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="15"/>
       <c r="L79" s="1" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="N79" s="15" t="s">
         <v>117</v>
@@ -4481,240 +4536,238 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N80" s="16"/>
+        <v>156</v>
+      </c>
+      <c r="F80" s="1">
+        <v>80</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N80" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F81" s="1">
-        <v>90</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N81" s="15" t="s">
-        <v>117</v>
-      </c>
+      <c r="N81" s="16"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N82" s="16"/>
+        <v>165</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N82" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D83" s="1"/>
-      <c r="E83" s="15"/>
-      <c r="L83" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N83" s="15" t="s">
-        <v>117</v>
-      </c>
+      <c r="A83" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N83" s="16"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
+      </c>
+      <c r="F84" s="1">
+        <v>90</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N84" s="15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F85" s="1">
-        <v>175</v>
-      </c>
-      <c r="L85" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N85" s="16"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D86" s="1"/>
+      <c r="E86" s="15"/>
+      <c r="L86" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N86" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L88" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M85" s="1">
+      <c r="M88" s="1">
         <v>145</v>
       </c>
-      <c r="N85" s="15" t="s">
+      <c r="N88" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B89" s="6">
         <v>10000</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E86" s="23" t="s">
+      <c r="D89" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E89" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F89" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D87" s="1"/>
-      <c r="E87" s="15"/>
-      <c r="L87" s="1" t="s">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D90" s="1"/>
+      <c r="E90" s="15"/>
+      <c r="L90" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="N87" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="11"/>
-      <c r="F88" s="8"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F89" s="1">
-        <v>175</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M89" s="1">
-        <v>215</v>
-      </c>
-      <c r="N89" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F90" s="1">
-        <v>140</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M90" s="1">
-        <v>215</v>
       </c>
       <c r="N90" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F91" s="1">
-        <v>260</v>
-      </c>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="11"/>
+      <c r="F91" s="8"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="F92" s="1">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M92" s="1">
-        <v>485</v>
+        <v>215</v>
       </c>
       <c r="N92" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="1">
+        <v>140</v>
+      </c>
       <c r="L93" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M93" s="1">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="N93" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L94" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M94" s="1">
-        <v>585</v>
-      </c>
-      <c r="N94" s="15" t="s">
-        <v>117</v>
+      <c r="A94" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F94" s="1">
+        <v>260</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F95" s="1">
+        <v>190</v>
+      </c>
       <c r="L95" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M95" s="1">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="N95" s="15" t="s">
         <v>117</v>
@@ -4722,10 +4775,10 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L96" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M96" s="1">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="N96" s="15" t="s">
         <v>117</v>
@@ -4733,10 +4786,10 @@
     </row>
     <row r="97" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L97" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M97" s="1">
-        <v>660</v>
+        <v>585</v>
       </c>
       <c r="N97" s="15" t="s">
         <v>117</v>
@@ -4744,12 +4797,45 @@
     </row>
     <row r="98" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L98" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M98" s="1">
+        <v>510</v>
+      </c>
+      <c r="N98" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L99" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M99" s="1">
+        <v>445</v>
+      </c>
+      <c r="N99" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L100" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M100" s="1">
+        <v>660</v>
+      </c>
+      <c r="N100" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L101" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="M101" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N98" s="15" t="s">
+      <c r="N101" s="15" t="s">
         <v>117</v>
       </c>
     </row>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="251">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -2134,6 +2134,21 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>shagn'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐小狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套现：2+</t>
+    <rPh sb="0" eb="1">
+      <t>tao'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2716,10 +2731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2961,6 +2976,9 @@
       <c r="J7" s="13" t="s">
         <v>73</v>
       </c>
+      <c r="L7" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -4052,304 +4070,280 @@
       <c r="N49" s="15"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>247</v>
+      <c r="A50" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C50" s="8">
+        <v>550</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="F50" s="1">
-        <v>255</v>
-      </c>
-      <c r="G50" s="15"/>
+        <v>249</v>
+      </c>
+      <c r="F50" s="8">
+        <v>375</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>242</v>
+      </c>
       <c r="N50" s="15"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="11"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="15"/>
       <c r="N51" s="15"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="11"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="15"/>
       <c r="N52" s="15"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>226</v>
+      <c r="A53" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F53" s="2">
-        <v>170</v>
+        <v>246</v>
+      </c>
+      <c r="F53" s="1">
+        <v>255</v>
       </c>
       <c r="G53" s="15"/>
       <c r="N53" s="15"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="8">
-        <v>10000</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="20">
-        <v>280</v>
-      </c>
       <c r="G54" s="15"/>
       <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B55" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F55" s="19">
-        <v>375</v>
-      </c>
       <c r="G55" s="15"/>
       <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B56" s="8">
+      <c r="A56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="2">
         <v>20000</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>208</v>
+      <c r="D56" s="23" t="s">
+        <v>226</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F56" s="19">
-        <v>245</v>
+        <v>216</v>
+      </c>
+      <c r="F56" s="2">
+        <v>170</v>
       </c>
       <c r="G56" s="15"/>
       <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="B57" s="8">
-        <v>40000</v>
-      </c>
-      <c r="C57" s="8">
-        <v>2577</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>56</v>
+        <v>10000</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="23" t="s">
+        <v>222</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="F57" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="F57" s="20">
+        <v>280</v>
+      </c>
       <c r="G57" s="15"/>
       <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="D58" s="22"/>
-      <c r="F58" s="19"/>
+      <c r="A58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" s="19">
+        <v>375</v>
+      </c>
       <c r="G58" s="15"/>
       <c r="N58" s="15"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="D59" s="22"/>
-      <c r="F59" s="19"/>
+      <c r="A59" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="19">
+        <v>245</v>
+      </c>
       <c r="G59" s="15"/>
       <c r="N59" s="15"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="D60" s="22"/>
+      <c r="A60" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="8">
+        <v>40000</v>
+      </c>
+      <c r="C60" s="8">
+        <v>2577</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>233</v>
+      </c>
       <c r="F60" s="19"/>
-      <c r="L60" s="1" t="s">
+      <c r="G60" s="15"/>
+      <c r="N60" s="15"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="D61" s="22"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="15"/>
+      <c r="N61" s="15"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="D62" s="22"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="15"/>
+      <c r="N62" s="15"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="D63" s="22"/>
+      <c r="F63" s="19"/>
+      <c r="L63" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N60" s="15" t="s">
+      <c r="N63" s="15" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F61" s="19">
-        <v>215</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N61" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F62" s="19">
-        <v>225</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N62" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F63" s="19">
-        <v>203</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M63" s="1">
-        <v>650</v>
-      </c>
-      <c r="N63" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B64" s="1">
+        <v>10000</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F64" s="1">
-        <v>168</v>
+        <v>136</v>
+      </c>
+      <c r="F64" s="19">
+        <v>215</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M64" s="1">
-        <v>580</v>
+        <v>105</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="N64" s="15" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>124</v>
+      <c r="A65" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" s="1">
-        <v>140</v>
+        <v>201</v>
+      </c>
+      <c r="F65" s="19">
+        <v>225</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M65" s="1">
-        <v>360</v>
+        <v>107</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="N65" s="15" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F66" s="1">
-        <v>130</v>
-      </c>
-      <c r="G66" s="15"/>
+        <v>136</v>
+      </c>
+      <c r="F66" s="19">
+        <v>203</v>
+      </c>
       <c r="L66" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="M66" s="1">
+        <v>650</v>
       </c>
       <c r="N66" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
+      <c r="A67" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D67" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>238</v>
+        <v>200</v>
+      </c>
+      <c r="F67" s="1">
+        <v>168</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="M67" s="1">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="N67" s="15" t="s">
         <v>95</v>
@@ -4357,178 +4351,207 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" s="1">
+        <v>140</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M68" s="1">
+        <v>360</v>
+      </c>
+      <c r="N68" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="1">
+        <v>130</v>
+      </c>
+      <c r="G69" s="15"/>
+      <c r="L69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N69" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M70" s="1">
+        <v>330</v>
+      </c>
+      <c r="N70" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="L71" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M71" s="1">
         <v>255</v>
       </c>
-      <c r="N68" s="15" t="s">
+      <c r="N71" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D69" s="1"/>
-      <c r="E69" s="15"/>
-      <c r="N69" s="16"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="29" t="s">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D72" s="1"/>
+      <c r="E72" s="15"/>
+      <c r="N72" s="16"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="28" t="s">
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F70" s="27">
+      <c r="F73" s="27">
         <v>125</v>
       </c>
-      <c r="N70" s="16"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
+      <c r="N73" s="16"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="28" t="s">
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F71" s="27">
+      <c r="F74" s="27">
         <v>104</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M74" s="1">
         <v>280</v>
       </c>
-      <c r="N71" s="15" t="s">
+      <c r="N74" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="27" t="s">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="28" t="s">
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E75" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F72" s="27">
+      <c r="F75" s="27">
         <v>150</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="N72" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F73" s="1">
-        <v>115</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N73" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74" s="1">
-        <v>145</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N74" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F75" s="1">
-        <v>99</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="N75" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D76" s="1"/>
-      <c r="E76" s="15"/>
-      <c r="H76" s="8"/>
+      <c r="A76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" s="1">
+        <v>115</v>
+      </c>
       <c r="L76" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N76" s="15" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F77" s="1">
         <v>145</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N77" s="15" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D78" s="1"/>
-      <c r="E78" s="15"/>
+      <c r="A78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" s="1">
+        <v>99</v>
+      </c>
       <c r="L78" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="N78" s="15" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
       <c r="E79" s="15"/>
+      <c r="H79" s="8"/>
       <c r="L79" s="1" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="N79" s="15" t="s">
         <v>117</v>
@@ -4536,42 +4559,36 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E80" s="23" t="s">
-        <v>156</v>
-      </c>
       <c r="F80" s="1">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="N80" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N81" s="16"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="15"/>
+      <c r="L81" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N81" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="15"/>
       <c r="L82" s="1" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="N82" s="15" t="s">
         <v>117</v>
@@ -4579,263 +4596,306 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N83" s="16"/>
+        <v>156</v>
+      </c>
+      <c r="F83" s="1">
+        <v>80</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N83" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F84" s="1">
-        <v>90</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N84" s="15" t="s">
-        <v>117</v>
-      </c>
+      <c r="N84" s="16"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N85" s="16"/>
+        <v>165</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N85" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D86" s="1"/>
-      <c r="E86" s="15"/>
-      <c r="L86" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N86" s="15" t="s">
-        <v>117</v>
-      </c>
+      <c r="A86" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N86" s="16"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F87" s="1">
+        <v>90</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N88" s="16"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D89" s="1"/>
+      <c r="E89" s="15"/>
+      <c r="L89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N89" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E87" s="23" t="s">
+      <c r="E90" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L88" s="1" t="s">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L91" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M91" s="1">
         <v>145</v>
       </c>
-      <c r="N88" s="15" t="s">
+      <c r="N91" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B92" s="6">
         <v>10000</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D92" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E89" s="23" t="s">
+      <c r="E92" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F92" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D90" s="1"/>
-      <c r="E90" s="15"/>
-      <c r="L90" s="1" t="s">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D93" s="1"/>
+      <c r="E93" s="15"/>
+      <c r="L93" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="N90" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="11"/>
-      <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F92" s="1">
-        <v>175</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M92" s="1">
-        <v>215</v>
-      </c>
-      <c r="N92" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F93" s="1">
-        <v>140</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M93" s="1">
-        <v>215</v>
       </c>
       <c r="N93" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F94" s="1">
-        <v>260</v>
-      </c>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="11"/>
+      <c r="F94" s="8"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="F95" s="1">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M95" s="1">
-        <v>485</v>
+        <v>215</v>
       </c>
       <c r="N95" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F96" s="1">
+        <v>140</v>
+      </c>
       <c r="L96" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M96" s="1">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="N96" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L97" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M97" s="1">
-        <v>585</v>
-      </c>
-      <c r="N97" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F97" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F98" s="1">
+        <v>190</v>
+      </c>
       <c r="L98" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M98" s="1">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="N98" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L99" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M99" s="1">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="N99" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L100" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M100" s="1">
-        <v>660</v>
+        <v>585</v>
       </c>
       <c r="N100" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L101" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M101" s="1">
+        <v>510</v>
+      </c>
+      <c r="N101" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L102" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M102" s="1">
+        <v>445</v>
+      </c>
+      <c r="N102" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L103" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M103" s="1">
+        <v>660</v>
+      </c>
+      <c r="N103" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L104" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="M104" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N101" s="15" t="s">
+      <c r="N104" s="15" t="s">
         <v>117</v>
       </c>
     </row>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="254">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -2087,8 +2087,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>元泰资本</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'tai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雁金服</t>
+    <rPh sb="0" eb="1">
+      <t>da'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有存管，上市</t>
+    <rPh sb="0" eb="1">
+      <t>you'cun'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shagn'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐小狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月23号到期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>30天（6月23号）</t>
+      <t>30天（6月22号）</t>
     </r>
     <r>
       <rPr>
@@ -2104,41 +2150,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>元泰资本</t>
-    <rPh sb="0" eb="1">
-      <t>yuan'tai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi'ben</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大雁金服</t>
-    <rPh sb="0" eb="1">
-      <t>da'yan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jin'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有存管，上市</t>
-    <rPh sb="0" eb="1">
-      <t>you'cun'g</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shagn'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐小狸</t>
+    <t>套现：2+2</t>
+    <rPh sb="0" eb="1">
+      <t>tao'xian</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2146,10 +2161,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>套现：2+</t>
-    <rPh sb="0" eb="1">
-      <t>tao'xian</t>
-    </rPh>
+    <t>30天（6月24号到期）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2733,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2977,7 +2989,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4056,7 +4068,7 @@
         <v>500</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>154</v>
@@ -4071,7 +4083,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B50" s="8">
         <v>10000</v>
@@ -4080,26 +4092,41 @@
         <v>550</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F50" s="8">
         <v>375</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N50" s="15"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C51" s="8">
+        <v>426</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F51" s="8">
+        <v>310</v>
+      </c>
+      <c r="G51" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="N50" s="15"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="11"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="15"/>
       <c r="N51" s="15"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -4113,16 +4140,16 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F53" s="1">
         <v>255</v>
@@ -4350,15 +4377,6 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F68" s="1">
-        <v>140</v>
-      </c>
       <c r="L68" s="1" t="s">
         <v>110</v>
       </c>
@@ -4406,7 +4424,7 @@
         <v>238</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M70" s="1">
         <v>330</v>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="256">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -2162,6 +2162,17 @@
   </si>
   <si>
     <t>30天（6月24号到期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（5月27号到期）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2745,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3620,7 +3631,7 @@
         <v>278</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>65</v>
+        <v>254</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>50</v>
@@ -3820,6 +3831,9 @@
       <c r="G39" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="I39" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="L39" s="1" t="s">
         <v>100</v>
       </c>
@@ -4076,8 +4090,8 @@
       <c r="F49" s="8">
         <v>350</v>
       </c>
-      <c r="G49" s="15" t="s">
-        <v>242</v>
+      <c r="G49" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N49" s="15"/>
     </row>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="262">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -1354,16 +1354,6 @@
   </si>
   <si>
     <t>p2p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140两月</t>
-    <rPh sb="3" eb="4">
-      <t>liang'ge</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yue</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2150,29 +2140,121 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>套现：2+2</t>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月24号到期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（5月27号到期）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>235、2月</t>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大平台，稳如狗(2月没标)</t>
+    <rPh sb="0" eb="1">
+      <t>da'ping't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'ru'gou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有</t>
+    <rPh sb="0" eb="1">
+      <t>mei'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大平台，稳如狗，前50</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（石墨满了）</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>da'ping't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'ru'gou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi'mo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>man'le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145两月</t>
+    <rPh sb="3" eb="4">
+      <t>liang'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60天（7月25号到期）【数据出的慢】</t>
+    <rPh sb="13" eb="14">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>d</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>man</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套现：2+2+3</t>
     <rPh sb="0" eb="1">
       <t>tao'xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天（6月24号到期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天（5月27号到期）</t>
-    <rPh sb="2" eb="3">
-      <t>tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2754,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2831,7 +2913,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>69</v>
@@ -2863,7 +2945,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>69</v>
@@ -2895,7 +2977,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>69</v>
@@ -2907,7 +2989,7 @@
         <v>5940</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>45</v>
@@ -2927,7 +3009,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>69</v>
@@ -2959,7 +3041,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>69</v>
@@ -2968,13 +3050,13 @@
         <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2991,7 +3073,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>69</v>
@@ -3000,7 +3082,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3017,7 +3099,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>69</v>
@@ -3040,7 +3122,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>69</v>
@@ -3049,7 +3131,7 @@
         <v>72</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L9" s="15">
         <v>35205</v>
@@ -3069,7 +3151,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>69</v>
@@ -3092,7 +3174,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>69</v>
@@ -3115,7 +3197,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>69</v>
@@ -3138,7 +3220,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>69</v>
@@ -3317,7 +3399,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>69</v>
@@ -3340,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -3357,7 +3439,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -3374,7 +3456,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -3391,7 +3473,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -3408,7 +3490,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -3425,7 +3507,7 @@
         <v>47</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -3468,7 +3550,7 @@
         <v>308</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>51</v>
@@ -3501,7 +3583,7 @@
         <v>326</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>51</v>
@@ -3543,7 +3625,7 @@
         <v>57</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>62</v>
@@ -3555,7 +3637,7 @@
         <v>69</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N30" s="24"/>
     </row>
@@ -3588,7 +3670,7 @@
         <v>69</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N31" s="24"/>
     </row>
@@ -3631,7 +3713,7 @@
         <v>278</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>50</v>
@@ -3788,7 +3870,7 @@
         <v>630</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>84</v>
@@ -3832,7 +3914,7 @@
         <v>62</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>100</v>
@@ -3887,10 +3969,10 @@
         <v>835</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F41" s="8">
         <v>555</v>
@@ -3911,22 +3993,22 @@
         <v>683</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F42" s="20">
         <v>600</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B43" s="8">
         <v>10000</v>
@@ -3935,10 +4017,10 @@
         <v>519</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F43" s="8">
         <v>400</v>
@@ -3950,7 +4032,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44" s="8">
         <v>20000</v>
@@ -3959,10 +4041,10 @@
         <v>474</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F44" s="8">
         <v>374</v>
@@ -3983,10 +4065,10 @@
         <v>357</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F45" s="8">
         <v>250</v>
@@ -4007,7 +4089,7 @@
         <v>1226</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>154</v>
@@ -4031,10 +4113,10 @@
         <v>480</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F47" s="20">
         <v>160</v>
@@ -4049,7 +4131,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B48" s="8">
         <v>10200</v>
@@ -4058,10 +4140,10 @@
         <v>691</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F48" s="20">
         <v>540.6</v>
@@ -4073,46 +4155,42 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="B49" s="8">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="C49" s="8">
-        <v>500</v>
+        <v>2577</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" s="8">
-        <v>350</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="4"/>
       <c r="N49" s="15"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="B50" s="8">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C50" s="8">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>249</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="F50" s="8">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>62</v>
@@ -4121,506 +4199,523 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C51" s="8">
+        <v>550</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" s="8">
+        <v>375</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N51" s="15"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B52" s="8">
         <v>20000</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C52" s="8">
         <v>426</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="F51" s="8">
+      <c r="D52" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" s="8">
         <v>310</v>
       </c>
-      <c r="G51" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="N51" s="15"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="11"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="15"/>
+      <c r="G52" s="15" t="s">
+        <v>241</v>
+      </c>
       <c r="N52" s="15"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>246</v>
+      <c r="A53" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C53" s="8">
+        <v>815</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="F53" s="1">
-        <v>255</v>
-      </c>
-      <c r="G53" s="15"/>
+        <v>167</v>
+      </c>
+      <c r="F53" s="15">
+        <v>435</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>241</v>
+      </c>
       <c r="N53" s="15"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="11"/>
+      <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B56" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>226</v>
+      <c r="A56" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F56" s="2">
-        <v>170</v>
+        <v>244</v>
+      </c>
+      <c r="F56" s="1">
+        <v>255</v>
       </c>
       <c r="G56" s="15"/>
       <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57" s="8">
-        <v>10000</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" s="20">
-        <v>280</v>
-      </c>
       <c r="G57" s="15"/>
       <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B58" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F58" s="19">
-        <v>375</v>
-      </c>
       <c r="G58" s="15"/>
       <c r="N58" s="15"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" s="8">
+      <c r="A59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="2">
         <v>20000</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>208</v>
+      <c r="D59" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F59" s="19">
-        <v>245</v>
+        <v>215</v>
+      </c>
+      <c r="F59" s="2">
+        <v>170</v>
       </c>
       <c r="G59" s="15"/>
       <c r="N59" s="15"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="B60" s="8">
-        <v>40000</v>
-      </c>
-      <c r="C60" s="8">
-        <v>2577</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>56</v>
+        <v>10000</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="23" t="s">
+        <v>221</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="F60" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="F60" s="20">
+        <v>280</v>
+      </c>
       <c r="G60" s="15"/>
       <c r="N60" s="15"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="D61" s="22"/>
-      <c r="F61" s="19"/>
+      <c r="A61" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="19">
+        <v>375</v>
+      </c>
       <c r="G61" s="15"/>
       <c r="N61" s="15"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="D62" s="22"/>
-      <c r="F62" s="19"/>
+      <c r="A62" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="19">
+        <v>245</v>
+      </c>
       <c r="G62" s="15"/>
       <c r="N62" s="15"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="D63" s="22"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
       <c r="F63" s="19"/>
-      <c r="L63" s="1" t="s">
+      <c r="G63" s="15"/>
+      <c r="N63" s="15"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="D64" s="22"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="15"/>
+      <c r="N64" s="15"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="D65" s="22"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="15"/>
+      <c r="N65" s="15"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="D66" s="22"/>
+      <c r="F66" s="19"/>
+      <c r="L66" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N63" s="15" t="s">
+      <c r="N66" s="15" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F64" s="19">
-        <v>215</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N64" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F65" s="19">
-        <v>225</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N65" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F66" s="19">
-        <v>203</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M66" s="1">
-        <v>650</v>
-      </c>
-      <c r="N66" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B67" s="1">
+        <v>10000</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="19">
+        <v>215</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F67" s="1">
-        <v>168</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M67" s="1">
-        <v>580</v>
-      </c>
-      <c r="N67" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F68" s="19">
+        <v>225</v>
+      </c>
       <c r="L68" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M68" s="1">
-        <v>360</v>
+        <v>107</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="N68" s="15" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F69" s="1">
-        <v>130</v>
-      </c>
-      <c r="G69" s="15"/>
+        <v>136</v>
+      </c>
+      <c r="F69" s="19">
+        <v>203</v>
+      </c>
       <c r="L69" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="M69" s="1">
+        <v>650</v>
       </c>
       <c r="N69" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
+      <c r="A70" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D70" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>238</v>
+        <v>199</v>
+      </c>
+      <c r="F70" s="1">
+        <v>168</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="M70" s="1">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="N70" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="L71" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M71" s="1">
+        <v>360</v>
+      </c>
+      <c r="N71" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F72" s="1">
+        <v>130</v>
+      </c>
+      <c r="G72" s="15"/>
+      <c r="L72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N72" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="F73" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M73" s="1">
+        <v>330</v>
+      </c>
+      <c r="N73" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M74" s="1">
         <v>255</v>
       </c>
-      <c r="N71" s="15" t="s">
+      <c r="N74" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D72" s="1"/>
-      <c r="E72" s="15"/>
-      <c r="N72" s="16"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="29" t="s">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D75" s="1"/>
+      <c r="E75" s="15"/>
+      <c r="N75" s="16"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28" t="s">
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="N76" s="16"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F73" s="27">
-        <v>125</v>
-      </c>
-      <c r="N73" s="16"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74" s="27">
+      <c r="E77" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F77" s="27">
         <v>104</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M77" s="1">
         <v>280</v>
       </c>
-      <c r="N74" s="15" t="s">
+      <c r="N77" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="27" t="s">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="28" t="s">
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="E78" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="27">
+      <c r="F78" s="27">
         <v>150</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="N75" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F76" s="1">
-        <v>115</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N76" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F77" s="1">
-        <v>145</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N77" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78" s="1">
-        <v>99</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="N78" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D79" s="1"/>
-      <c r="E79" s="15"/>
-      <c r="H79" s="8"/>
+      <c r="A79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F79" s="1">
+        <v>115</v>
+      </c>
       <c r="L79" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N79" s="15" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F80" s="1">
         <v>145</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N80" s="15" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D81" s="1"/>
-      <c r="E81" s="15"/>
+      <c r="A81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" s="1">
+        <v>99</v>
+      </c>
       <c r="L81" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="N81" s="15" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
       <c r="E82" s="15"/>
+      <c r="H82" s="8"/>
       <c r="L82" s="1" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="N82" s="15" t="s">
         <v>117</v>
@@ -4628,42 +4723,36 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E83" s="23" t="s">
-        <v>156</v>
-      </c>
       <c r="F83" s="1">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="N83" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N84" s="16"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="15"/>
+      <c r="L84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N84" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="15"/>
       <c r="L85" s="1" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="N85" s="15" t="s">
         <v>117</v>
@@ -4671,228 +4760,238 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N86" s="16"/>
+        <v>156</v>
+      </c>
+      <c r="F86" s="1">
+        <v>80</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N86" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E87" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F87" s="1">
-        <v>90</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N87" s="15" t="s">
-        <v>117</v>
-      </c>
+      <c r="N87" s="16"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N88" s="16"/>
+        <v>165</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N88" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D89" s="1"/>
-      <c r="E89" s="15"/>
-      <c r="L89" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N89" s="15" t="s">
-        <v>117</v>
-      </c>
+      <c r="A89" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F90" s="1">
+        <v>90</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N90" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N91" s="16"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D92" s="1"/>
+      <c r="E92" s="15"/>
+      <c r="L92" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N92" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L91" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M91" s="1">
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L94" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M94" s="1">
         <v>145</v>
       </c>
-      <c r="N91" s="15" t="s">
+      <c r="N94" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B92" s="6">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B95" s="6">
         <v>10000</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E92" s="23" t="s">
+      <c r="D95" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E95" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F95" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D93" s="1"/>
-      <c r="E93" s="15"/>
-      <c r="L93" s="1" t="s">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D96" s="1"/>
+      <c r="E96" s="15"/>
+      <c r="L96" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M96" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N93" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="11"/>
-      <c r="F94" s="8"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F95" s="1">
-        <v>175</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M95" s="1">
-        <v>215</v>
-      </c>
-      <c r="N95" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F96" s="1">
-        <v>140</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M96" s="1">
-        <v>215</v>
       </c>
       <c r="N96" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F97" s="1">
-        <v>260</v>
-      </c>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="11"/>
+      <c r="F97" s="8"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="F98" s="1">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M98" s="1">
-        <v>485</v>
+        <v>215</v>
       </c>
       <c r="N98" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99" s="1">
+        <v>140</v>
+      </c>
       <c r="L99" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M99" s="1">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="N99" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L100" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M100" s="1">
-        <v>585</v>
-      </c>
-      <c r="N100" s="15" t="s">
-        <v>117</v>
+      <c r="A100" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F100" s="1">
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F101" s="1">
+        <v>190</v>
+      </c>
       <c r="L101" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M101" s="1">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="N101" s="15" t="s">
         <v>117</v>
@@ -4900,10 +4999,10 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L102" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M102" s="1">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="N102" s="15" t="s">
         <v>117</v>
@@ -4911,10 +5010,10 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L103" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M103" s="1">
-        <v>660</v>
+        <v>585</v>
       </c>
       <c r="N103" s="15" t="s">
         <v>117</v>
@@ -4922,12 +5021,45 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L104" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M104" s="1">
+        <v>510</v>
+      </c>
+      <c r="N104" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L105" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M105" s="1">
+        <v>445</v>
+      </c>
+      <c r="N105" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L106" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M106" s="1">
+        <v>660</v>
+      </c>
+      <c r="N106" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L107" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M107" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M104" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N104" s="15" t="s">
+      <c r="N107" s="15" t="s">
         <v>117</v>
       </c>
     </row>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="261">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -1829,58 +1829,6 @@
     <t>回款</t>
     <rPh sb="0" eb="1">
       <t>hui'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>http://www.qb178.com/（6月18日到期）支付密码wuyanjiang01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>要手动退出】</t>
-    </r>
-    <rPh sb="23" eb="24">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ri</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>dao'qi</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>zhi'fu</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>mi'ma</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>yao</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>shou'd</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>tui'chu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2101,16 +2049,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有存管，上市</t>
-    <rPh sb="0" eb="1">
-      <t>you'cun'g</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shagn'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>狐小狸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2225,35 +2163,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>145两月</t>
-    <rPh sb="3" eb="4">
-      <t>liang'ge</t>
+    <t>套现：2+2+3</t>
+    <rPh sb="0" eb="1">
+      <t>tao'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有存管，上市（30天没标）</t>
+    <rPh sb="0" eb="1">
+      <t>you'cun'g</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>yue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60天（7月25号到期）【数据出的慢】</t>
+      <t>shagn'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>60天（7月25号到期）【电脑投的】</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以复投</t>
+    </r>
     <rPh sb="13" eb="14">
-      <t>shu'ju</t>
+      <t>dian'nao</t>
     </rPh>
     <rPh sb="15" eb="16">
-      <t>chu</t>
+      <t>tou</t>
     </rPh>
     <rPh sb="16" eb="17">
       <t>d</t>
     </rPh>
-    <rPh sb="17" eb="18">
-      <t>man</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套现：2+2+3</t>
-    <rPh sb="0" eb="1">
-      <t>tao'xian</t>
+    <rPh sb="18" eb="19">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fu'tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://www.qb178.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（6月18日到期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）支付密码wuyanjiang01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要手动退出】</t>
+    </r>
+    <rPh sb="23" eb="24">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>dao'qi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>shou'd</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>tui'chu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2838,15 +2872,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="38.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" style="23" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
@@ -2913,7 +2947,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>69</v>
@@ -2945,7 +2979,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>69</v>
@@ -2977,7 +3011,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>69</v>
@@ -3009,7 +3043,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>69</v>
@@ -3041,7 +3075,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>69</v>
@@ -3073,7 +3107,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>69</v>
@@ -3082,7 +3116,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3099,7 +3133,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>69</v>
@@ -3122,7 +3156,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>69</v>
@@ -3131,7 +3165,7 @@
         <v>72</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L9" s="15">
         <v>35205</v>
@@ -3151,7 +3185,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>69</v>
@@ -3174,7 +3208,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>69</v>
@@ -3197,7 +3231,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>69</v>
@@ -3220,7 +3254,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>69</v>
@@ -3399,7 +3433,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>69</v>
@@ -3422,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -3439,7 +3473,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -3456,7 +3490,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -3473,7 +3507,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -3490,7 +3524,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -3507,7 +3541,7 @@
         <v>47</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -3625,7 +3659,7 @@
         <v>57</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>62</v>
@@ -3713,7 +3747,7 @@
         <v>278</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>50</v>
@@ -3914,7 +3948,7 @@
         <v>62</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>100</v>
@@ -3993,7 +4027,7 @@
         <v>683</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>203</v>
@@ -4002,7 +4036,7 @@
         <v>600</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N42" s="15"/>
     </row>
@@ -4065,7 +4099,7 @@
         <v>357</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>213</v>
@@ -4089,7 +4123,7 @@
         <v>1226</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>154</v>
@@ -4113,10 +4147,10 @@
         <v>480</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F47" s="20">
         <v>160</v>
@@ -4140,10 +4174,10 @@
         <v>691</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F48" s="20">
         <v>540.6</v>
@@ -4167,7 +4201,7 @@
         <v>56</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="4"/>
@@ -4184,7 +4218,7 @@
         <v>500</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>154</v>
@@ -4199,7 +4233,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B51" s="8">
         <v>10000</v>
@@ -4208,10 +4242,10 @@
         <v>550</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F51" s="8">
         <v>375</v>
@@ -4232,16 +4266,16 @@
         <v>426</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F52" s="8">
         <v>310</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N52" s="15"/>
     </row>
@@ -4256,7 +4290,7 @@
         <v>815</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>167</v>
@@ -4265,7 +4299,7 @@
         <v>435</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N53" s="15"/>
     </row>
@@ -4287,16 +4321,16 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F56" s="1">
         <v>255</v>
@@ -4305,6 +4339,20 @@
       <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>252</v>
+      </c>
       <c r="G57" s="15"/>
       <c r="N57" s="15"/>
     </row>
@@ -4320,7 +4368,7 @@
         <v>20000</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>215</v>
@@ -4359,7 +4407,7 @@
         <v>20000</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>154</v>
@@ -4526,10 +4574,10 @@
         <v>132</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F72" s="1">
         <v>130</v>
@@ -4547,21 +4595,21 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M73" s="1">
         <v>330</v>
@@ -4572,7 +4620,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>114</v>
@@ -4590,20 +4638,6 @@
       <c r="N75" s="16"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>254</v>
-      </c>
       <c r="N76" s="16"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4616,7 +4650,7 @@
         <v>136</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F77" s="27">
         <v>104</v>
@@ -4661,7 +4695,7 @@
         <v>136</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F79" s="1">
         <v>115</v>
@@ -4802,18 +4836,6 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="N89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="266">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -2288,6 +2288,72 @@
     </rPh>
     <rPh sb="50" eb="51">
       <t>tui'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未回款</t>
+    <rPh sb="0" eb="1">
+      <t>wei'hui'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金信网</t>
+    <rPh sb="0" eb="1">
+      <t>jin'xin'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15天（6月12日到期）30天（6月28日）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以复投</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao'qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>t</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>fu'tou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2478,8 +2544,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2584,18 +2652,20 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2872,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3557,7 +3627,7 @@
       <c r="D27" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G27" s="13" t="s">
@@ -3586,7 +3656,7 @@
       <c r="D28" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="13"/>
@@ -3619,7 +3689,7 @@
       <c r="D29" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F29" s="13"/>
@@ -3658,7 +3728,7 @@
       <c r="D30" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="14" t="s">
         <v>230</v>
       </c>
       <c r="G30" s="13" t="s">
@@ -3688,7 +3758,7 @@
       <c r="D31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="14" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="4">
@@ -3709,57 +3779,71 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="4">
         <v>10000</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="4">
         <v>705</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="4">
         <v>580</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="H32" s="4">
+        <v>10325.07</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>222</v>
+      </c>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="16"/>
     </row>
     <row r="33" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="4">
         <v>10000</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="4">
         <v>278</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="4">
         <v>220</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="H33" s="15">
+        <v>10058.959999999999</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>261</v>
+      </c>
       <c r="M33" s="8">
         <v>215</v>
       </c>
@@ -4062,6 +4146,9 @@
       <c r="G43" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="I43" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="N43" s="15"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -4274,8 +4361,8 @@
       <c r="F52" s="8">
         <v>310</v>
       </c>
-      <c r="G52" s="15" t="s">
-        <v>240</v>
+      <c r="G52" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N52" s="15"/>
     </row>
@@ -4304,10 +4391,27 @@
       <c r="N53" s="15"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
+      <c r="A54" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" s="8">
+        <v>35000</v>
+      </c>
+      <c r="C54" s="8">
+        <v>706</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F54" s="15">
+        <v>500</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>240</v>
+      </c>
       <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -4992,6 +5096,9 @@
       <c r="D100" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="E100" s="23" t="s">
+        <v>262</v>
+      </c>
       <c r="F100" s="1">
         <v>260</v>
       </c>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="267">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -2292,13 +2292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未回款</t>
-    <rPh sb="0" eb="1">
-      <t>wei'hui'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2354,6 +2347,20 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>fu'tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经逾期，要雷</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'qi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2942,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3835,14 +3842,14 @@
       <c r="G33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="13">
         <v>10058.959999999999</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J33" s="8" t="s">
-        <v>261</v>
+      <c r="J33" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="M33" s="8">
         <v>215</v>
@@ -4392,7 +4399,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B54" s="8">
         <v>35000</v>
@@ -4401,25 +4408,32 @@
         <v>706</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F54" s="15">
         <v>500</v>
       </c>
-      <c r="G54" s="15" t="s">
-        <v>240</v>
+      <c r="G54" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="11"/>
-      <c r="F55" s="15"/>
+      <c r="A55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F55" s="1">
+        <v>140</v>
+      </c>
       <c r="G55" s="15"/>
       <c r="N55" s="15"/>
     </row>
@@ -5070,15 +5084,6 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F99" s="1">
-        <v>140</v>
-      </c>
       <c r="L99" s="1" t="s">
         <v>182</v>
       </c>
@@ -5093,11 +5098,11 @@
       <c r="A100" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>170</v>
+      <c r="D100" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F100" s="1">
         <v>260</v>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="274">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -2018,13 +2018,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未返现</t>
-    <rPh sb="0" eb="1">
-      <t>wei'fan'x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>元泰资本</t>
     <rPh sb="0" eb="1">
       <t>yuan'tai</t>
@@ -2159,13 +2152,6 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>man'le</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套现：2+2+3</t>
-    <rPh sb="0" eb="1">
-      <t>tao'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2361,6 +2347,87 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>yu'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个月（7月1日到期）</t>
+    <rPh sb="1" eb="2">
+      <t>ge'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未返现</t>
+    <rPh sb="0" eb="1">
+      <t>wei'fan'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换法人了，别投了</t>
+    <rPh sb="0" eb="1">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fa'ren</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>l</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bie'tou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才米公社</t>
+    <rPh sb="0" eb="1">
+      <t>cai'mi'gong'she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38天（7月10日到期）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32天（7月4号到期）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套现：2+2+3+7</t>
+    <rPh sb="0" eb="1">
+      <t>tao'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2947,10 +3014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3193,7 +3260,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3589,53 +3656,53 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B25" s="19">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="C25" s="19">
-        <v>101</v>
+        <v>552</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="19">
-        <v>500</v>
-      </c>
-      <c r="C26" s="19">
-        <v>552</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>230</v>
+      <c r="A26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C26" s="13">
+        <v>454</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="13">
         <v>10000</v>
       </c>
       <c r="C27" s="13">
-        <v>454</v>
+        <v>308</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>62</v>
@@ -3652,16 +3719,16 @@
     </row>
     <row r="28" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B28" s="13">
         <v>10000</v>
       </c>
       <c r="C28" s="13">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>51</v>
@@ -3685,19 +3752,19 @@
     </row>
     <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="13">
         <v>10000</v>
       </c>
       <c r="C29" s="13">
-        <v>326</v>
+        <v>83</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
@@ -3723,20 +3790,20 @@
       </c>
     </row>
     <row r="30" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="4">
         <v>10000</v>
       </c>
-      <c r="C30" s="13">
-        <v>83</v>
+      <c r="C30" s="4">
+        <v>220</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>62</v>
@@ -3754,19 +3821,19 @@
     </row>
     <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B31" s="4">
         <v>10000</v>
       </c>
       <c r="C31" s="4">
-        <v>220</v>
+        <v>705</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F31" s="4">
         <v>110</v>
@@ -3787,19 +3854,19 @@
     </row>
     <row r="32" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B32" s="4">
         <v>10000</v>
       </c>
       <c r="C32" s="4">
-        <v>705</v>
+        <v>278</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>65</v>
+        <v>249</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F32" s="4">
         <v>580</v>
@@ -3821,20 +3888,20 @@
       <c r="N32" s="16"/>
     </row>
     <row r="33" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="4">
+      <c r="A33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="8">
         <v>10000</v>
       </c>
-      <c r="C33" s="4">
-        <v>278</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>50</v>
+      <c r="C33" s="8">
+        <v>435</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="F33" s="4">
         <v>220</v>
@@ -3858,19 +3925,19 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B34" s="8">
         <v>10000</v>
       </c>
       <c r="C34" s="8">
-        <v>435</v>
+        <v>526</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F34" s="8">
         <v>345</v>
@@ -3890,19 +3957,19 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B35" s="8">
         <v>10000</v>
       </c>
       <c r="C35" s="8">
-        <v>526</v>
+        <v>236</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="8">
         <v>395</v>
@@ -3922,16 +3989,16 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B36" s="8">
         <v>10000</v>
       </c>
       <c r="C36" s="8">
-        <v>236</v>
+        <v>400</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>84</v>
@@ -3954,16 +4021,16 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" s="8">
         <v>10000</v>
       </c>
       <c r="C37" s="8">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>84</v>
@@ -3986,19 +4053,19 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B38" s="8">
         <v>10000</v>
       </c>
       <c r="C38" s="8">
-        <v>630</v>
+        <v>423</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="F38" s="8">
         <v>590</v>
@@ -4018,16 +4085,16 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B39" s="8">
         <v>10000</v>
       </c>
       <c r="C39" s="8">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>122</v>
@@ -4039,7 +4106,7 @@
         <v>62</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>100</v>
@@ -4053,19 +4120,19 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B40" s="8">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="C40" s="8">
-        <v>410</v>
+        <v>835</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="F40" s="8">
         <v>295</v>
@@ -4083,21 +4150,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B41" s="8">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="C41" s="8">
-        <v>835</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>216</v>
+        <v>683</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F41" s="8">
         <v>555</v>
@@ -4107,21 +4174,21 @@
       </c>
       <c r="N41" s="15"/>
     </row>
-    <row r="42" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B42" s="8">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="C42" s="8">
-        <v>683</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>260</v>
+        <v>519</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F42" s="20">
         <v>600</v>
@@ -4133,19 +4200,19 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B43" s="8">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C43" s="8">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F43" s="8">
         <v>400</v>
@@ -4154,25 +4221,25 @@
         <v>62</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N43" s="15"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="B44" s="8">
         <v>20000</v>
       </c>
       <c r="C44" s="8">
-        <v>474</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>216</v>
+        <v>357</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>232</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="F44" s="8">
         <v>374</v>
@@ -4183,20 +4250,20 @@
       <c r="N44" s="15"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>142</v>
+      <c r="A45" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="B45" s="8">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="C45" s="8">
-        <v>357</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>232</v>
+        <v>1226</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="F45" s="8">
         <v>250</v>
@@ -4207,20 +4274,20 @@
       <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
-        <v>153</v>
+      <c r="A46" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="B46" s="8">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="C46" s="8">
-        <v>1226</v>
+        <v>480</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="F46" s="20">
         <v>820</v>
@@ -4232,19 +4299,19 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="B47" s="8">
-        <v>30000</v>
+        <v>10200</v>
       </c>
       <c r="C47" s="8">
-        <v>480</v>
+        <v>691</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F47" s="20">
         <v>160</v>
@@ -4252,26 +4319,23 @@
       <c r="G47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K47" s="1">
-        <v>122316851</v>
-      </c>
       <c r="N47" s="15"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="B48" s="8">
-        <v>10200</v>
+        <v>40000</v>
       </c>
       <c r="C48" s="8">
-        <v>691</v>
+        <v>2577</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F48" s="20">
         <v>540.6</v>
@@ -4282,20 +4346,20 @@
       <c r="N48" s="15"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="8">
-        <v>40000</v>
-      </c>
-      <c r="C49" s="8">
-        <v>2577</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>56</v>
+      <c r="A49" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="20">
+        <v>5000</v>
+      </c>
+      <c r="C49" s="20">
+        <v>101</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="4"/>
@@ -4312,7 +4376,7 @@
         <v>500</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>154</v>
@@ -4327,7 +4391,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B51" s="8">
         <v>10000</v>
@@ -4336,10 +4400,10 @@
         <v>550</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F51" s="8">
         <v>375</v>
@@ -4360,10 +4424,10 @@
         <v>426</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F52" s="8">
         <v>310</v>
@@ -4384,7 +4448,7 @@
         <v>815</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>167</v>
@@ -4392,14 +4456,14 @@
       <c r="F53" s="15">
         <v>435</v>
       </c>
-      <c r="G53" s="15" t="s">
-        <v>240</v>
+      <c r="G53" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N53" s="15"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B54" s="8">
         <v>35000</v>
@@ -4408,10 +4472,10 @@
         <v>706</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F54" s="15">
         <v>500</v>
@@ -4422,315 +4486,305 @@
       <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>136</v>
+      <c r="B55" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C55" s="8">
+        <v>248</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="F55" s="1">
+        <v>263</v>
+      </c>
+      <c r="F55" s="15">
         <v>140</v>
       </c>
-      <c r="G55" s="15"/>
+      <c r="G55" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>258</v>
+      <c r="A56" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="8">
+        <v>13000</v>
+      </c>
+      <c r="C56" s="8">
+        <v>278</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="F56" s="1">
-        <v>255</v>
-      </c>
-      <c r="G56" s="15"/>
+        <v>271</v>
+      </c>
+      <c r="F56" s="15">
+        <v>160</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="28" t="s">
-        <v>254</v>
+      <c r="A57" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="8">
+        <v>50000</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="G57" s="15"/>
+        <v>268</v>
+      </c>
+      <c r="F57" s="15">
+        <v>750</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="11"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="N58" s="15"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F59" s="2">
-        <v>170</v>
-      </c>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="11"/>
+      <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="N59" s="15"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B60" s="8">
-        <v>10000</v>
-      </c>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F60" s="20">
-        <v>280</v>
-      </c>
+      <c r="D60" s="11"/>
+      <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="N60" s="15"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B61" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>223</v>
+      <c r="A61" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F61" s="19">
-        <v>375</v>
+        <v>242</v>
+      </c>
+      <c r="F61" s="1">
+        <v>255</v>
       </c>
       <c r="G61" s="15"/>
       <c r="N61" s="15"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B62" s="8">
-        <v>20000</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>207</v>
+      <c r="A62" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28" t="s">
+        <v>253</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F62" s="19">
-        <v>245</v>
+        <v>252</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>251</v>
       </c>
       <c r="G62" s="15"/>
       <c r="N62" s="15"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="19"/>
       <c r="G63" s="15"/>
       <c r="N63" s="15"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="D64" s="22"/>
-      <c r="F64" s="19"/>
+      <c r="A64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64" s="2">
+        <v>170</v>
+      </c>
       <c r="G64" s="15"/>
       <c r="N64" s="15"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="D65" s="22"/>
-      <c r="F65" s="19"/>
+      <c r="A65" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="20">
+        <v>280</v>
+      </c>
       <c r="G65" s="15"/>
       <c r="N65" s="15"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="D66" s="22"/>
-      <c r="F66" s="19"/>
-      <c r="L66" s="1" t="s">
+      <c r="A66" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F66" s="19">
+        <v>375</v>
+      </c>
+      <c r="G66" s="15"/>
+      <c r="N66" s="15"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F67" s="19">
+        <v>245</v>
+      </c>
+      <c r="G67" s="15"/>
+      <c r="N67" s="15"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="15"/>
+      <c r="N68" s="15"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="D69" s="22"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="15"/>
+      <c r="N69" s="15"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="D70" s="22"/>
+      <c r="F70" s="19"/>
+      <c r="L70" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N66" s="15" t="s">
+      <c r="N70" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F67" s="19">
-        <v>215</v>
-      </c>
-      <c r="L67" s="1" t="s">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="D71" s="22"/>
+      <c r="F71" s="19"/>
+      <c r="L71" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N67" s="15" t="s">
+      <c r="N71" s="15" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F68" s="19">
-        <v>225</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N68" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F69" s="19">
-        <v>203</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M69" s="1">
-        <v>650</v>
-      </c>
-      <c r="N69" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F70" s="1">
-        <v>168</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M70" s="1">
-        <v>580</v>
-      </c>
-      <c r="N70" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L71" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M71" s="1">
-        <v>360</v>
-      </c>
-      <c r="N71" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
+      </c>
+      <c r="B72" s="1">
+        <v>10000</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="F72" s="1">
-        <v>130</v>
-      </c>
-      <c r="G72" s="15"/>
+        <v>136</v>
+      </c>
+      <c r="F72" s="19">
+        <v>215</v>
+      </c>
       <c r="L72" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="N72" s="15" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
+      <c r="A73" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="D73" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>236</v>
+        <v>200</v>
+      </c>
+      <c r="F73" s="19">
+        <v>225</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="M73" s="1">
-        <v>330</v>
+        <v>650</v>
       </c>
       <c r="N73" s="15" t="s">
         <v>95</v>
@@ -4738,405 +4792,426 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>238</v>
+        <v>68</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" s="19">
+        <v>203</v>
       </c>
       <c r="L74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M74" s="1">
+        <v>580</v>
+      </c>
+      <c r="N74" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F75" s="1">
+        <v>168</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M75" s="1">
+        <v>360</v>
+      </c>
+      <c r="N75" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G76" s="15"/>
+      <c r="L76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N76" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F77" s="1">
+        <v>130</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M77" s="1">
+        <v>330</v>
+      </c>
+      <c r="N77" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M78" s="1">
         <v>255</v>
       </c>
-      <c r="N74" s="15" t="s">
+      <c r="N78" s="15" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D75" s="1"/>
-      <c r="E75" s="15"/>
-      <c r="N75" s="16"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N76" s="16"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="F77" s="27">
-        <v>104</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M77" s="1">
-        <v>280</v>
-      </c>
-      <c r="N77" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="F78" s="27">
-        <v>150</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N78" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N79" s="16"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D80" s="1"/>
+      <c r="E80" s="15"/>
+      <c r="N80" s="16"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M81" s="1">
+        <v>280</v>
+      </c>
+      <c r="N81" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F82" s="27">
+        <v>104</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N82" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" s="27">
+        <v>150</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N83" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E79" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="F79" s="1">
+      <c r="E84" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F84" s="1">
         <v>115</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N79" s="15" t="s">
+      <c r="L84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N84" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F80" s="1">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L80" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N80" s="15" t="s">
+      <c r="D85" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F85" s="1">
+        <v>99</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N85" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F81" s="1">
-        <v>99</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N81" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D82" s="1"/>
-      <c r="E82" s="15"/>
-      <c r="H82" s="8"/>
-      <c r="L82" s="1" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D86" s="1"/>
+      <c r="E86" s="15"/>
+      <c r="H86" s="8"/>
+      <c r="L86" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="N82" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F83" s="1">
-        <v>145</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N83" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D84" s="1"/>
-      <c r="E84" s="15"/>
-      <c r="L84" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N84" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D85" s="1"/>
-      <c r="E85" s="15"/>
-      <c r="L85" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="N85" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="F86" s="1">
-        <v>80</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="N86" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N87" s="16"/>
+      <c r="A87" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F87" s="1">
+        <v>145</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="15"/>
       <c r="L88" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="N88" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N89" s="16"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="15"/>
+      <c r="L89" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N89" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F90" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N90" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="N91" s="16"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D92" s="1"/>
-      <c r="E92" s="15"/>
+      <c r="A92" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="L92" s="1" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="N92" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="N93" s="16"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F94" s="1">
+        <v>90</v>
+      </c>
       <c r="L94" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="M94" s="1">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="N94" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B95" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>211</v>
+      <c r="A95" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F95" s="1">
-        <v>185</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N95" s="16"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
       <c r="E96" s="15"/>
       <c r="L96" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="N96" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="11"/>
-      <c r="F97" s="8"/>
+      <c r="A97" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F98" s="1">
-        <v>175</v>
-      </c>
       <c r="L98" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M98" s="1">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="N98" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L99" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M99" s="1">
+      <c r="A99" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F99" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D100" s="1"/>
+      <c r="E100" s="15"/>
+      <c r="L100" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N100" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="11"/>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F102" s="1">
+        <v>175</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M102" s="1">
         <v>215</v>
-      </c>
-      <c r="N99" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="F100" s="1">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E101" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F101" s="1">
-        <v>190</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M101" s="1">
-        <v>485</v>
-      </c>
-      <c r="N101" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L102" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M102" s="1">
-        <v>380</v>
       </c>
       <c r="N102" s="15" t="s">
         <v>117</v>
@@ -5144,32 +5219,47 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L103" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M103" s="1">
-        <v>585</v>
+        <v>215</v>
       </c>
       <c r="N103" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L104" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M104" s="1">
-        <v>510</v>
-      </c>
-      <c r="N104" s="15" t="s">
-        <v>117</v>
+      <c r="A104" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F104" s="1">
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F105" s="1">
+        <v>190</v>
+      </c>
       <c r="L105" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M105" s="1">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="N105" s="15" t="s">
         <v>117</v>
@@ -5177,10 +5267,10 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L106" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M106" s="1">
-        <v>660</v>
+        <v>380</v>
       </c>
       <c r="N106" s="15" t="s">
         <v>117</v>
@@ -5188,12 +5278,56 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L107" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M107" s="1">
+        <v>585</v>
+      </c>
+      <c r="N107" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L108" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M108" s="1">
+        <v>510</v>
+      </c>
+      <c r="N108" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L109" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M109" s="1">
+        <v>445</v>
+      </c>
+      <c r="N109" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L110" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M110" s="1">
+        <v>660</v>
+      </c>
+      <c r="N110" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L111" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="M107" s="1" t="s">
+      <c r="M111" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N107" s="15" t="s">
+      <c r="N111" s="15" t="s">
         <v>117</v>
       </c>
     </row>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="281">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -714,26 +714,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30天（6月7号到期）</t>
-    <rPh sb="2" eb="3">
-      <t>tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>稳赚宝</t>
     <rPh sb="0" eb="1">
       <t>wen'zhuan'b</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>bao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天（6月10号到期）</t>
-    <rPh sb="2" eb="3">
-      <t>tian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1354,10 +1340,6 @@
   </si>
   <si>
     <t>p2p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1930,44 +1912,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>tou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（6月12号到期）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>25天</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-多多集</t>
-    </r>
-    <rPh sb="11" eb="12">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>duo'duo</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ji'he</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2293,8 +2237,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经逾期，要雷</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个月（7月1日到期）</t>
+    <rPh sb="1" eb="2">
+      <t>ge'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换法人了，别投了</t>
+    <rPh sb="0" eb="1">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fa'ren</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>l</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bie'tou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才米公社</t>
+    <rPh sb="0" eb="1">
+      <t>cai'mi'gong'she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38天（7月10日到期）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32天（7月4号到期）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套现：2+2+3+7</t>
+    <rPh sb="0" eb="1">
+      <t>tao'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月6号到期）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>15天（6月12日到期）30天（6月28日）</t>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（6月12号到期</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-多多集</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>duo'duo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji'he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（6月12日到期）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30天（6月28日）</t>
     </r>
     <r>
       <rPr>
@@ -2337,97 +2456,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>30天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（6月10号到期）</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分秒金融</t>
+    <rPh sb="0" eb="1">
+      <t>fen'miao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长久贷</t>
+    <rPh sb="0" eb="1">
+      <t>chang'jiu'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">265p2p </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甬E贷</t>
+    <rPh sb="0" eb="1">
+      <t>yon</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个月（7月6日到期）</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ge'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已经逾期，要雷</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1个月（7月1日到期）</t>
-    <rPh sb="1" eb="2">
-      <t>ge'yue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未返现</t>
     <rPh sb="0" eb="1">
       <t>wei'fan'x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换法人了，别投了</t>
-    <rPh sb="0" eb="1">
-      <t>huan</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fa'ren</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>l</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>bie'tou</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>tou</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>才米公社</t>
-    <rPh sb="0" eb="1">
-      <t>cai'mi'gong'she</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38天（7月10日到期）</t>
-    <rPh sb="2" eb="3">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ri</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dao'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32天（7月4号到期）</t>
-    <rPh sb="2" eb="3">
-      <t>tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套现：2+2+3+7</t>
-    <rPh sb="0" eb="1">
-      <t>tao'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2618,8 +2719,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2726,7 +2831,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -2734,12 +2839,16 @@
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3016,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3091,7 +3200,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>69</v>
@@ -3123,7 +3232,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>69</v>
@@ -3155,7 +3264,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>69</v>
@@ -3167,7 +3276,7 @@
         <v>5940</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>45</v>
@@ -3187,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>69</v>
@@ -3219,7 +3328,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>69</v>
@@ -3228,13 +3337,13 @@
         <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3251,7 +3360,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>69</v>
@@ -3260,7 +3369,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3277,7 +3386,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>69</v>
@@ -3300,7 +3409,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>69</v>
@@ -3309,7 +3418,7 @@
         <v>72</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L9" s="15">
         <v>35205</v>
@@ -3329,7 +3438,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>69</v>
@@ -3352,7 +3461,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>69</v>
@@ -3375,7 +3484,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>69</v>
@@ -3398,7 +3507,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>69</v>
@@ -3577,7 +3686,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>69</v>
@@ -3600,7 +3709,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -3617,7 +3726,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -3634,7 +3743,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -3651,7 +3760,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -3668,7 +3777,7 @@
         <v>47</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -3682,7 +3791,7 @@
         <v>454</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>50</v>
@@ -3699,7 +3808,7 @@
         <v>308</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>51</v>
@@ -3728,7 +3837,7 @@
         <v>326</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>51</v>
@@ -3764,7 +3873,7 @@
         <v>57</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
@@ -3780,13 +3889,13 @@
         <v>73</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M29" s="12">
         <v>390</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -3815,7 +3924,7 @@
         <v>69</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N30" s="24"/>
     </row>
@@ -3848,7 +3957,7 @@
         <v>69</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N31" s="24"/>
     </row>
@@ -3863,7 +3972,7 @@
         <v>278</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>50</v>
@@ -3881,26 +3990,26 @@
         <v>69</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="16"/>
     </row>
     <row r="33" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="4">
         <v>10000</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="4">
         <v>435</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="23" t="s">
+      <c r="D33" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>78</v>
       </c>
       <c r="F33" s="4">
@@ -3910,13 +4019,13 @@
         <v>62</v>
       </c>
       <c r="H33" s="13">
-        <v>10058.959999999999</v>
+        <v>10091.67</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>69</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M33" s="8">
         <v>215</v>
@@ -3925,7 +4034,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="8">
         <v>10000</v>
@@ -3934,10 +4043,10 @@
         <v>526</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F34" s="8">
         <v>345</v>
@@ -3946,18 +4055,18 @@
         <v>62</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35" s="8">
         <v>10000</v>
@@ -3966,10 +4075,10 @@
         <v>236</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F35" s="8">
         <v>395</v>
@@ -3978,18 +4087,18 @@
         <v>62</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36" s="8">
         <v>10000</v>
@@ -3998,10 +4107,10 @@
         <v>400</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F36" s="8">
         <v>130</v>
@@ -4010,18 +4119,18 @@
         <v>62</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" s="8">
         <v>10000</v>
@@ -4030,10 +4139,10 @@
         <v>630</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F37" s="8">
         <v>285</v>
@@ -4042,18 +4151,18 @@
         <v>62</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" s="8">
         <v>10000</v>
@@ -4062,10 +4171,10 @@
         <v>423</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F38" s="8">
         <v>590</v>
@@ -4074,18 +4183,18 @@
         <v>62</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B39" s="8">
         <v>10000</v>
@@ -4094,10 +4203,10 @@
         <v>410</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F39" s="8">
         <v>320</v>
@@ -4106,21 +4215,21 @@
         <v>62</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B40" s="8">
         <v>30000</v>
@@ -4129,10 +4238,10 @@
         <v>835</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F40" s="8">
         <v>295</v>
@@ -4141,18 +4250,18 @@
         <v>62</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M40" s="1">
         <v>565</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B41" s="8">
         <v>20000</v>
@@ -4161,10 +4270,10 @@
         <v>683</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F41" s="8">
         <v>555</v>
@@ -4176,7 +4285,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B42" s="8">
         <v>10000</v>
@@ -4185,22 +4294,22 @@
         <v>519</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F42" s="20">
         <v>600</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B43" s="8">
         <v>20000</v>
@@ -4209,10 +4318,10 @@
         <v>474</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F43" s="8">
         <v>400</v>
@@ -4221,13 +4330,13 @@
         <v>62</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N43" s="15"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B44" s="8">
         <v>20000</v>
@@ -4236,10 +4345,10 @@
         <v>357</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F44" s="8">
         <v>374</v>
@@ -4251,7 +4360,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B45" s="8">
         <v>40000</v>
@@ -4260,10 +4369,10 @@
         <v>1226</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F45" s="8">
         <v>250</v>
@@ -4275,7 +4384,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B46" s="8">
         <v>30000</v>
@@ -4284,10 +4393,10 @@
         <v>480</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="23" t="s">
         <v>226</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>229</v>
       </c>
       <c r="F46" s="20">
         <v>820</v>
@@ -4299,7 +4408,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B47" s="8">
         <v>10200</v>
@@ -4308,10 +4417,10 @@
         <v>691</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F47" s="20">
         <v>160</v>
@@ -4335,7 +4444,7 @@
         <v>56</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F48" s="20">
         <v>540.6</v>
@@ -4359,7 +4468,7 @@
         <v>21</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="4"/>
@@ -4367,7 +4476,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B50" s="8">
         <v>20000</v>
@@ -4376,10 +4485,10 @@
         <v>500</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F50" s="8">
         <v>350</v>
@@ -4391,7 +4500,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B51" s="8">
         <v>10000</v>
@@ -4400,10 +4509,10 @@
         <v>550</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F51" s="8">
         <v>375</v>
@@ -4415,7 +4524,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B52" s="8">
         <v>20000</v>
@@ -4424,10 +4533,10 @@
         <v>426</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F52" s="8">
         <v>310</v>
@@ -4439,7 +4548,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B53" s="8">
         <v>30000</v>
@@ -4448,10 +4557,10 @@
         <v>815</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F53" s="15">
         <v>435</v>
@@ -4463,7 +4572,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B54" s="8">
         <v>35000</v>
@@ -4472,10 +4581,10 @@
         <v>706</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F54" s="15">
         <v>500</v>
@@ -4487,7 +4596,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B55" s="8">
         <v>10000</v>
@@ -4496,22 +4605,22 @@
         <v>248</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F55" s="15">
         <v>140</v>
       </c>
-      <c r="G55" s="15" t="s">
-        <v>266</v>
+      <c r="G55" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B56" s="8">
         <v>13000</v>
@@ -4520,22 +4629,22 @@
         <v>278</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F56" s="15">
         <v>160</v>
       </c>
-      <c r="G56" s="15" t="s">
-        <v>266</v>
+      <c r="G56" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B57" s="8">
         <v>50000</v>
@@ -4544,26 +4653,41 @@
         <v>1200</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F57" s="15">
         <v>750</v>
       </c>
-      <c r="G57" s="15" t="s">
-        <v>266</v>
+      <c r="G57" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="11"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
+      <c r="A58" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C58" s="8">
+        <v>600</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F58" s="15">
+        <v>420</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>280</v>
+      </c>
       <c r="N58" s="15"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -4586,16 +4710,16 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F61" s="1">
         <v>255</v>
@@ -4605,18 +4729,18 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
       <c r="D62" s="28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G62" s="15"/>
       <c r="N62" s="15"/>
@@ -4627,16 +4751,16 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B64" s="2">
         <v>20000</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F64" s="2">
         <v>170</v>
@@ -4646,14 +4770,14 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B65" s="8">
         <v>10000</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>51</v>
@@ -4666,16 +4790,16 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B66" s="2">
         <v>20000</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F66" s="19">
         <v>375</v>
@@ -4685,16 +4809,16 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B67" s="8">
         <v>20000</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F67" s="19">
         <v>245</v>
@@ -4723,13 +4847,13 @@
       <c r="D70" s="22"/>
       <c r="F70" s="19"/>
       <c r="L70" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N70" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -4738,36 +4862,36 @@
       <c r="D71" s="22"/>
       <c r="F71" s="19"/>
       <c r="L71" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N71" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B72" s="1">
         <v>10000</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F72" s="19">
         <v>215</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N72" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -4775,19 +4899,19 @@
         <v>67</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F73" s="19">
         <v>225</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M73" s="1">
         <v>650</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -4795,205 +4919,219 @@
         <v>68</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F74" s="19">
         <v>203</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M74" s="1">
         <v>580</v>
       </c>
       <c r="N74" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F75" s="1">
         <v>168</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M75" s="1">
         <v>360</v>
       </c>
       <c r="N75" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G76" s="15"/>
       <c r="L76" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N76" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F77" s="1">
         <v>130</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M77" s="1">
         <v>330</v>
       </c>
       <c r="N77" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M78" s="1">
         <v>255</v>
       </c>
       <c r="N78" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="N79" s="16"/>
+        <v>234</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N79" s="15" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
       <c r="E80" s="15"/>
+      <c r="L80" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="N80" s="16"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L81" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M81" s="1">
         <v>280</v>
       </c>
       <c r="N81" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
       <c r="D82" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F82" s="27">
         <v>104</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N82" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
       <c r="D83" s="28" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F83" s="27">
         <v>150</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N83" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F84" s="1">
         <v>115</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N84" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F85" s="1">
         <v>99</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N85" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -5001,67 +5139,67 @@
       <c r="E86" s="15"/>
       <c r="H86" s="8"/>
       <c r="L86" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N86" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="F87" s="1">
         <v>145</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N87" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
       <c r="E88" s="15"/>
       <c r="L88" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N88" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
       <c r="E89" s="15"/>
       <c r="L89" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N89" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F90" s="1">
         <v>80</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N90" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -5069,22 +5207,22 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N92" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -5092,36 +5230,36 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="F94" s="1">
         <v>90</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N94" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N95" s="16"/>
     </row>
@@ -5129,49 +5267,49 @@
       <c r="D96" s="1"/>
       <c r="E96" s="15"/>
       <c r="L96" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N96" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L98" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M98" s="1">
         <v>145</v>
       </c>
       <c r="N98" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B99" s="6">
         <v>10000</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F99" s="1">
         <v>185</v>
@@ -5181,13 +5319,13 @@
       <c r="D100" s="1"/>
       <c r="E100" s="15"/>
       <c r="L100" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N100" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -5199,44 +5337,44 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F102" s="1">
         <v>175</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M102" s="1">
         <v>215</v>
       </c>
       <c r="N102" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L103" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M103" s="1">
         <v>215</v>
       </c>
       <c r="N103" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F104" s="1">
         <v>260</v>
@@ -5244,91 +5382,91 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F105" s="1">
         <v>190</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M105" s="1">
         <v>485</v>
       </c>
       <c r="N105" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L106" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M106" s="1">
         <v>380</v>
       </c>
       <c r="N106" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L107" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M107" s="1">
         <v>585</v>
       </c>
       <c r="N107" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L108" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M108" s="1">
         <v>510</v>
       </c>
       <c r="N108" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L109" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M109" s="1">
         <v>445</v>
       </c>
       <c r="N109" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L110" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M110" s="1">
         <v>660</v>
       </c>
       <c r="N110" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L111" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N111" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="288">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -1108,13 +1108,6 @@
     <t>大同行</t>
     <rPh sb="0" eb="1">
       <t>da'tong'xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱爸爸</t>
-    <rPh sb="0" eb="1">
-      <t>qian'ba'ba</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1969,20 +1962,6 @@
     <rPh sb="2" eb="3">
       <t>zi'ben</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大雁金服</t>
-    <rPh sb="0" eb="1">
-      <t>da'yan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jin'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2034,84 +2013,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>235、2月</t>
-    <rPh sb="5" eb="6">
-      <t>yue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大平台，稳如狗(2月没标)</t>
-    <rPh sb="0" eb="1">
-      <t>da'ping't</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wen'ru'gou</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>mei'biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>没有</t>
     <rPh sb="0" eb="1">
       <t>mei'you</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>大平台，稳如狗，前50</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（石墨满了）</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>da'ping't</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wen'ru'gou</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qian</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>shi'mo</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>man'le</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有存管，上市（30天没标）</t>
-    <rPh sb="0" eb="1">
-      <t>you'cun'g</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shagn'shi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>mei'biao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2532,12 +2436,135 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>掌众财富</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'zhong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑鱼</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'hei'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微金所</t>
+    <rPh sb="0" eb="1">
+      <t>wei'jin'suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠农聚宝</t>
+    <rPh sb="0" eb="1">
+      <t>hui'nong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱盆网</t>
+    <rPh sb="0" eb="1">
+      <t>qian'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草根</t>
+    <rPh sb="0" eb="1">
+      <t>cao'gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓钱猫</t>
+    <rPh sb="0" eb="1">
+      <t>zhua'qian'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩卡金服</t>
+    <rPh sb="0" eb="1">
+      <t>mo'ka</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱财网</t>
+    <rPh sb="0" eb="1">
+      <t>bao'cai'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇中网</t>
+    <rPh sb="0" eb="1">
+      <t>hui'zhong'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝典网</t>
+    <rPh sb="0" eb="1">
+      <t>bao'dian'wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好利网</t>
+    <rPh sb="0" eb="1">
+      <t>hao'li'wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投融家</t>
+    <rPh sb="0" eb="1">
+      <t>tou'rong'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45天（7月21日到期）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2695,6 +2722,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2738,7 +2773,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2829,6 +2864,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -3123,10 +3161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3200,7 +3238,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>69</v>
@@ -3232,7 +3270,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>69</v>
@@ -3264,7 +3302,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>69</v>
@@ -3276,7 +3314,7 @@
         <v>5940</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>45</v>
@@ -3296,7 +3334,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>69</v>
@@ -3328,7 +3366,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>69</v>
@@ -3337,13 +3375,13 @@
         <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3360,7 +3398,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>69</v>
@@ -3369,7 +3407,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3386,7 +3424,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>69</v>
@@ -3409,7 +3447,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>69</v>
@@ -3418,7 +3456,7 @@
         <v>72</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L9" s="15">
         <v>35205</v>
@@ -3438,7 +3476,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>69</v>
@@ -3461,7 +3499,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>69</v>
@@ -3484,7 +3522,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>69</v>
@@ -3507,7 +3545,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>69</v>
@@ -3686,98 +3724,13 @@
         <v>11</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>69</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="19">
-        <v>20000</v>
-      </c>
-      <c r="C21" s="19">
-        <v>2200</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="19">
-        <v>10000</v>
-      </c>
-      <c r="C22" s="19">
-        <v>1008</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="19">
-        <v>20000</v>
-      </c>
-      <c r="C23" s="19">
-        <v>918</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="19">
-        <v>10000</v>
-      </c>
-      <c r="C24" s="19">
-        <v>530</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="19">
-        <v>500</v>
-      </c>
-      <c r="C25" s="19">
-        <v>552</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -3791,7 +3744,7 @@
         <v>454</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>50</v>
@@ -3808,7 +3761,7 @@
         <v>308</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>51</v>
@@ -3837,7 +3790,7 @@
         <v>326</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>51</v>
@@ -3873,7 +3826,7 @@
         <v>57</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
@@ -3924,7 +3877,7 @@
         <v>69</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N30" s="24"/>
     </row>
@@ -3957,7 +3910,7 @@
         <v>69</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N31" s="24"/>
     </row>
@@ -3972,7 +3925,7 @@
         <v>278</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>50</v>
@@ -3990,7 +3943,7 @@
         <v>69</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
@@ -4007,7 +3960,7 @@
         <v>435</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>78</v>
@@ -4025,7 +3978,7 @@
         <v>69</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M33" s="8">
         <v>215</v>
@@ -4043,7 +3996,7 @@
         <v>526</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>80</v>
@@ -4075,7 +4028,7 @@
         <v>236</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>82</v>
@@ -4139,7 +4092,7 @@
         <v>630</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>82</v>
@@ -4215,7 +4168,7 @@
         <v>62</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>98</v>
@@ -4238,10 +4191,10 @@
         <v>835</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F40" s="8">
         <v>295</v>
@@ -4261,7 +4214,7 @@
     </row>
     <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41" s="8">
         <v>20000</v>
@@ -4270,10 +4223,10 @@
         <v>683</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F41" s="8">
         <v>555</v>
@@ -4281,11 +4234,17 @@
       <c r="G41" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="L41" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M41" s="1">
+        <v>125</v>
+      </c>
       <c r="N41" s="15"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" s="8">
         <v>10000</v>
@@ -4294,22 +4253,28 @@
         <v>519</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F42" s="20">
         <v>600</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="L42" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="M42" s="1">
+        <v>60</v>
       </c>
       <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B43" s="8">
         <v>20000</v>
@@ -4318,10 +4283,10 @@
         <v>474</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F43" s="8">
         <v>400</v>
@@ -4330,13 +4295,19 @@
         <v>62</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="L43" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="M43" s="1">
+        <v>130</v>
       </c>
       <c r="N43" s="15"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44" s="8">
         <v>20000</v>
@@ -4345,10 +4316,10 @@
         <v>357</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F44" s="8">
         <v>374</v>
@@ -4356,11 +4327,14 @@
       <c r="G44" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="L44" s="31" t="s">
+        <v>276</v>
+      </c>
       <c r="N44" s="15"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B45" s="8">
         <v>40000</v>
@@ -4369,10 +4343,10 @@
         <v>1226</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F45" s="8">
         <v>250</v>
@@ -4380,11 +4354,17 @@
       <c r="G45" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="L45" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="M45" s="1">
+        <v>100</v>
+      </c>
       <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="8">
         <v>30000</v>
@@ -4393,10 +4373,10 @@
         <v>480</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F46" s="20">
         <v>820</v>
@@ -4404,11 +4384,17 @@
       <c r="G46" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="L46" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="M46" s="1">
+        <v>60</v>
+      </c>
       <c r="N46" s="15"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B47" s="8">
         <v>10200</v>
@@ -4417,16 +4403,22 @@
         <v>691</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F47" s="20">
         <v>160</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="L47" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="M47" s="1">
+        <v>140</v>
       </c>
       <c r="N47" s="15"/>
     </row>
@@ -4444,13 +4436,19 @@
         <v>56</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F48" s="20">
         <v>540.6</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="L48" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="M48" s="1">
+        <v>245</v>
       </c>
       <c r="N48" s="15"/>
     </row>
@@ -4468,15 +4466,21 @@
         <v>21</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="4"/>
+      <c r="L49" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M49" s="1">
+        <v>425</v>
+      </c>
       <c r="N49" s="15"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B50" s="8">
         <v>20000</v>
@@ -4485,10 +4489,10 @@
         <v>500</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F50" s="8">
         <v>350</v>
@@ -4496,11 +4500,17 @@
       <c r="G50" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="L50" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="M50" s="1">
+        <v>120</v>
+      </c>
       <c r="N50" s="15"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B51" s="8">
         <v>10000</v>
@@ -4509,16 +4519,22 @@
         <v>550</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F51" s="8">
         <v>375</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="L51" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="M51" s="1">
+        <v>75</v>
       </c>
       <c r="N51" s="15"/>
     </row>
@@ -4533,10 +4549,10 @@
         <v>426</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F52" s="8">
         <v>310</v>
@@ -4544,11 +4560,17 @@
       <c r="G52" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="L52" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="M52" s="1">
+        <v>150</v>
+      </c>
       <c r="N52" s="15"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B53" s="8">
         <v>30000</v>
@@ -4557,10 +4579,10 @@
         <v>815</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F53" s="15">
         <v>435</v>
@@ -4568,11 +4590,17 @@
       <c r="G53" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="L53" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="M53" s="1">
+        <v>200</v>
+      </c>
       <c r="N53" s="15"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B54" s="8">
         <v>35000</v>
@@ -4581,10 +4609,10 @@
         <v>706</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F54" s="15">
         <v>500</v>
@@ -4592,11 +4620,17 @@
       <c r="G54" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="L54" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="M54" s="1">
+        <v>185</v>
+      </c>
       <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B55" s="8">
         <v>10000</v>
@@ -4605,10 +4639,10 @@
         <v>248</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F55" s="15">
         <v>140</v>
@@ -4616,11 +4650,14 @@
       <c r="G55" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="L55" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B56" s="8">
         <v>13000</v>
@@ -4629,10 +4666,10 @@
         <v>278</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F56" s="15">
         <v>160</v>
@@ -4644,7 +4681,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" s="8">
         <v>50000</v>
@@ -4653,10 +4690,10 @@
         <v>1200</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F57" s="15">
         <v>750</v>
@@ -4668,7 +4705,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B58" s="8">
         <v>20000</v>
@@ -4677,26 +4714,41 @@
         <v>600</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F58" s="15">
         <v>420</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="N58" s="15"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="11"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
+      <c r="A59" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B59" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C59" s="8">
+        <v>700</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="15">
+        <v>510</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>272</v>
+      </c>
       <c r="N59" s="15"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -4709,258 +4761,264 @@
       <c r="N60" s="15"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>252</v>
+      <c r="A61" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="19">
+        <v>20000</v>
+      </c>
+      <c r="C61" s="19">
+        <v>2200</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="F61" s="1">
-        <v>255</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="N61" s="15"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="28" t="s">
-        <v>249</v>
+      <c r="A62" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="19">
+        <v>10000</v>
+      </c>
+      <c r="C62" s="19">
+        <v>1008</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>247</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="N62" s="15"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="19">
+        <v>20000</v>
+      </c>
+      <c r="C63" s="19">
+        <v>918</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>226</v>
+      </c>
       <c r="G63" s="15"/>
       <c r="N63" s="15"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>221</v>
+      <c r="A64" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="19">
+        <v>10000</v>
+      </c>
+      <c r="C64" s="19">
+        <v>530</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F64" s="2">
-        <v>170</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="F64" s="27"/>
       <c r="G64" s="15"/>
       <c r="N64" s="15"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65" s="8">
-        <v>10000</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="23" t="s">
-        <v>218</v>
+      <c r="A65" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="19">
+        <v>500</v>
+      </c>
+      <c r="C65" s="19">
+        <v>552</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F65" s="20">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="G65" s="15"/>
       <c r="N65" s="15"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B66" s="2">
-        <v>20000</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="D66" s="23" t="s">
         <v>220</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F66" s="19">
-        <v>375</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F66" s="2"/>
       <c r="G66" s="15"/>
       <c r="N66" s="15"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B67" s="8">
-        <v>20000</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>204</v>
+        <v>148</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="23" t="s">
+        <v>217</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F67" s="19">
-        <v>245</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F67" s="20"/>
       <c r="G67" s="15"/>
       <c r="N67" s="15"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="A68" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="D68" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>151</v>
+      </c>
       <c r="F68" s="19"/>
       <c r="G68" s="15"/>
       <c r="N68" s="15"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="D69" s="22"/>
+      <c r="A69" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="D69" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>151</v>
+      </c>
       <c r="F69" s="19"/>
       <c r="G69" s="15"/>
       <c r="N69" s="15"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="D70" s="22"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
       <c r="F70" s="19"/>
-      <c r="L70" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N70" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="G70" s="15"/>
+      <c r="N70" s="15"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="D71" s="22"/>
       <c r="F71" s="19"/>
-      <c r="L71" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N71" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="G71" s="15"/>
+      <c r="N71" s="15"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F72" s="19">
-        <v>215</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="D72" s="22"/>
+      <c r="F72" s="19"/>
       <c r="L72" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N72" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F73" s="19">
-        <v>225</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="D73" s="22"/>
+      <c r="F73" s="19"/>
       <c r="L73" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M73" s="1">
-        <v>650</v>
+        <v>103</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>134</v>
       </c>
       <c r="F74" s="19">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M74" s="1">
-        <v>580</v>
+        <v>105</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="N74" s="15" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>121</v>
+      <c r="A75" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F75" s="1">
-        <v>168</v>
+      <c r="F75" s="19">
+        <v>225</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M75" s="1">
-        <v>360</v>
+        <v>650</v>
       </c>
       <c r="N75" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G76" s="15"/>
+      <c r="A76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" s="19">
+        <v>203</v>
+      </c>
       <c r="L76" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="M76" s="1">
+        <v>580</v>
       </c>
       <c r="N76" s="15" t="s">
         <v>93</v>
@@ -4968,258 +5026,267 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="F77" s="1">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="M77" s="1">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N77" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>232</v>
-      </c>
+      <c r="G78" s="15"/>
       <c r="L78" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M78" s="1">
-        <v>255</v>
+        <v>109</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="N78" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="F79" s="1">
+        <v>135</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M79" s="1">
+        <v>330</v>
+      </c>
+      <c r="N79" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E80" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="N79" s="15" t="s">
+      <c r="F80" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M80" s="1">
+        <v>255</v>
+      </c>
+      <c r="N80" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D80" s="1"/>
-      <c r="E80" s="15"/>
-      <c r="L80" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="N80" s="16"/>
-    </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="L81" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N81" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D82" s="1"/>
+      <c r="E82" s="15"/>
+      <c r="L82" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N82" s="16"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L83" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M83" s="1">
         <v>280</v>
       </c>
-      <c r="N81" s="15" t="s">
+      <c r="N83" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="28" t="s">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="E82" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="F82" s="27">
+      <c r="E84" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F84" s="27">
         <v>104</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="L84" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="N82" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="F83" s="27">
-        <v>150</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N83" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="F84" s="1">
-        <v>115</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="N84" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F85" s="1">
-        <v>99</v>
+      <c r="A85" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F85" s="27">
+        <v>150</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="N85" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D86" s="1"/>
-      <c r="E86" s="15"/>
-      <c r="H86" s="8"/>
+      <c r="A86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F86" s="1">
+        <v>115</v>
+      </c>
       <c r="L86" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N86" s="15" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F87" s="1">
+        <v>99</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L87" s="1" t="s">
-        <v>128</v>
+      <c r="M87" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="N87" s="15" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
       <c r="E88" s="15"/>
+      <c r="H88" s="8"/>
       <c r="L88" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N88" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D89" s="1"/>
-      <c r="E89" s="15"/>
+      <c r="A89" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F89" s="1">
+        <v>145</v>
+      </c>
       <c r="L89" s="1" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="N89" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F90" s="1">
-        <v>80</v>
-      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="15"/>
       <c r="L90" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="N90" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N91" s="16"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="15"/>
+      <c r="L91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
+      </c>
+      <c r="F92" s="1">
+        <v>80</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N92" s="15" t="s">
         <v>115</v>
@@ -5230,44 +5297,42 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F94" s="1">
-        <v>90</v>
+      <c r="F94" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N94" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="N95" s="16"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E95" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="N95" s="16"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D96" s="1"/>
-      <c r="E96" s="15"/>
+      <c r="E96" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="F96" s="1">
+        <v>90</v>
+      </c>
       <c r="L96" s="1" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="N96" s="15" t="s">
         <v>115</v>
@@ -5275,151 +5340,152 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N97" s="16"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D98" s="1"/>
+      <c r="E98" s="15"/>
       <c r="L98" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M98" s="1">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="N98" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B99" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>208</v>
+      <c r="A99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F99" s="1">
-        <v>185</v>
+        <v>161</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D100" s="1"/>
-      <c r="E100" s="15"/>
       <c r="L100" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+      <c r="M100" s="1">
+        <v>145</v>
       </c>
       <c r="N100" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="11"/>
-      <c r="F101" s="8"/>
+      <c r="A101" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="D101" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F101" s="1">
+        <v>185</v>
+      </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="D102" s="1"/>
+      <c r="E102" s="15"/>
+      <c r="L102" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F102" s="1">
-        <v>175</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M102" s="1">
-        <v>215</v>
+      <c r="M102" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="N102" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L103" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M103" s="1">
-        <v>215</v>
-      </c>
-      <c r="N103" s="15" t="s">
-        <v>115</v>
-      </c>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="11"/>
+      <c r="F103" s="8"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>255</v>
+        <v>174</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F104" s="1">
-        <v>260</v>
+        <v>175</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M104" s="1">
+        <v>215</v>
+      </c>
+      <c r="N104" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E105" s="15" t="s">
+      <c r="L105" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M105" s="1">
         <v>215</v>
-      </c>
-      <c r="F105" s="1">
-        <v>190</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M105" s="1">
-        <v>485</v>
       </c>
       <c r="N105" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L106" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M106" s="1">
-        <v>380</v>
-      </c>
-      <c r="N106" s="15" t="s">
-        <v>115</v>
+      <c r="A106" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F106" s="1">
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F107" s="1">
+        <v>190</v>
+      </c>
       <c r="L107" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M107" s="1">
-        <v>585</v>
+        <v>485</v>
       </c>
       <c r="N107" s="15" t="s">
         <v>115</v>
@@ -5427,10 +5493,10 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L108" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M108" s="1">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="N108" s="15" t="s">
         <v>115</v>
@@ -5438,10 +5504,10 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L109" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M109" s="1">
-        <v>445</v>
+        <v>585</v>
       </c>
       <c r="N109" s="15" t="s">
         <v>115</v>
@@ -5449,10 +5515,10 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L110" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M110" s="1">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="N110" s="15" t="s">
         <v>115</v>
@@ -5460,12 +5526,34 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L111" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M111" s="1">
+        <v>445</v>
+      </c>
+      <c r="N111" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L112" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M112" s="1">
+        <v>660</v>
+      </c>
+      <c r="N112" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L113" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M113" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="M111" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N111" s="15" t="s">
+      <c r="N113" s="15" t="s">
         <v>115</v>
       </c>
     </row>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="288">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -981,13 +981,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30天（6月12号到期）</t>
-    <rPh sb="2" eb="3">
-      <t>tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p2p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1064,26 +1057,6 @@
     <t>网投网</t>
     <rPh sb="0" eb="1">
       <t>wang'tou'w</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天（6月13号到期）</t>
-    <rPh sb="2" eb="3">
-      <t>tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天（6月13号到期）提现密码Moi1m2</t>
-    <rPh sb="2" eb="3">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ti'x</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>mi'm</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2236,11 +2209,194 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分秒金融</t>
+    <rPh sb="0" eb="1">
+      <t>fen'miao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长久贷</t>
+    <rPh sb="0" eb="1">
+      <t>chang'jiu'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">265p2p </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甬E贷</t>
+    <rPh sb="0" eb="1">
+      <t>yon</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个月（7月6日到期）</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ge'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌众财富</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'zhong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑鱼</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'hei'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微金所</t>
+    <rPh sb="0" eb="1">
+      <t>wei'jin'suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠农聚宝</t>
+    <rPh sb="0" eb="1">
+      <t>hui'nong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱盆网</t>
+    <rPh sb="0" eb="1">
+      <t>qian'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草根</t>
+    <rPh sb="0" eb="1">
+      <t>cao'gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓钱猫</t>
+    <rPh sb="0" eb="1">
+      <t>zhua'qian'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩卡金服</t>
+    <rPh sb="0" eb="1">
+      <t>mo'ka</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱财网</t>
+    <rPh sb="0" eb="1">
+      <t>bao'cai'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇中网</t>
+    <rPh sb="0" eb="1">
+      <t>hui'zhong'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝典网</t>
+    <rPh sb="0" eb="1">
+      <t>bao'dian'wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好利网</t>
+    <rPh sb="0" eb="1">
+      <t>hao'li'wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投融家</t>
+    <rPh sb="0" eb="1">
+      <t>tou'rong'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45天（7月21日到期）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未回款</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hui'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
         <rFont val="DengXian (正文)"/>
         <family val="3"/>
         <charset val="134"/>
@@ -2251,7 +2407,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
+        <color rgb="FF00B050"/>
         <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
@@ -2263,7 +2419,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
         <rFont val="DengXian (正文)"/>
         <family val="3"/>
         <charset val="134"/>
@@ -2274,7 +2430,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
+        <color rgb="FF00B050"/>
         <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
@@ -2295,13 +2451,41 @@
   </si>
   <si>
     <r>
+      <t>30天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（6月10号到期）</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>15天</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
         <rFont val="DengXian (正文)"/>
         <family val="3"/>
         <charset val="134"/>
@@ -2367,195 +2551,72 @@
       <rPr>
         <b/>
         <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（6月12号到期）</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian (正文)"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（6月10号到期）</t>
+      <t>（6月15号到期）</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提现密码Moi1m2</t>
+    </r>
     <rPh sb="2" eb="3">
       <t>tian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分秒金融</t>
-    <rPh sb="0" eb="1">
-      <t>fen'miao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jin'r</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410p2p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长久贷</t>
-    <rPh sb="0" eb="1">
-      <t>chang'jiu'dai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">265p2p </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甬E贷</t>
-    <rPh sb="0" eb="1">
-      <t>yon</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ym</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个月（7月6日到期）</t>
-    <rPh sb="0" eb="1">
-      <t>yi'ge'y</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未返现</t>
-    <rPh sb="0" eb="1">
-      <t>wei'fan'x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌众财富</t>
-    <rPh sb="0" eb="1">
-      <t>zhang'zhong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cai'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑鱼</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'hei'yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微金所</t>
-    <rPh sb="0" eb="1">
-      <t>wei'jin'suo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惠农聚宝</t>
-    <rPh sb="0" eb="1">
-      <t>hui'nong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ju'bao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱盆网</t>
-    <rPh sb="0" eb="1">
-      <t>qian'p</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草根</t>
-    <rPh sb="0" eb="1">
-      <t>cao'gen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓钱猫</t>
-    <rPh sb="0" eb="1">
-      <t>zhua'qian'mao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摩卡金服</t>
-    <rPh sb="0" eb="1">
-      <t>mo'ka</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jin'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抱财网</t>
-    <rPh sb="0" eb="1">
-      <t>bao'cai'w</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇中网</t>
-    <rPh sb="0" eb="1">
-      <t>hui'zhong'w</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝典网</t>
-    <rPh sb="0" eb="1">
-      <t>bao'dian'wang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好利网</t>
-    <rPh sb="0" eb="1">
-      <t>hao'li'wang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投融家</t>
-    <rPh sb="0" eb="1">
-      <t>tou'rong'jia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45天（7月21日到期）</t>
+    <rPh sb="12" eb="13">
+      <t>ti'x</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>mi'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（6月13号到期）</t>
+    </r>
     <rPh sb="2" eb="3">
       <t>tian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ri</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dao'qi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2773,7 +2834,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2866,6 +2927,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3161,10 +3225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3175,7 +3239,8 @@
     <col min="5" max="5" width="7.33203125" style="23" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="1"/>
     <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.83203125" style="1" customWidth="1"/>
@@ -3205,7 +3270,7 @@
       <c r="G1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="32" t="s">
         <v>69</v>
       </c>
       <c r="I1" s="17" t="s">
@@ -3237,8 +3302,8 @@
       <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>226</v>
+      <c r="E2" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>69</v>
@@ -3269,8 +3334,8 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>226</v>
+      <c r="E3" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>69</v>
@@ -3301,8 +3366,8 @@
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>226</v>
+      <c r="E4" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>69</v>
@@ -3314,7 +3379,7 @@
         <v>5940</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>45</v>
@@ -3333,8 +3398,8 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>226</v>
+      <c r="E5" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>69</v>
@@ -3365,8 +3430,8 @@
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>226</v>
+      <c r="E6" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>69</v>
@@ -3375,13 +3440,13 @@
         <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3397,8 +3462,8 @@
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>226</v>
+      <c r="E7" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>69</v>
@@ -3407,7 +3472,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3423,8 +3488,8 @@
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>226</v>
+      <c r="E8" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>69</v>
@@ -3446,8 +3511,8 @@
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>226</v>
+      <c r="E9" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>69</v>
@@ -3456,7 +3521,7 @@
         <v>72</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L9" s="15">
         <v>35205</v>
@@ -3475,8 +3540,8 @@
       <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>226</v>
+      <c r="E10" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>69</v>
@@ -3498,8 +3563,8 @@
       <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>226</v>
+      <c r="E11" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>69</v>
@@ -3521,8 +3586,8 @@
       <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>226</v>
+      <c r="E12" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>69</v>
@@ -3544,8 +3609,8 @@
       <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>226</v>
+      <c r="E13" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>69</v>
@@ -3567,7 +3632,7 @@
       <c r="D14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="14">
@@ -3593,7 +3658,7 @@
       <c r="D15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H15" s="14">
@@ -3619,7 +3684,7 @@
       <c r="D16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H16" s="14">
@@ -3645,7 +3710,7 @@
       <c r="D17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H17" s="14">
@@ -3671,7 +3736,7 @@
       <c r="D18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H18" s="14">
@@ -3697,7 +3762,7 @@
       <c r="D19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="14">
@@ -3723,8 +3788,8 @@
       <c r="D20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>226</v>
+      <c r="E20" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>69</v>
@@ -3733,285 +3798,497 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B21" s="13">
         <v>10000</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C21" s="13">
         <v>454</v>
       </c>
+      <c r="D21" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="13">
+        <v>10069.52</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C22" s="13">
+        <v>308</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="13">
+        <v>10083.34</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="13">
+        <v>326</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="13">
+        <v>10089.67</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C24" s="13">
+        <v>83</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="13">
+        <v>10082.19</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="12">
+        <v>390</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C25" s="4">
+        <v>220</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="4">
+        <v>110</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="13">
+        <v>10082.19</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C26" s="4">
+        <v>705</v>
+      </c>
       <c r="D26" s="14" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="E26" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="4">
+        <v>580</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="4">
+        <v>10325.07</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C27" s="4">
+        <v>278</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C27" s="13">
-        <v>308</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="4">
+        <v>220</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H27" s="13">
-        <v>10069.52</v>
+        <v>10091.67</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>69</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="13">
+        <v>215</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4">
         <v>10000</v>
       </c>
-      <c r="C28" s="13">
-        <v>326</v>
+      <c r="C28" s="4">
+        <v>435</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="4">
+        <v>345</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="13">
-        <v>10083.34</v>
+      <c r="H28" s="4">
+        <v>10133.469999999999</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>69</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="16"/>
-    </row>
-    <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="13">
+        <v>215</v>
+      </c>
+      <c r="M28" s="4">
+        <v>215</v>
+      </c>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="4">
         <v>10000</v>
       </c>
-      <c r="C29" s="13">
-        <v>83</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>57</v>
+      <c r="C29" s="4">
+        <v>526</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="4">
+        <v>395</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="13">
-        <v>10089.67</v>
+      <c r="H29" s="4">
+        <v>10133.469999999999</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>69</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="M29" s="12">
-        <v>390</v>
+        <v>215</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B30" s="4">
         <v>10000</v>
       </c>
       <c r="C30" s="4">
-        <v>220</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>55</v>
+        <v>236</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="4">
+        <v>130</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="13">
-        <v>10082.19</v>
+      <c r="H30" s="4">
+        <v>10045</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>69</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="N30" s="24"/>
-    </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="4">
+        <v>215</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="8">
         <v>10000</v>
       </c>
-      <c r="C31" s="4">
-        <v>705</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="4">
-        <v>110</v>
+      <c r="C31" s="8">
+        <v>400</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="8">
+        <v>285</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="13">
-        <v>10082.19</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="N31" s="24"/>
-    </row>
-    <row r="32" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="4">
+      <c r="L31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="8">
         <v>10000</v>
       </c>
-      <c r="C32" s="4">
-        <v>278</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="4">
-        <v>580</v>
+      <c r="C32" s="8">
+        <v>630</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="8">
+        <v>590</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="4">
-        <v>10325.07</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="16"/>
-    </row>
-    <row r="33" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B33" s="4">
         <v>10000</v>
       </c>
       <c r="C33" s="4">
-        <v>435</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>260</v>
+        <v>423</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F33" s="4">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="13">
-        <v>10091.67</v>
+      <c r="H33" s="4">
+        <v>10075</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>69</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="M33" s="8">
         <v>215</v>
       </c>
-      <c r="N33" s="16"/>
+      <c r="L33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="8">
+      <c r="A34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="4">
         <v>10000</v>
       </c>
-      <c r="C34" s="8">
-        <v>526</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="8">
-        <v>345</v>
+      <c r="C34" s="4">
+        <v>410</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="4">
+        <v>295</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="H34" s="4">
+        <v>10115.06</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="L34" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>93</v>
@@ -4019,1254 +4296,1170 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="B35" s="8">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="C35" s="8">
-        <v>236</v>
+        <v>835</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="F35" s="8">
-        <v>395</v>
+        <v>555</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
+      </c>
+      <c r="M35" s="1">
+        <v>565</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="B36" s="8">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C36" s="8">
-        <v>400</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>132</v>
+        <v>683</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>243</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="8">
-        <v>130</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="F36" s="20">
+        <v>600</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="M36" s="1">
+        <v>125</v>
+      </c>
+      <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="B37" s="8">
         <v>10000</v>
       </c>
       <c r="C37" s="8">
-        <v>630</v>
+        <v>519</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="F37" s="8">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>93</v>
-      </c>
+      <c r="I37" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="M37" s="1">
+        <v>60</v>
+      </c>
+      <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="B38" s="8">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C38" s="8">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="F38" s="8">
-        <v>590</v>
+        <v>374</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N38" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="8">
-        <v>10000</v>
-      </c>
-      <c r="C39" s="8">
-        <v>410</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="8">
-        <v>320</v>
+      <c r="L38" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" s="1">
+        <v>130</v>
+      </c>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="4">
+        <v>20000</v>
+      </c>
+      <c r="C39" s="4">
+        <v>357</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" s="4">
+        <v>250</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N39" s="15" t="s">
-        <v>93</v>
-      </c>
+      <c r="H39" s="4">
+        <v>20093.61</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="N39" s="13"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>133</v>
+      <c r="A40" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="B40" s="8">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C40" s="8">
-        <v>835</v>
+        <v>1226</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40" s="8">
-        <v>295</v>
+        <v>148</v>
+      </c>
+      <c r="F40" s="20">
+        <v>820</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M40" s="1">
         <v>100</v>
       </c>
-      <c r="M40" s="1">
-        <v>565</v>
-      </c>
-      <c r="N40" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B41" s="8">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C41" s="8">
-        <v>683</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>246</v>
+        <v>480</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F41" s="8">
-        <v>555</v>
+        <v>222</v>
+      </c>
+      <c r="F41" s="20">
+        <v>160</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L41" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M41" s="1">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="N41" s="15"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="B42" s="8">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="C42" s="8">
-        <v>519</v>
+        <v>691</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="F42" s="20">
-        <v>600</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>221</v>
+        <v>540.6</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="L42" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M42" s="1">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="B43" s="8">
+        <v>40000</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2577</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="4"/>
+      <c r="L43" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M43" s="1">
+        <v>245</v>
+      </c>
+      <c r="N43" s="15"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="20">
+        <v>5000</v>
+      </c>
+      <c r="C44" s="20">
+        <v>101</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="4"/>
+      <c r="L44" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="M44" s="1">
+        <v>425</v>
+      </c>
+      <c r="N44" s="15"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="8">
         <v>20000</v>
       </c>
-      <c r="C43" s="8">
-        <v>474</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F43" s="8">
-        <v>400</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L43" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="M43" s="1">
-        <v>130</v>
-      </c>
-      <c r="N43" s="15"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" s="8">
-        <v>20000</v>
-      </c>
-      <c r="C44" s="8">
-        <v>357</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="F44" s="8">
-        <v>374</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L44" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="N44" s="15"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" s="8">
-        <v>40000</v>
-      </c>
       <c r="C45" s="8">
-        <v>1226</v>
+        <v>500</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F45" s="8">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="M45" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="B46" s="8">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="C46" s="8">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="F46" s="20">
-        <v>820</v>
+        <v>234</v>
+      </c>
+      <c r="F46" s="8">
+        <v>375</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M46" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N46" s="15"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="B47" s="8">
-        <v>10200</v>
+        <v>20000</v>
       </c>
       <c r="C47" s="8">
-        <v>691</v>
+        <v>426</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="F47" s="20">
-        <v>160</v>
+        <v>237</v>
+      </c>
+      <c r="F47" s="8">
+        <v>310</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L47" s="31" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
       <c r="M47" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="N47" s="15"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="B48" s="8">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="C48" s="8">
-        <v>2577</v>
+        <v>815</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F48" s="20">
-        <v>540.6</v>
+        <v>161</v>
+      </c>
+      <c r="F48" s="15">
+        <v>435</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M48" s="1">
+        <v>200</v>
+      </c>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="N48" s="15"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="20">
-        <v>5000</v>
-      </c>
-      <c r="C49" s="20">
-        <v>101</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="4"/>
+      <c r="B49" s="8">
+        <v>35000</v>
+      </c>
+      <c r="C49" s="8">
+        <v>706</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F49" s="15">
+        <v>500</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="4">
+        <v>5032.82</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="L49" s="31" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M49" s="1">
-        <v>425</v>
+        <v>185</v>
       </c>
       <c r="N49" s="15"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B50" s="8">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="C50" s="8">
-        <v>500</v>
+        <v>248</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F50" s="8">
-        <v>350</v>
+        <v>247</v>
+      </c>
+      <c r="F50" s="15">
+        <v>140</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L50" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="M50" s="1">
-        <v>120</v>
+      <c r="L50" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="N50" s="15"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B51" s="8">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="C51" s="8">
-        <v>550</v>
+        <v>278</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="F51" s="8">
-        <v>375</v>
+        <v>254</v>
+      </c>
+      <c r="F51" s="15">
+        <v>160</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L51" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="M51" s="1">
-        <v>75</v>
-      </c>
       <c r="N51" s="15"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B52" s="8">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="C52" s="8">
-        <v>426</v>
+        <v>1200</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="F52" s="8">
-        <v>310</v>
+        <v>251</v>
+      </c>
+      <c r="F52" s="15">
+        <v>750</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L52" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="M52" s="1">
-        <v>150</v>
-      </c>
       <c r="N52" s="15"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="B53" s="8">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="C53" s="8">
-        <v>815</v>
+        <v>600</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="F53" s="15">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L53" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="M53" s="1">
-        <v>200</v>
-      </c>
       <c r="N53" s="15"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="B54" s="8">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="C54" s="8">
-        <v>706</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>249</v>
+        <v>700</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="F54" s="15">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L54" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="M54" s="1">
-        <v>185</v>
-      </c>
       <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B55" s="8">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="11"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="N55" s="15"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="19">
+        <v>20000</v>
+      </c>
+      <c r="C56" s="19">
+        <v>2200</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="N56" s="15"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="19">
         <v>10000</v>
       </c>
-      <c r="C55" s="8">
-        <v>248</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="F55" s="15">
-        <v>140</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="N55" s="15"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B56" s="8">
-        <v>13000</v>
-      </c>
-      <c r="C56" s="8">
-        <v>278</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="F56" s="15">
-        <v>160</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N56" s="15"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" s="8">
-        <v>50000</v>
-      </c>
-      <c r="C57" s="8">
-        <v>1200</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>258</v>
+      <c r="C57" s="19">
+        <v>1008</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="F57" s="15">
-        <v>750</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
       <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B58" s="8">
+      <c r="A58" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="19">
         <v>20000</v>
       </c>
-      <c r="C58" s="8">
-        <v>600</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>270</v>
+      <c r="C58" s="19">
+        <v>918</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F58" s="15">
-        <v>420</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>272</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G58" s="15"/>
       <c r="N58" s="15"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B59" s="8">
-        <v>20000</v>
-      </c>
-      <c r="C59" s="8">
-        <v>700</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>287</v>
+      <c r="A59" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="19">
+        <v>10000</v>
+      </c>
+      <c r="C59" s="19">
+        <v>530</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" s="15">
-        <v>510</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>272</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="15"/>
       <c r="N59" s="15"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="11"/>
-      <c r="F60" s="15"/>
+      <c r="A60" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="19">
+        <v>500</v>
+      </c>
+      <c r="C60" s="19">
+        <v>552</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>223</v>
+      </c>
       <c r="G60" s="15"/>
       <c r="N60" s="15"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="19">
-        <v>20000</v>
-      </c>
-      <c r="C61" s="19">
-        <v>2200</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>12</v>
+      <c r="A61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="D61" s="23" t="s">
+        <v>217</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F61" s="15"/>
+        <v>208</v>
+      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="15"/>
       <c r="N61" s="15"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="19">
-        <v>10000</v>
-      </c>
-      <c r="C62" s="19">
-        <v>1008</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>18</v>
+      <c r="A62" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F62" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="F62" s="20"/>
       <c r="G62" s="15"/>
       <c r="N62" s="15"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="19">
-        <v>20000</v>
-      </c>
-      <c r="C63" s="19">
-        <v>918</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>20</v>
+      <c r="A63" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="D63" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>226</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F63" s="19"/>
       <c r="G63" s="15"/>
       <c r="N63" s="15"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" s="19">
-        <v>10000</v>
-      </c>
-      <c r="C64" s="19">
-        <v>530</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>20</v>
+      <c r="A64" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="D64" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F64" s="27"/>
+        <v>148</v>
+      </c>
+      <c r="F64" s="19"/>
       <c r="G64" s="15"/>
       <c r="N64" s="15"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="19">
-        <v>500</v>
-      </c>
-      <c r="C65" s="19">
-        <v>552</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>226</v>
-      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="19"/>
       <c r="G65" s="15"/>
       <c r="N65" s="15"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="D66" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F66" s="2"/>
+      <c r="D66" s="22"/>
+      <c r="F66" s="19"/>
       <c r="G66" s="15"/>
       <c r="N66" s="15"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="15"/>
-      <c r="N67" s="15"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="D67" s="22"/>
+      <c r="F67" s="19"/>
+      <c r="L67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="D68" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>151</v>
-      </c>
+      <c r="D68" s="22"/>
       <c r="F68" s="19"/>
-      <c r="G68" s="15"/>
-      <c r="N68" s="15"/>
+      <c r="L68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N68" s="15" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="D69" s="11" t="s">
+      <c r="A69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" s="19">
+        <v>215</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N69" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F70" s="19">
+        <v>225</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M70" s="1">
+        <v>650</v>
+      </c>
+      <c r="N70" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F71" s="19">
         <v>203</v>
       </c>
-      <c r="E69" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F69" s="19"/>
-      <c r="G69" s="15"/>
-      <c r="N69" s="15"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="15"/>
-      <c r="N70" s="15"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="D71" s="22"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="15"/>
-      <c r="N71" s="15"/>
+      <c r="L71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M71" s="1">
+        <v>580</v>
+      </c>
+      <c r="N71" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="D72" s="22"/>
-      <c r="F72" s="19"/>
+      <c r="A72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F72" s="1">
+        <v>168</v>
+      </c>
       <c r="L72" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="M72" s="1">
+        <v>360</v>
       </c>
       <c r="N72" s="15" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="D73" s="22"/>
-      <c r="F73" s="19"/>
+      <c r="G73" s="15"/>
       <c r="L73" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F74" s="19">
-        <v>215</v>
+        <v>122</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="F74" s="1">
+        <v>135</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>99</v>
+        <v>232</v>
+      </c>
+      <c r="M74" s="1">
+        <v>330</v>
       </c>
       <c r="N74" s="15" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="A75" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
       <c r="D75" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F75" s="19">
-        <v>225</v>
+        <v>229</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M75" s="1">
-        <v>650</v>
+        <v>255</v>
       </c>
       <c r="N75" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F76" s="19">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M76" s="1">
-        <v>580</v>
+        <v>258</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="N76" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F77" s="1">
-        <v>168</v>
-      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="15"/>
       <c r="L77" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M77" s="1">
-        <v>360</v>
-      </c>
-      <c r="N77" s="15" t="s">
-        <v>93</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N77" s="16"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G78" s="15"/>
       <c r="L78" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M78" s="1">
+        <v>280</v>
+      </c>
+      <c r="N78" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F79" s="27">
         <v>110</v>
       </c>
-      <c r="N78" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="L79" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F79" s="1">
-        <v>135</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="M79" s="1">
-        <v>330</v>
       </c>
       <c r="N79" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="3" t="s">
-        <v>232</v>
+      <c r="A80" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="28" t="s">
+        <v>250</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>231</v>
+        <v>152</v>
+      </c>
+      <c r="F80" s="27">
+        <v>150</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M80" s="1">
-        <v>255</v>
+        <v>124</v>
       </c>
       <c r="N80" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>233</v>
+        <v>137</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F81" s="1">
+        <v>115</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>265</v>
+        <v>125</v>
       </c>
       <c r="N81" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D82" s="1"/>
-      <c r="E82" s="15"/>
+      <c r="A82" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F82" s="1">
+        <v>99</v>
+      </c>
       <c r="L82" s="1" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N82" s="16"/>
+        <v>143</v>
+      </c>
+      <c r="N82" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D83" s="1"/>
+      <c r="E83" s="15"/>
       <c r="L83" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M83" s="1">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="N83" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="F84" s="27">
-        <v>104</v>
+      <c r="A84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F84" s="1">
+        <v>145</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N84" s="15" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F85" s="27">
-        <v>150</v>
-      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="15"/>
       <c r="L85" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N85" s="15" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="F86" s="1">
+      <c r="D86" s="1"/>
+      <c r="E86" s="15"/>
+      <c r="L86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N86" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N86" s="15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="F87" s="1">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="N87" s="15" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D88" s="1"/>
-      <c r="E88" s="15"/>
-      <c r="H88" s="8"/>
-      <c r="L88" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N88" s="15" t="s">
-        <v>115</v>
-      </c>
+      <c r="N88" s="16"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F89" s="1">
-        <v>145</v>
+        <v>122</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="N89" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D90" s="1"/>
-      <c r="E90" s="15"/>
-      <c r="L90" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N90" s="15" t="s">
-        <v>115</v>
-      </c>
+      <c r="N90" s="16"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D91" s="1"/>
-      <c r="E91" s="15"/>
+      <c r="A91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F91" s="1">
+        <v>90</v>
+      </c>
       <c r="L91" s="1" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="N91" s="15" t="s">
         <v>115</v>
@@ -5274,170 +5467,174 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F92" s="1">
-        <v>80</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N92" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N92" s="16"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D93" s="1"/>
+      <c r="E93" s="15"/>
+      <c r="L93" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N93" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N93" s="16"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="E94" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L95" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M95" s="1">
+        <v>145</v>
+      </c>
+      <c r="N95" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="D96" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N94" s="15" t="s">
+      <c r="F96" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D97" s="1"/>
+      <c r="E97" s="15"/>
+      <c r="L97" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N97" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N95" s="16"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="F96" s="1">
-        <v>90</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N96" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N97" s="16"/>
-    </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D98" s="1"/>
-      <c r="E98" s="15"/>
-      <c r="L98" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N98" s="15" t="s">
-        <v>115</v>
-      </c>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="11"/>
+      <c r="F98" s="8"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E99" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="F99" s="1">
+        <v>175</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M99" s="1">
+        <v>215</v>
+      </c>
+      <c r="N99" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L100" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M100" s="1">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="N100" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B101" s="6"/>
-      <c r="D101" s="7" t="s">
-        <v>207</v>
+      <c r="A101" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="F101" s="1">
-        <v>185</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D102" s="1"/>
-      <c r="E102" s="15"/>
+      <c r="A102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F102" s="1">
+        <v>190</v>
+      </c>
       <c r="L102" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="M102" s="1">
+        <v>485</v>
       </c>
       <c r="N102" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="11"/>
-      <c r="F103" s="8"/>
+      <c r="L103" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M103" s="1">
+        <v>380</v>
+      </c>
+      <c r="N103" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F104" s="1">
-        <v>175</v>
-      </c>
       <c r="L104" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M104" s="1">
-        <v>215</v>
+        <v>585</v>
       </c>
       <c r="N104" s="15" t="s">
         <v>115</v>
@@ -5445,47 +5642,32 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L105" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M105" s="1">
-        <v>215</v>
+        <v>510</v>
       </c>
       <c r="N105" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="F106" s="1">
-        <v>260</v>
+      <c r="L106" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M106" s="1">
+        <v>445</v>
+      </c>
+      <c r="N106" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="F107" s="1">
-        <v>190</v>
-      </c>
       <c r="L107" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M107" s="1">
-        <v>485</v>
+        <v>660</v>
       </c>
       <c r="N107" s="15" t="s">
         <v>115</v>
@@ -5493,67 +5675,12 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L108" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M108" s="1">
-        <v>380</v>
+        <v>184</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="N108" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L109" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M109" s="1">
-        <v>585</v>
-      </c>
-      <c r="N109" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L110" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M110" s="1">
-        <v>510</v>
-      </c>
-      <c r="N110" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L111" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M111" s="1">
-        <v>445</v>
-      </c>
-      <c r="N111" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L112" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M112" s="1">
-        <v>660</v>
-      </c>
-      <c r="N112" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L113" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N113" s="15" t="s">
         <v>115</v>
       </c>
     </row>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="291">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -2617,6 +2617,24 @@
     </r>
     <rPh sb="2" eb="3">
       <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未返现</t>
+    <rPh sb="0" eb="1">
+      <t>wei'fan'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个月（9月13号到期）</t>
+    <rPh sb="1" eb="2">
+      <t>ge'yue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3227,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4281,8 +4299,8 @@
       <c r="I34" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>281</v>
+      <c r="J34" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>98</v>
@@ -4880,12 +4898,27 @@
       <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="11"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+      <c r="A55" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="19">
+        <v>40000</v>
+      </c>
+      <c r="C55" s="19">
+        <v>2110</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="F55" s="15">
+        <v>1260</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>288</v>
+      </c>
       <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="293">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -2571,32 +2571,26 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
         <rFont val="DengXian (正文)"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（6月15号到期）</t>
+      <t>（6月13号到期）</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>提现密码Moi1m2</t>
-    </r>
     <rPh sb="2" eb="3">
       <t>tian</t>
     </rPh>
-    <rPh sb="12" eb="13">
-      <t>ti'x</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>mi'm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个月（9月13号到期）</t>
+    <rPh sb="1" eb="2">
+      <t>ge'yue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2613,28 +2607,51 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（6月13号到期）</t>
+      <t>（6月15号到期）</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提现密码Moi1m2</t>
+    </r>
     <rPh sb="2" eb="3">
       <t>tian</t>
     </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti'x</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>mi'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾云</t>
+    <rPh sb="0" eb="1">
+      <t>teng'y</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未返现</t>
     <rPh sb="0" eb="1">
-      <t>wei'fan'x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个月（9月13号到期）</t>
+      <t>wei</t>
+    </rPh>
     <rPh sb="1" eb="2">
-      <t>ge'yue</t>
+      <t>fan'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个月（7月15日到期）</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ge'y</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3243,10 +3260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4167,26 +4184,35 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="4">
         <v>10000</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="4">
         <v>400</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="E31" s="23" t="s">
+      <c r="D31" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="4">
         <v>285</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="H31" s="4">
+        <v>10125</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>281</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>90</v>
@@ -4282,7 +4308,7 @@
         <v>410</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>119</v>
@@ -4763,7 +4789,7 @@
       <c r="I49" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="15" t="s">
         <v>281</v>
       </c>
       <c r="L49" s="31" t="s">
@@ -4898,120 +4924,114 @@
       <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="19">
-        <v>40000</v>
-      </c>
-      <c r="C55" s="19">
-        <v>2110</v>
-      </c>
-      <c r="D55" s="26" t="s">
+      <c r="A55" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C55" s="8">
+        <v>500</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E55" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="E55" s="23" t="s">
-        <v>289</v>
-      </c>
       <c r="F55" s="15">
-        <v>1260</v>
+        <v>330</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="19">
-        <v>20000</v>
-      </c>
-      <c r="C56" s="19">
-        <v>2200</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>223</v>
-      </c>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="11"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="B57" s="19">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="C57" s="19">
-        <v>1008</v>
+        <v>2110</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
+        <v>287</v>
+      </c>
+      <c r="F57" s="15">
+        <v>1260</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B58" s="19">
         <v>20000</v>
       </c>
       <c r="C58" s="19">
-        <v>918</v>
+        <v>2200</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>223</v>
       </c>
+      <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="N58" s="15"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B59" s="19">
         <v>10000</v>
       </c>
       <c r="C59" s="19">
-        <v>530</v>
+        <v>1008</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F59" s="27"/>
+      <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="N59" s="15"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B60" s="19">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="C60" s="19">
-        <v>552</v>
+        <v>918</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>223</v>
@@ -5020,198 +5040,205 @@
       <c r="N60" s="15"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="D61" s="23" t="s">
-        <v>217</v>
+      <c r="A61" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="19">
+        <v>10000</v>
+      </c>
+      <c r="C61" s="19">
+        <v>530</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="F61" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="F61" s="27"/>
       <c r="G61" s="15"/>
       <c r="N61" s="15"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="23" t="s">
-        <v>214</v>
+      <c r="A62" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="19">
+        <v>500</v>
+      </c>
+      <c r="C62" s="19">
+        <v>552</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" s="20"/>
+        <v>223</v>
+      </c>
       <c r="G62" s="15"/>
       <c r="N62" s="15"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2"/>
       <c r="D63" s="23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F63" s="19"/>
+        <v>208</v>
+      </c>
+      <c r="F63" s="2"/>
       <c r="G63" s="15"/>
       <c r="N63" s="15"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B64" s="8"/>
-      <c r="D64" s="11" t="s">
-        <v>200</v>
+      <c r="C64" s="8"/>
+      <c r="D64" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F64" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="F64" s="20"/>
       <c r="G64" s="15"/>
       <c r="N64" s="15"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="A65" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="D65" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>148</v>
+      </c>
       <c r="F65" s="19"/>
       <c r="G65" s="15"/>
       <c r="N65" s="15"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="D66" s="22"/>
+      <c r="A66" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="D66" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>148</v>
+      </c>
       <c r="F66" s="19"/>
       <c r="G66" s="15"/>
       <c r="N66" s="15"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="D67" s="22"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="19"/>
-      <c r="L67" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N67" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="G67" s="15"/>
+      <c r="N67" s="15"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="D68" s="22"/>
       <c r="F68" s="19"/>
-      <c r="L68" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N68" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="G68" s="15"/>
+      <c r="N68" s="15"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F69" s="19">
-        <v>215</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="D69" s="22"/>
+      <c r="F69" s="19"/>
       <c r="L69" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N69" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F70" s="19">
-        <v>225</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="D70" s="22"/>
+      <c r="F70" s="19"/>
       <c r="L70" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M70" s="1">
-        <v>650</v>
+        <v>103</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N70" s="15" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F71" s="19">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M71" s="1">
-        <v>580</v>
+        <v>105</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="N71" s="15" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>120</v>
+      <c r="A72" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="1">
-        <v>168</v>
+        <v>193</v>
+      </c>
+      <c r="F72" s="19">
+        <v>225</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M72" s="1">
-        <v>360</v>
+        <v>650</v>
       </c>
       <c r="N72" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G73" s="15"/>
+      <c r="A73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="19">
+        <v>203</v>
+      </c>
       <c r="L73" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="M73" s="1">
+        <v>580</v>
       </c>
       <c r="N73" s="15" t="s">
         <v>93</v>
@@ -5219,257 +5246,266 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="F74" s="1">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="M74" s="1">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N74" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="G75" s="15"/>
       <c r="L75" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M75" s="1">
-        <v>255</v>
+        <v>109</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="N75" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="F76" s="1">
+        <v>135</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M76" s="1">
+        <v>330</v>
+      </c>
+      <c r="N76" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M77" s="1">
+        <v>255</v>
+      </c>
+      <c r="N77" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="N76" s="15" t="s">
+      <c r="N78" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D77" s="1"/>
-      <c r="E77" s="15"/>
-      <c r="L77" s="1" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D79" s="1"/>
+      <c r="E79" s="15"/>
+      <c r="L79" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="N77" s="16"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L78" s="1" t="s">
+      <c r="N79" s="16"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L80" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M80" s="1">
         <v>280</v>
       </c>
-      <c r="N78" s="15" t="s">
+      <c r="N80" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="29" t="s">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="F79" s="27">
-        <v>110</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N79" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F80" s="27">
-        <v>150</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N80" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="28" t="s">
         <v>131</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="F81" s="1">
-        <v>115</v>
+      <c r="F81" s="27">
+        <v>110</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N81" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F82" s="1">
-        <v>99</v>
+      <c r="A82" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" s="27">
+        <v>150</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="N82" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D83" s="1"/>
-      <c r="E83" s="15"/>
+      <c r="A83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F83" s="1">
+        <v>115</v>
+      </c>
       <c r="L83" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N83" s="15" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F84" s="1">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="N84" s="15" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
       <c r="E85" s="15"/>
       <c r="L85" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N85" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D86" s="1"/>
-      <c r="E86" s="15"/>
+      <c r="A86" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" s="1">
+        <v>145</v>
+      </c>
       <c r="L86" s="1" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="N86" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E87" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F87" s="1">
-        <v>80</v>
-      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="15"/>
       <c r="L87" s="1" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="N87" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N88" s="16"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="15"/>
+      <c r="L88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N88" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="F89" s="1">
+        <v>80</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N89" s="15" t="s">
         <v>115</v>
@@ -5480,44 +5516,42 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="F91" s="1">
-        <v>90</v>
+        <v>158</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N91" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="N92" s="16"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="N92" s="16"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D93" s="1"/>
-      <c r="E93" s="15"/>
+      <c r="E93" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F93" s="1">
+        <v>90</v>
+      </c>
       <c r="L93" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="N93" s="15" t="s">
         <v>115</v>
@@ -5525,149 +5559,152 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N94" s="16"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D95" s="1"/>
+      <c r="E95" s="15"/>
       <c r="L95" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M95" s="1">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="N95" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B96" s="6"/>
-      <c r="D96" s="7" t="s">
-        <v>204</v>
+      <c r="A96" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F96" s="1">
-        <v>185</v>
+        <v>158</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D97" s="1"/>
-      <c r="E97" s="15"/>
       <c r="L97" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="M97" s="1">
+        <v>145</v>
       </c>
       <c r="N97" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="11"/>
-      <c r="F98" s="8"/>
+      <c r="A98" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="D98" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F98" s="1">
+        <v>185</v>
+      </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F99" s="1">
-        <v>175</v>
-      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="15"/>
       <c r="L99" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M99" s="1">
-        <v>215</v>
+        <v>172</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="N99" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L100" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M100" s="1">
-        <v>215</v>
-      </c>
-      <c r="N100" s="15" t="s">
-        <v>115</v>
-      </c>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="11"/>
+      <c r="F100" s="8"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>244</v>
+        <v>171</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="F101" s="1">
-        <v>260</v>
+        <v>175</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M101" s="1">
+        <v>215</v>
+      </c>
+      <c r="N101" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E102" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="F102" s="1">
-        <v>190</v>
-      </c>
       <c r="L102" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M102" s="1">
-        <v>485</v>
+        <v>215</v>
       </c>
       <c r="N102" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L103" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M103" s="1">
-        <v>380</v>
-      </c>
-      <c r="N103" s="15" t="s">
-        <v>115</v>
+      <c r="A103" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F103" s="1">
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F104" s="1">
+        <v>190</v>
+      </c>
       <c r="L104" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M104" s="1">
-        <v>585</v>
+        <v>485</v>
       </c>
       <c r="N104" s="15" t="s">
         <v>115</v>
@@ -5675,10 +5712,10 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L105" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M105" s="1">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="N105" s="15" t="s">
         <v>115</v>
@@ -5686,10 +5723,10 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L106" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M106" s="1">
-        <v>445</v>
+        <v>585</v>
       </c>
       <c r="N106" s="15" t="s">
         <v>115</v>
@@ -5697,10 +5734,10 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L107" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M107" s="1">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="N107" s="15" t="s">
         <v>115</v>
@@ -5708,12 +5745,34 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L108" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M108" s="1">
+        <v>445</v>
+      </c>
+      <c r="N108" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M109" s="1">
+        <v>660</v>
+      </c>
+      <c r="N109" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L110" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M108" s="1" t="s">
+      <c r="M110" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="N108" s="15" t="s">
+      <c r="N110" s="15" t="s">
         <v>115</v>
       </c>
     </row>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="292">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -1657,19 +1657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30天（6月17日）</t>
-    <rPh sb="2" eb="3">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提前三天赎回，否则顺延</t>
     <rPh sb="0" eb="1">
       <t>ti'qian</t>
@@ -1841,9 +1828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30天（6月18号到期）</t>
-  </si>
-  <si>
     <t>合计</t>
     <rPh sb="0" eb="1">
       <t>he'ji</t>
@@ -1851,16 +1835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30天（6月18号到期）【1w新手，3w定期】</t>
-    <rPh sb="15" eb="16">
-      <t>xin'shou</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ding'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p2p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1883,10 +1857,6 @@
   </si>
   <si>
     <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天（6月19号到期）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1979,10 +1949,6 @@
     <rPh sb="2" eb="3">
       <t>tian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2025,80 +1991,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>http://www.qb178.com/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（6月18日到期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）支付密码wuyanjiang01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>要手动退出】</t>
-    </r>
-    <rPh sb="23" eb="24">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ri</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>dao'qi</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>zhi'fu</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>mi'ma</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>yao</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>shou'd</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>tui'chu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2378,16 +2270,6 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>dao'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未回款</t>
-    <rPh sb="0" eb="1">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>hui'k</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2652,6 +2534,139 @@
     <t>一个月（7月15日到期）</t>
     <rPh sb="0" eb="1">
       <t>yi'ge'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月21号到期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月20号到期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月18日）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://www.qb178.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（6月17日到期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）支付密码wuyanjiang01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要手动退出】</t>
+    </r>
+    <rPh sb="23" eb="24">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>dao'qi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>shou'd</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>tui'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未回款</t>
+    <rPh sb="0" eb="1">
+      <t>wei'hui'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30天（6月18号到期）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【1w新手，3w定期】</t>
+    </r>
+    <rPh sb="15" eb="16">
+      <t>xin'shou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ding'qi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2869,7 +2884,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2966,6 +2981,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -3262,8 +3283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3338,7 +3359,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>69</v>
@@ -3370,7 +3391,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>69</v>
@@ -3402,7 +3423,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>69</v>
@@ -3434,7 +3455,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>69</v>
@@ -3466,7 +3487,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>69</v>
@@ -3498,7 +3519,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>69</v>
@@ -3507,7 +3528,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3524,7 +3545,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>69</v>
@@ -3547,7 +3568,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>69</v>
@@ -3556,7 +3577,7 @@
         <v>72</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L9" s="15">
         <v>35205</v>
@@ -3576,7 +3597,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>69</v>
@@ -3599,7 +3620,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>69</v>
@@ -3622,7 +3643,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>69</v>
@@ -3645,7 +3666,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>69</v>
@@ -3824,7 +3845,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>69</v>
@@ -3939,7 +3960,7 @@
         <v>57</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
@@ -3952,7 +3973,7 @@
         <v>69</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>85</v>
@@ -3993,7 +4014,7 @@
         <v>69</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N25" s="24"/>
     </row>
@@ -4026,7 +4047,7 @@
         <v>69</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N26" s="24"/>
     </row>
@@ -4041,7 +4062,7 @@
         <v>278</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>50</v>
@@ -4059,7 +4080,7 @@
         <v>69</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
@@ -4076,7 +4097,7 @@
         <v>435</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>78</v>
@@ -4094,7 +4115,7 @@
         <v>69</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M28" s="4">
         <v>215</v>
@@ -4112,7 +4133,7 @@
         <v>526</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>80</v>
@@ -4130,7 +4151,7 @@
         <v>69</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>86</v>
@@ -4153,7 +4174,7 @@
         <v>236</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>82</v>
@@ -4171,7 +4192,7 @@
         <v>69</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>88</v>
@@ -4194,7 +4215,7 @@
         <v>400</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>82</v>
@@ -4211,8 +4232,8 @@
       <c r="I31" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="15" t="s">
-        <v>281</v>
+      <c r="J31" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>90</v>
@@ -4234,7 +4255,7 @@
       <c r="C32" s="8">
         <v>630</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E32" s="23" t="s">
@@ -4267,7 +4288,7 @@
         <v>423</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>119</v>
@@ -4285,7 +4306,7 @@
         <v>69</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>95</v>
@@ -4308,7 +4329,7 @@
         <v>410</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>119</v>
@@ -4326,7 +4347,7 @@
         <v>69</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>98</v>
@@ -4339,26 +4360,35 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="4">
         <v>30000</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="4">
         <v>835</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" s="23" t="s">
+      <c r="D35" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="F35" s="8">
+      <c r="E35" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="4">
         <v>555</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="H35" s="4">
+        <v>30279</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>100</v>
@@ -4381,7 +4411,7 @@
         <v>683</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>196</v>
@@ -4390,10 +4420,10 @@
         <v>600</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M36" s="1">
         <v>125</v>
@@ -4401,32 +4431,38 @@
       <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="4">
         <v>10000</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="4">
         <v>519</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E37" s="23" t="s">
+      <c r="D37" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="4">
         <v>400</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>240</v>
+      <c r="H37" s="4">
+        <v>10119</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="L37" s="31" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M37" s="1">
         <v>60</v>
@@ -4434,29 +4470,38 @@
       <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="4">
         <v>20000</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="4">
         <v>474</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E38" s="23" t="s">
+      <c r="D38" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="4">
         <v>374</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="H38" s="4">
+        <v>20096.63</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>290</v>
+      </c>
       <c r="L38" s="31" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M38" s="1">
         <v>130</v>
@@ -4474,10 +4519,10 @@
         <v>357</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F39" s="4">
         <v>250</v>
@@ -4492,37 +4537,46 @@
         <v>69</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N39" s="13"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="4">
         <v>40000</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="4">
         <v>1226</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" s="23" t="s">
+      <c r="D40" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="13">
         <v>820</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="H40" s="4">
+        <v>40426</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>290</v>
+      </c>
       <c r="L40" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M40" s="1">
         <v>100</v>
@@ -4540,10 +4594,10 @@
         <v>480</v>
       </c>
       <c r="D41" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>219</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>222</v>
       </c>
       <c r="F41" s="20">
         <v>160</v>
@@ -4552,7 +4606,7 @@
         <v>62</v>
       </c>
       <c r="L41" s="31" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M41" s="1">
         <v>60</v>
@@ -4570,10 +4624,10 @@
         <v>691</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F42" s="20">
         <v>540.6</v>
@@ -4582,7 +4636,7 @@
         <v>62</v>
       </c>
       <c r="L42" s="31" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M42" s="1">
         <v>140</v>
@@ -4603,12 +4657,12 @@
         <v>56</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="4"/>
       <c r="L43" s="31" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M43" s="1">
         <v>245</v>
@@ -4629,12 +4683,12 @@
         <v>21</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="4"/>
       <c r="L44" s="31" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M44" s="1">
         <v>425</v>
@@ -4652,7 +4706,7 @@
         <v>500</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>148</v>
@@ -4673,7 +4727,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B46" s="8">
         <v>10000</v>
@@ -4682,10 +4736,10 @@
         <v>550</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F46" s="8">
         <v>375</v>
@@ -4694,7 +4748,7 @@
         <v>62</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M46" s="1">
         <v>75</v>
@@ -4712,10 +4766,10 @@
         <v>426</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F47" s="8">
         <v>310</v>
@@ -4742,7 +4796,7 @@
         <v>815</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>161</v>
@@ -4754,7 +4808,7 @@
         <v>62</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M48" s="1">
         <v>200</v>
@@ -4763,7 +4817,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B49" s="8">
         <v>35000</v>
@@ -4772,10 +4826,10 @@
         <v>706</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F49" s="15">
         <v>500</v>
@@ -4789,11 +4843,9 @@
       <c r="I49" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J49" s="15" t="s">
-        <v>281</v>
-      </c>
+      <c r="J49" s="15"/>
       <c r="L49" s="31" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M49" s="1">
         <v>185</v>
@@ -4811,10 +4863,10 @@
         <v>248</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F50" s="15">
         <v>140</v>
@@ -4823,13 +4875,13 @@
         <v>62</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N50" s="15"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B51" s="8">
         <v>13000</v>
@@ -4838,10 +4890,10 @@
         <v>278</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F51" s="15">
         <v>160</v>
@@ -4862,10 +4914,10 @@
         <v>1200</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F52" s="15">
         <v>750</v>
@@ -4877,7 +4929,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B53" s="8">
         <v>20000</v>
@@ -4886,10 +4938,10 @@
         <v>600</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F53" s="15">
         <v>420</v>
@@ -4901,7 +4953,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B54" s="8">
         <v>20000</v>
@@ -4910,7 +4962,7 @@
         <v>700</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>51</v>
@@ -4934,16 +4986,16 @@
         <v>500</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F55" s="15">
         <v>330</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="N55" s="15"/>
     </row>
@@ -4967,10 +5019,10 @@
         <v>2110</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F57" s="15">
         <v>1260</v>
@@ -4994,7 +5046,7 @@
         <v>12</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -5014,7 +5066,7 @@
         <v>18</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -5034,7 +5086,7 @@
         <v>20</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G60" s="15"/>
       <c r="N60" s="15"/>
@@ -5053,7 +5105,7 @@
         <v>20</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="15"/>
@@ -5073,7 +5125,7 @@
         <v>47</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G62" s="15"/>
       <c r="N62" s="15"/>
@@ -5084,10 +5136,10 @@
       </c>
       <c r="B63" s="2"/>
       <c r="D63" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="15"/>
@@ -5100,7 +5152,7 @@
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>51</v>
@@ -5111,11 +5163,11 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B65" s="2"/>
       <c r="D65" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>148</v>
@@ -5284,13 +5336,13 @@
         <v>122</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F76" s="1">
         <v>135</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M76" s="1">
         <v>330</v>
@@ -5301,18 +5353,18 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>112</v>
@@ -5326,13 +5378,13 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N78" s="15" t="s">
         <v>92</v>
@@ -5342,10 +5394,10 @@
       <c r="D79" s="1"/>
       <c r="E79" s="15"/>
       <c r="L79" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="N79" s="16"/>
     </row>
@@ -5370,7 +5422,7 @@
         <v>131</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F81" s="27">
         <v>110</v>
@@ -5389,7 +5441,7 @@
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
       <c r="D82" s="28" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>152</v>
@@ -5412,7 +5464,7 @@
         <v>131</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F83" s="1">
         <v>115</v>
@@ -5545,7 +5597,7 @@
         <v>131</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F93" s="1">
         <v>90</v>
@@ -5565,10 +5617,10 @@
         <v>131</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N94" s="16"/>
     </row>
@@ -5613,7 +5665,7 @@
       </c>
       <c r="B98" s="6"/>
       <c r="D98" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>161</v>
@@ -5678,10 +5730,10 @@
         <v>199</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F103" s="1">
         <v>260</v>
@@ -5689,13 +5741,13 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E104" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="F104" s="1">
         <v>190</v>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="294">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -2539,10 +2539,6 @@
   </si>
   <si>
     <t>30天（6月21号到期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天（6月20号到期）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2633,13 +2629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未回款</t>
-    <rPh sb="0" eb="1">
-      <t>wei'hui'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2668,6 +2657,28 @@
     <rPh sb="20" eb="21">
       <t>ding'qi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱爸爸</t>
+    <rPh sb="0" eb="1">
+      <t>qian'ba'ba</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（7月20号到期）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月20号到期）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3283,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4411,7 +4422,7 @@
         <v>683</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>196</v>
@@ -4441,7 +4452,7 @@
         <v>519</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>202</v>
@@ -4497,8 +4508,8 @@
       <c r="I38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J38" s="15" t="s">
-        <v>290</v>
+      <c r="J38" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="L38" s="31" t="s">
         <v>262</v>
@@ -4555,7 +4566,7 @@
         <v>1226</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>148</v>
@@ -4567,13 +4578,13 @@
         <v>62</v>
       </c>
       <c r="H40" s="4">
-        <v>40426</v>
+        <v>40430.660000000003</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J40" s="15" t="s">
-        <v>290</v>
+      <c r="J40" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="L40" s="31" t="s">
         <v>264</v>
@@ -4624,7 +4635,7 @@
         <v>691</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>222</v>
@@ -5000,12 +5011,27 @@
       <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="11"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
+      <c r="A56" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C56" s="8">
+        <v>460</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="F56" s="15">
+        <v>310</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>284</v>
+      </c>
       <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="298">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -2679,6 +2679,34 @@
   </si>
   <si>
     <t>30天（6月20号到期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wei回款</t>
+    <rPh sb="3" eb="4">
+      <t>hui'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积木盒子</t>
+    <rPh sb="0" eb="1">
+      <t>ji'mu'he'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雁金服</t>
+    <rPh sb="0" eb="1">
+      <t>da'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3292,10 +3320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4625,27 +4653,36 @@
       <c r="N41" s="15"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="4">
         <v>10200</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="4">
         <v>691</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="13">
         <v>540.6</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="H42" s="4">
+        <v>10351.299999999999</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>294</v>
+      </c>
       <c r="L42" s="31" t="s">
         <v>266</v>
       </c>
@@ -4655,23 +4692,32 @@
       <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="4">
         <v>40000</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="4">
         <v>2577</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="14" t="s">
         <v>221</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="4"/>
+      <c r="H43" s="4">
+        <v>41540</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>294</v>
+      </c>
       <c r="L43" s="31" t="s">
         <v>267</v>
       </c>
@@ -5035,120 +5081,116 @@
       <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="19">
-        <v>40000</v>
-      </c>
-      <c r="C57" s="19">
-        <v>2110</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>281</v>
+      <c r="A57" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C57" s="8">
+        <v>355</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="F57" s="15">
-        <v>1260</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>62</v>
+        <v>255</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>284</v>
       </c>
       <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="19">
-        <v>20000</v>
-      </c>
-      <c r="C58" s="19">
-        <v>2200</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>220</v>
-      </c>
+      <c r="A58" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="11"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="N58" s="15"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="B59" s="19">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="C59" s="19">
-        <v>1008</v>
+        <v>2110</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
+        <v>280</v>
+      </c>
+      <c r="F59" s="15">
+        <v>1260</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="N59" s="15"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B60" s="19">
         <v>20000</v>
       </c>
       <c r="C60" s="19">
-        <v>918</v>
+        <v>2200</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>220</v>
       </c>
+      <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="N60" s="15"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B61" s="19">
         <v>10000</v>
       </c>
       <c r="C61" s="19">
-        <v>530</v>
+        <v>1008</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="F61" s="27"/>
+      <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="N61" s="15"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B62" s="19">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="C62" s="19">
-        <v>552</v>
+        <v>918</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>220</v>
@@ -5157,198 +5199,205 @@
       <c r="N62" s="15"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="D63" s="23" t="s">
-        <v>216</v>
+      <c r="A63" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="19">
+        <v>10000</v>
+      </c>
+      <c r="C63" s="19">
+        <v>530</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F63" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="F63" s="27"/>
       <c r="G63" s="15"/>
       <c r="N63" s="15"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="23" t="s">
-        <v>213</v>
+      <c r="A64" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="19">
+        <v>500</v>
+      </c>
+      <c r="C64" s="19">
+        <v>552</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="20"/>
+        <v>220</v>
+      </c>
       <c r="G64" s="15"/>
       <c r="N64" s="15"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2"/>
       <c r="D65" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F65" s="19"/>
+        <v>207</v>
+      </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="15"/>
       <c r="N65" s="15"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B66" s="8"/>
-      <c r="D66" s="11" t="s">
-        <v>200</v>
+      <c r="C66" s="8"/>
+      <c r="D66" s="23" t="s">
+        <v>213</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F66" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="F66" s="20"/>
       <c r="G66" s="15"/>
       <c r="N66" s="15"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="A67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="D67" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>148</v>
+      </c>
       <c r="F67" s="19"/>
       <c r="G67" s="15"/>
       <c r="N67" s="15"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="D68" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>148</v>
+      </c>
       <c r="F68" s="19"/>
       <c r="G68" s="15"/>
       <c r="N68" s="15"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="D69" s="22"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
       <c r="F69" s="19"/>
-      <c r="L69" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N69" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="G69" s="15"/>
+      <c r="N69" s="15"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="D70" s="22"/>
       <c r="F70" s="19"/>
-      <c r="L70" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N70" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="G70" s="15"/>
+      <c r="N70" s="15"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F71" s="19">
-        <v>215</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="D71" s="22"/>
+      <c r="F71" s="19"/>
       <c r="L71" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N71" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="19">
-        <v>225</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="D72" s="22"/>
+      <c r="F72" s="19"/>
       <c r="L72" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M72" s="1">
-        <v>650</v>
+        <v>103</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N72" s="15" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F73" s="19">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M73" s="1">
-        <v>580</v>
+        <v>105</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>120</v>
+      <c r="A74" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F74" s="1">
-        <v>168</v>
+        <v>193</v>
+      </c>
+      <c r="F74" s="19">
+        <v>225</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M74" s="1">
-        <v>360</v>
+        <v>650</v>
       </c>
       <c r="N74" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G75" s="15"/>
+      <c r="A75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" s="19">
+        <v>203</v>
+      </c>
       <c r="L75" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="M75" s="1">
+        <v>580</v>
       </c>
       <c r="N75" s="15" t="s">
         <v>93</v>
@@ -5356,257 +5405,266 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="F76" s="1">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="M76" s="1">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N76" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>224</v>
-      </c>
+      <c r="G77" s="15"/>
       <c r="L77" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M77" s="1">
-        <v>255</v>
+        <v>109</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="N77" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F78" s="1">
+        <v>135</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M78" s="1">
+        <v>330</v>
+      </c>
+      <c r="N78" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M79" s="1">
+        <v>255</v>
+      </c>
+      <c r="N79" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="N78" s="15" t="s">
+      <c r="N80" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D79" s="1"/>
-      <c r="E79" s="15"/>
-      <c r="L79" s="1" t="s">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D81" s="1"/>
+      <c r="E81" s="15"/>
+      <c r="L81" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="N79" s="16"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L80" s="1" t="s">
+      <c r="N81" s="16"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L82" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M82" s="1">
         <v>280</v>
       </c>
-      <c r="N80" s="15" t="s">
+      <c r="N82" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="29" t="s">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="F81" s="27">
-        <v>110</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N81" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F82" s="27">
-        <v>150</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N82" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="28" t="s">
         <v>131</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="F83" s="1">
-        <v>115</v>
+      <c r="F83" s="27">
+        <v>110</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N83" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F84" s="1">
-        <v>99</v>
+      <c r="A84" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F84" s="27">
+        <v>150</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="N84" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D85" s="1"/>
-      <c r="E85" s="15"/>
+      <c r="A85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="F85" s="1">
+        <v>115</v>
+      </c>
       <c r="L85" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N85" s="15" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F86" s="1">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="N86" s="15" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
       <c r="E87" s="15"/>
       <c r="L87" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N87" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D88" s="1"/>
-      <c r="E88" s="15"/>
+      <c r="A88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F88" s="1">
+        <v>145</v>
+      </c>
       <c r="L88" s="1" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="N88" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F89" s="1">
-        <v>80</v>
-      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="15"/>
       <c r="L89" s="1" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="N89" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N90" s="16"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="15"/>
+      <c r="L90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N90" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="F91" s="1">
+        <v>80</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N91" s="15" t="s">
         <v>115</v>
@@ -5617,44 +5675,42 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="F93" s="1">
-        <v>90</v>
+        <v>158</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N93" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="N94" s="16"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E94" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N94" s="16"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D95" s="1"/>
-      <c r="E95" s="15"/>
+      <c r="E95" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F95" s="1">
+        <v>90</v>
+      </c>
       <c r="L95" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="N95" s="15" t="s">
         <v>115</v>
@@ -5662,149 +5718,152 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N96" s="16"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D97" s="1"/>
+      <c r="E97" s="15"/>
       <c r="L97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M97" s="1">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="N97" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98" s="6"/>
-      <c r="D98" s="7" t="s">
-        <v>203</v>
+      <c r="A98" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F98" s="1">
-        <v>185</v>
+        <v>158</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D99" s="1"/>
-      <c r="E99" s="15"/>
       <c r="L99" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="M99" s="1">
+        <v>145</v>
       </c>
       <c r="N99" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="11"/>
-      <c r="F100" s="8"/>
+      <c r="A100" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="D100" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F100" s="1">
+        <v>185</v>
+      </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F101" s="1">
-        <v>175</v>
-      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="15"/>
       <c r="L101" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M101" s="1">
-        <v>215</v>
+        <v>172</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="N101" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L102" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M102" s="1">
-        <v>215</v>
-      </c>
-      <c r="N102" s="15" t="s">
-        <v>115</v>
-      </c>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="11"/>
+      <c r="F102" s="8"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E103" s="23" t="s">
-        <v>238</v>
+        <v>171</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="F103" s="1">
-        <v>260</v>
+        <v>175</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M103" s="1">
+        <v>215</v>
+      </c>
+      <c r="N103" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F104" s="1">
-        <v>190</v>
-      </c>
       <c r="L104" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M104" s="1">
-        <v>485</v>
+        <v>215</v>
       </c>
       <c r="N104" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L105" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M105" s="1">
-        <v>380</v>
-      </c>
-      <c r="N105" s="15" t="s">
-        <v>115</v>
+      <c r="A105" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F105" s="1">
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" s="1">
+        <v>190</v>
+      </c>
       <c r="L106" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M106" s="1">
-        <v>585</v>
+        <v>485</v>
       </c>
       <c r="N106" s="15" t="s">
         <v>115</v>
@@ -5812,10 +5871,10 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L107" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M107" s="1">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="N107" s="15" t="s">
         <v>115</v>
@@ -5823,10 +5882,10 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L108" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M108" s="1">
-        <v>445</v>
+        <v>585</v>
       </c>
       <c r="N108" s="15" t="s">
         <v>115</v>
@@ -5834,10 +5893,10 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L109" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M109" s="1">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="N109" s="15" t="s">
         <v>115</v>
@@ -5845,12 +5904,34 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L110" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M110" s="1">
+        <v>445</v>
+      </c>
+      <c r="N110" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L111" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M111" s="1">
+        <v>660</v>
+      </c>
+      <c r="N111" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L112" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M110" s="1" t="s">
+      <c r="M112" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="N110" s="15" t="s">
+      <c r="N112" s="15" t="s">
         <v>115</v>
       </c>
     </row>

--- a/理财.xlsx
+++ b/理财.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="301">
   <si>
     <t>宜人贷</t>
     <rPh sb="0" eb="1">
@@ -1916,32 +1916,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30天（6月23号到期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>30天（6月22号）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【要手动退出】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p2p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天（6月24号到期）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2353,80 +2328,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15天</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（6月12日到期）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30天（6月28日）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以复投</t>
-    </r>
-    <rPh sb="2" eb="3">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ri</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dao'qi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>t</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ri</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>fu'tou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>30天</t>
     </r>
     <r>
@@ -2517,16 +2418,6 @@
     <t>腾云</t>
     <rPh sb="0" eb="1">
       <t>teng'y</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未返现</t>
-    <rPh sb="0" eb="1">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fan'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2682,13 +2573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wei回款</t>
-    <rPh sb="3" eb="4">
-      <t>hui'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>积木盒子</t>
     <rPh sb="0" eb="1">
       <t>ji'mu'he'z</t>
@@ -2707,6 +2591,134 @@
   </si>
   <si>
     <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱钱进</t>
+    <rPh sb="0" eb="1">
+      <t>ai'qian'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐助贷</t>
+    <rPh sb="0" eb="1">
+      <t>le'zhu'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（7月22号到期）</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30天（6月23号）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【要手动退出】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月24号到期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天（6月25号到期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（6月12日到期）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（6月28日）可以复投</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao'qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>t</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>fu'tou</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2923,7 +2935,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3020,9 +3032,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3320,10 +3329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3567,7 +3576,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4101,7 +4110,7 @@
         <v>278</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>50</v>
@@ -4136,7 +4145,7 @@
         <v>435</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>78</v>
@@ -4172,7 +4181,7 @@
         <v>526</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>80</v>
@@ -4213,7 +4222,7 @@
         <v>236</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>82</v>
@@ -4254,7 +4263,7 @@
         <v>400</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>82</v>
@@ -4285,26 +4294,35 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="4">
         <v>10000</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="4">
         <v>630</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="4">
         <v>590</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="H32" s="4">
+        <v>10085.629999999999</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>94</v>
@@ -4327,7 +4345,7 @@
         <v>423</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>119</v>
@@ -4368,7 +4386,7 @@
         <v>410</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>119</v>
@@ -4408,7 +4426,7 @@
       <c r="C35" s="4">
         <v>835</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="33" t="s">
         <v>208</v>
       </c>
       <c r="E35" s="14" t="s">
@@ -4450,7 +4468,7 @@
         <v>683</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>196</v>
@@ -4462,7 +4480,7 @@
         <v>217</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M36" s="1">
         <v>125</v>
@@ -4479,8 +4497,8 @@
       <c r="C37" s="4">
         <v>519</v>
       </c>
-      <c r="D37" s="34" t="s">
-        <v>287</v>
+      <c r="D37" s="33" t="s">
+        <v>282</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>202</v>
@@ -4501,7 +4519,7 @@
         <v>214</v>
       </c>
       <c r="L37" s="31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M37" s="1">
         <v>60</v>
@@ -4518,7 +4536,7 @@
       <c r="C38" s="4">
         <v>474</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="33" t="s">
         <v>208</v>
       </c>
       <c r="E38" s="14" t="s">
@@ -4540,7 +4558,7 @@
         <v>214</v>
       </c>
       <c r="L38" s="31" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M38" s="1">
         <v>130</v>
@@ -4558,7 +4576,7 @@
         <v>357</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>205</v>
@@ -4579,7 +4597,7 @@
         <v>214</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N39" s="13"/>
     </row>
@@ -4594,7 +4612,7 @@
         <v>1226</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>148</v>
@@ -4615,7 +4633,7 @@
         <v>214</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M40" s="1">
         <v>100</v>
@@ -4623,29 +4641,38 @@
       <c r="N40" s="15"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="4">
         <v>30000</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="4">
         <v>480</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="E41" s="23" t="s">
+      <c r="D41" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="13">
         <v>160</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="H41" s="4">
+        <v>30458.22</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>214</v>
+      </c>
       <c r="L41" s="31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M41" s="1">
         <v>60</v>
@@ -4663,7 +4690,7 @@
         <v>691</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>222</v>
@@ -4681,10 +4708,10 @@
         <v>69</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="L42" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M42" s="1">
         <v>140</v>
@@ -4716,10 +4743,10 @@
         <v>69</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="L43" s="31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M43" s="1">
         <v>245</v>
@@ -4745,7 +4772,7 @@
       <c r="F44" s="20"/>
       <c r="G44" s="4"/>
       <c r="L44" s="31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M44" s="1">
         <v>425</v>
@@ -4763,7 +4790,7 @@
         <v>500</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>148</v>
@@ -4793,7 +4820,7 @@
         <v>550</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>230</v>
@@ -4805,7 +4832,7 @@
         <v>62</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M46" s="1">
         <v>75</v>
@@ -4823,10 +4850,10 @@
         <v>426</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F47" s="8">
         <v>310</v>
@@ -4853,7 +4880,7 @@
         <v>815</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>161</v>
@@ -4865,7 +4892,7 @@
         <v>62</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M48" s="1">
         <v>200</v>
@@ -4874,7 +4901,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B49" s="8">
         <v>35000</v>
@@ -4883,10 +4910,10 @@
         <v>706</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F49" s="15">
         <v>500</v>
@@ -4902,7 +4929,7 @@
       </c>
       <c r="J49" s="15"/>
       <c r="L49" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M49" s="1">
         <v>185</v>
@@ -4920,10 +4947,10 @@
         <v>248</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F50" s="15">
         <v>140</v>
@@ -4932,13 +4959,13 @@
         <v>62</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N50" s="15"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B51" s="8">
         <v>13000</v>
@@ -4947,10 +4974,10 @@
         <v>278</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F51" s="15">
         <v>160</v>
@@ -4971,10 +4998,10 @@
         <v>1200</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F52" s="15">
         <v>750</v>
@@ -4986,7 +5013,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B53" s="8">
         <v>20000</v>
@@ -4995,10 +5022,10 @@
         <v>600</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F53" s="15">
         <v>420</v>
@@ -5010,7 +5037,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B54" s="8">
         <v>20000</v>
@@ -5019,7 +5046,7 @@
         <v>700</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>51</v>
@@ -5043,22 +5070,22 @@
         <v>500</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F55" s="15">
         <v>330</v>
       </c>
-      <c r="G55" s="15" t="s">
-        <v>284</v>
+      <c r="G55" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B56" s="8">
         <v>20000</v>
@@ -5067,22 +5094,22 @@
         <v>460</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F56" s="15">
         <v>310</v>
       </c>
-      <c r="G56" s="15" t="s">
-        <v>284</v>
+      <c r="G56" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B57" s="8">
         <v>10000</v>
@@ -5091,48 +5118,61 @@
         <v>355</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F57" s="15">
         <v>255</v>
       </c>
-      <c r="G57" s="15" t="s">
-        <v>284</v>
+      <c r="G57" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C58" s="8">
+        <v>167</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" s="15">
+        <v>105</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N58" s="15"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B59" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C59" s="8">
+        <v>550</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="11"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="N58" s="15"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="19">
-        <v>40000</v>
-      </c>
-      <c r="C59" s="19">
-        <v>2110</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>281</v>
-      </c>
       <c r="E59" s="23" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F59" s="15">
-        <v>1260</v>
+        <v>350</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>62</v>
@@ -5140,96 +5180,92 @@
       <c r="N59" s="15"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="19">
-        <v>20000</v>
-      </c>
-      <c r="C60" s="19">
-        <v>2200</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>220</v>
-      </c>
+      <c r="A60" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="11"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="N60" s="15"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="B61" s="19">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="C61" s="19">
-        <v>1008</v>
+        <v>2110</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
+        <v>276</v>
+      </c>
+      <c r="F61" s="15">
+        <v>1260</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="N61" s="15"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B62" s="19">
         <v>20000</v>
       </c>
       <c r="C62" s="19">
-        <v>918</v>
+        <v>2200</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>220</v>
       </c>
+      <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="N62" s="15"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B63" s="19">
         <v>10000</v>
       </c>
       <c r="C63" s="19">
-        <v>530</v>
+        <v>1008</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="F63" s="27"/>
+      <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="N63" s="15"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B64" s="19">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="C64" s="19">
-        <v>552</v>
+        <v>918</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>220</v>
@@ -5238,198 +5274,205 @@
       <c r="N64" s="15"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="D65" s="23" t="s">
-        <v>216</v>
+      <c r="A65" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="19">
+        <v>10000</v>
+      </c>
+      <c r="C65" s="19">
+        <v>530</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F65" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="F65" s="27"/>
       <c r="G65" s="15"/>
       <c r="N65" s="15"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="23" t="s">
-        <v>213</v>
+      <c r="A66" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="19">
+        <v>500</v>
+      </c>
+      <c r="C66" s="19">
+        <v>552</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F66" s="20"/>
+        <v>220</v>
+      </c>
       <c r="G66" s="15"/>
       <c r="N66" s="15"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2"/>
       <c r="D67" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F67" s="19"/>
+        <v>207</v>
+      </c>
+      <c r="F67" s="2"/>
       <c r="G67" s="15"/>
       <c r="N67" s="15"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B68" s="8"/>
-      <c r="D68" s="11" t="s">
-        <v>200</v>
+      <c r="C68" s="8"/>
+      <c r="D68" s="23" t="s">
+        <v>213</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F68" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="F68" s="20"/>
       <c r="G68" s="15"/>
       <c r="N68" s="15"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="A69" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="D69" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>148</v>
+      </c>
       <c r="F69" s="19"/>
       <c r="G69" s="15"/>
       <c r="N69" s="15"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="D70" s="22"/>
+      <c r="A70" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="D70" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>148</v>
+      </c>
       <c r="F70" s="19"/>
       <c r="G70" s="15"/>
       <c r="N70" s="15"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="D71" s="22"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
       <c r="F71" s="19"/>
-      <c r="L71" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N71" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="G71" s="15"/>
+      <c r="N71" s="15"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="D72" s="22"/>
       <c r="F72" s="19"/>
-      <c r="L72" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N72" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="G72" s="15"/>
+      <c r="N72" s="15"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F73" s="19">
-        <v>215</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="D73" s="22"/>
+      <c r="F73" s="19"/>
       <c r="L73" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N73" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F74" s="19">
-        <v>225</v>
-      </c>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="D74" s="22"/>
+      <c r="F74" s="19"/>
       <c r="L74" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M74" s="1">
-        <v>650</v>
+        <v>103</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N74" s="15" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F75" s="19">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M75" s="1">
-        <v>580</v>
+        <v>105</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="N75" s="15" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>120</v>
+      <c r="A76" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F76" s="1">
-        <v>168</v>
+        <v>193</v>
+      </c>
+      <c r="F76" s="19">
+        <v>225</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M76" s="1">
-        <v>360</v>
+        <v>650</v>
       </c>
       <c r="N76" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G77" s="15"/>
+      <c r="A77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="19">
+        <v>203</v>
+      </c>
       <c r="L77" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="M77" s="1">
+        <v>580</v>
       </c>
       <c r="N77" s="15" t="s">
         <v>93</v>
@@ -5437,257 +5480,266 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="F78" s="1">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="M78" s="1">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N78" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>224</v>
-      </c>
+      <c r="G79" s="15"/>
       <c r="L79" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M79" s="1">
-        <v>255</v>
+        <v>109</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="N79" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F80" s="1">
+        <v>135</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M80" s="1">
+        <v>330</v>
+      </c>
+      <c r="N80" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M81" s="1">
+        <v>255</v>
+      </c>
+      <c r="N81" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="L82" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N82" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D83" s="1"/>
+      <c r="E83" s="15"/>
+      <c r="L83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M83" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="M80" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N80" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D81" s="1"/>
-      <c r="E81" s="15"/>
-      <c r="L81" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N81" s="16"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L82" s="1" t="s">
+      <c r="N83" s="16"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L84" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M82" s="1">
+      <c r="M84" s="1">
         <v>280</v>
       </c>
-      <c r="N82" s="15" t="s">
+      <c r="N84" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="29" t="s">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="28" t="s">
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E83" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="F83" s="27">
+      <c r="E85" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F85" s="27">
         <v>110</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="L85" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="N83" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F84" s="27">
-        <v>150</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N84" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="F85" s="1">
-        <v>115</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="N85" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F86" s="1">
-        <v>99</v>
+      <c r="A86" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F86" s="27">
+        <v>150</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="N86" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D87" s="1"/>
-      <c r="E87" s="15"/>
+      <c r="A87" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F87" s="1">
+        <v>115</v>
+      </c>
       <c r="L87" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N87" s="15" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F88" s="1">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="N88" s="15" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
       <c r="E89" s="15"/>
       <c r="L89" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N89" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D90" s="1"/>
-      <c r="E90" s="15"/>
+      <c r="A90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F90" s="1">
+        <v>145</v>
+      </c>
       <c r="L90" s="1" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="N90" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F91" s="1">
-        <v>80</v>
-      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="15"/>
       <c r="L91" s="1" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="N91" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N92" s="16"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="15"/>
+      <c r="L92" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N92" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="F93" s="1">
+        <v>80</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N93" s="15" t="s">
         <v>115</v>
@@ -5698,44 +5750,42 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="F95" s="1">
-        <v>90</v>
+        <v>158</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N95" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="N96" s="16"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N96" s="16"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D97" s="1"/>
-      <c r="E97" s="15"/>
+      <c r="E97" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F97" s="1">
+        <v>90</v>
+      </c>
       <c r="L97" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="N97" s="15" t="s">
         <v>115</v>
@@ -5743,149 +5793,152 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N98" s="16"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D99" s="1"/>
+      <c r="E99" s="15"/>
       <c r="L99" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M99" s="1">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="N99" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B100" s="6"/>
-      <c r="D100" s="7" t="s">
-        <v>203</v>
+      <c r="A100" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F100" s="1">
-        <v>185</v>
+        <v>158</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D101" s="1"/>
-      <c r="E101" s="15"/>
       <c r="L101" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="M101" s="1">
+        <v>145</v>
       </c>
       <c r="N101" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="11"/>
-      <c r="F102" s="8"/>
+      <c r="A102" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="D102" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F102" s="1">
+        <v>185</v>
+      </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F103" s="1">
-        <v>175</v>
-      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="15"/>
       <c r="L103" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M103" s="1">
-        <v>215</v>
+        <v>172</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="N103" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L104" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M104" s="1">
-        <v>215</v>
-      </c>
-      <c r="N104" s="15" t="s">
-        <v>115</v>
-      </c>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="11"/>
+      <c r="F104" s="8"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E105" s="23" t="s">
-        <v>238</v>
+        <v>171</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="F105" s="1">
-        <v>260</v>
+        <v>175</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M105" s="1">
+        <v>215</v>
+      </c>
+      <c r="N105" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F106" s="1">
-        <v>190</v>
-      </c>
       <c r="L106" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M106" s="1">
-        <v>485</v>
+        <v>215</v>
       </c>
       <c r="N106" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L107" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M107" s="1">
-        <v>380</v>
-      </c>
-      <c r="N107" s="15" t="s">
-        <v>115</v>
+      <c r="A107" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F107" s="1">
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" s="1">
+        <v>190</v>
+      </c>
       <c r="L108" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M108" s="1">
-        <v>585</v>
+        <v>485</v>
       </c>
       <c r="N108" s="15" t="s">
         <v>115</v>
@@ -5893,10 +5946,10 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L109" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M109" s="1">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="N109" s="15" t="s">
         <v>115</v>
@@ -5904,10 +5957,10 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L110" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M110" s="1">
-        <v>445</v>
+        <v>585</v>
       </c>
       <c r="N110" s="15" t="s">
         <v>115</v>
@@ -5915,10 +5968,10 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L111" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M111" s="1">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="N111" s="15" t="s">
         <v>115</v>
@@ -5926,12 +5979,34 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L112" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M112" s="1">
+        <v>445</v>
+      </c>
+      <c r="N112" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L113" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M113" s="1">
+        <v>660</v>
+      </c>
+      <c r="N113" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L114" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M112" s="1" t="s">
+      <c r="M114" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="N112" s="15" t="s">
+      <c r="N114" s="15" t="s">
         <v>115</v>
       </c>
     </row>
